--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB62D794-F397-F140-A260-953F6B26C6E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973565E0-60AF-0347-AAC7-E3DDA825F46C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1360" windowWidth="22300" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -2913,60 +2913,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$227:$B$233</c:f>
+              <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43311</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43312</c:v>
+                  <c:v>43319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43314</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43315</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43316</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43317</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$C$227:$C$233</c:f>
+              <c:f>WASSPerformance!$C$234:$C$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>995</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1022</c:v>
+                  <c:v>8055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>447</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>432</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,60 +2995,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$227:$B$233</c:f>
+              <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43311</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43312</c:v>
+                  <c:v>43319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43314</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43315</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43316</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43317</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$D$227:$D$233</c:f>
+              <c:f>WASSPerformance!$D$234:$D$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>888</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>838</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>7234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,60 +3062,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$227:$B$233</c:f>
+              <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43311</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43312</c:v>
+                  <c:v>43319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43314</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43315</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43316</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43317</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$F$227:$F$233</c:f>
+              <c:f>WASSPerformance!$F$234:$F$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,37 +3129,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$227:$B$233</c:f>
+              <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43311</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43312</c:v>
+                  <c:v>43319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43314</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43315</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43316</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43317</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$H$227:$H$233</c:f>
+              <c:f>WASSPerformance!$H$234:$H$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3197,22 +3167,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,60 +3198,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$227:$B$233</c:f>
+              <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43311</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43312</c:v>
+                  <c:v>43319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43314</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43315</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43316</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43317</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$J$227:$J$233</c:f>
+              <c:f>WASSPerformance!$J$234:$J$240</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,37 +3267,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$227:$B$233</c:f>
+              <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43311</c:v>
+                  <c:v>43318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43312</c:v>
+                  <c:v>43319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43314</c:v>
+                  <c:v>43321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43315</c:v>
+                  <c:v>43322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43316</c:v>
+                  <c:v>43323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43317</c:v>
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$L$227:$L$233</c:f>
+              <c:f>WASSPerformance!$L$234:$L$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3365,21 +3305,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -13496,13 +13421,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>866774</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13790,8 +13715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M234" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
-  <autoFilter ref="B16:M233" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M241" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
+  <autoFilter ref="B16:M240" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -13804,47 +13729,47 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C227:C233)</totalsRowFormula>
+      <totalsRowFormula>SUM(C234:C240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D227:D233)</totalsRowFormula>
+      <totalsRowFormula>SUM(D234:D240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E227:E233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E234:E240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F227:F233)</totalsRowFormula>
+      <totalsRowFormula>SUM(F234:F240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G227:G233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G234:G240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H227:H233)</totalsRowFormula>
+      <totalsRowFormula>SUM(H234:H240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I227:I233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I234:I240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J227:J233)</totalsRowFormula>
+      <totalsRowFormula>SUM(J234:J240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K227:K233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K234:K240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L227:L233)</totalsRowFormula>
+      <totalsRowFormula>SUM(L234:L240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M227:M233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M234:M240)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14461,10 +14386,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:M311"/>
+  <dimension ref="B1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L233" sqref="L233"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L235" sqref="L235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14528,7 +14453,7 @@
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>844846.03</v>
+        <v>853126.08000000007</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -14538,11 +14463,11 @@
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>729244</v>
+        <v>736673</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.86316793132116632</v>
+        <v>0.86349839404745421</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -14551,11 +14476,11 @@
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>95044</v>
+        <v>95751</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.11249860521922557</v>
+        <v>0.11223546231290923</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -14564,11 +14489,11 @@
       </c>
       <c r="C9" s="11">
         <f>H15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>2.3672952573381921E-6</v>
+        <v>3.5164790648528758E-6</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -14577,11 +14502,11 @@
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>20540</v>
+        <v>20683</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.4312122292863232E-2</v>
+        <v>2.4243778832784009E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -14603,7 +14528,7 @@
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>844830</v>
+        <v>853110</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -14629,47 +14554,47 @@
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>844846.03</v>
+        <v>853126.08000000007</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>729244</v>
+        <v>736673</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.8094249013707554</v>
+        <v>0.79200868747089836</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>95044</v>
+        <v>95751</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.13450063617194533</v>
+        <v>0.13113293068148071</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
 In_Prog])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="15">
         <f>AVERAGE(Tabla1820[%
 In_Prog])</f>
-        <v>3.6088257217078935E-6</v>
+        <v>4.0502753324651319E-6</v>
       </c>
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>20540</v>
+        <v>20683</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.2198331908612337E-2</v>
+        <v>4.1093897581737329E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -23200,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="87">
-        <f t="shared" ref="J193" si="0">A804</f>
+        <f t="shared" ref="J193" si="0">A811</f>
         <v>0</v>
       </c>
       <c r="K193" s="24">
@@ -24801,7 +24726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24849,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24897,7 +24822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24945,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24993,7 +24918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -25041,7 +24966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25089,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25137,119 +25062,384 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" ht="24" x14ac:dyDescent="0.2">
-      <c r="B234" s="38" t="s">
+    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="37">
+        <v>43318</v>
+      </c>
+      <c r="C234" s="93">
+        <v>225</v>
+      </c>
+      <c r="D234" s="87">
+        <v>195</v>
+      </c>
+      <c r="E234" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F234" s="87">
+        <v>23</v>
+      </c>
+      <c r="G234" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.10222222222222223</v>
+      </c>
+      <c r="H234" s="34">
+        <v>0</v>
+      </c>
+      <c r="I234" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J234" s="87">
+        <v>7</v>
+      </c>
+      <c r="K234" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>3.111111111111111E-2</v>
+      </c>
+      <c r="L234" s="34">
+        <v>0</v>
+      </c>
+      <c r="M234" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="37">
+        <v>43319</v>
+      </c>
+      <c r="C235" s="93">
+        <v>8055</v>
+      </c>
+      <c r="D235" s="87">
+        <v>7234</v>
+      </c>
+      <c r="E235" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.89807572936064561</v>
+      </c>
+      <c r="F235" s="87">
+        <v>684</v>
+      </c>
+      <c r="G235" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>8.4916201117318429E-2</v>
+      </c>
+      <c r="H235" s="34">
+        <v>1</v>
+      </c>
+      <c r="I235" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>1.2414649286157667E-4</v>
+      </c>
+      <c r="J235" s="87">
+        <v>136</v>
+      </c>
+      <c r="K235" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>1.6883923029174425E-2</v>
+      </c>
+      <c r="L235" s="34">
+        <v>0</v>
+      </c>
+      <c r="M235" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="37">
+        <v>43320</v>
+      </c>
+      <c r="C236" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D236" s="87"/>
+      <c r="E236" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F236" s="87"/>
+      <c r="G236" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H236" s="34"/>
+      <c r="I236" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J236" s="87"/>
+      <c r="K236" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L236" s="34"/>
+      <c r="M236" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="37">
+        <v>43321</v>
+      </c>
+      <c r="C237" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D237" s="87"/>
+      <c r="E237" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F237" s="87"/>
+      <c r="G237" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H237" s="34"/>
+      <c r="I237" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J237" s="87"/>
+      <c r="K237" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L237" s="34"/>
+      <c r="M237" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="37">
+        <v>43322</v>
+      </c>
+      <c r="C238" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D238" s="87"/>
+      <c r="E238" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F238" s="87"/>
+      <c r="G238" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H238" s="34"/>
+      <c r="I238" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J238" s="87"/>
+      <c r="K238" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L238" s="34"/>
+      <c r="M238" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="37">
+        <v>43323</v>
+      </c>
+      <c r="C239" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D239" s="87"/>
+      <c r="E239" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F239" s="87"/>
+      <c r="G239" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H239" s="34"/>
+      <c r="I239" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J239" s="87"/>
+      <c r="K239" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L239" s="34"/>
+      <c r="M239" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="37">
+        <v>43324</v>
+      </c>
+      <c r="C240" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D240" s="87"/>
+      <c r="E240" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F240" s="87"/>
+      <c r="G240" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H240" s="34"/>
+      <c r="I240" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J240" s="87"/>
+      <c r="K240" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L240" s="34"/>
+      <c r="M240" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="B241" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C234" s="39">
-        <f>SUM(C227:C233)</f>
-        <v>3790</v>
-      </c>
-      <c r="D234" s="39">
-        <f>SUM(D227:D233)</f>
-        <v>3104</v>
-      </c>
-      <c r="E234" s="94">
-        <f>AVERAGE(E227:E233)</f>
-        <v>0.83812490253410143</v>
-      </c>
-      <c r="F234" s="39">
-        <f>SUM(F227:F233)</f>
-        <v>652</v>
-      </c>
-      <c r="G234" s="94">
-        <f>AVERAGE(G227:G233)</f>
-        <v>0.15085496411388991</v>
-      </c>
-      <c r="H234" s="39">
-        <f>SUM(H227:H233)</f>
-        <v>0</v>
-      </c>
-      <c r="I234" s="94">
-        <f>AVERAGE(I227:I233)</f>
-        <v>0</v>
-      </c>
-      <c r="J234" s="39">
-        <f>SUM(J227:J233)</f>
-        <v>34</v>
-      </c>
-      <c r="K234" s="94">
-        <f>AVERAGE(K227:K233)</f>
-        <v>1.1020133352008731E-2</v>
-      </c>
-      <c r="L234" s="39">
-        <f>SUM(L227:L233)</f>
-        <v>0</v>
-      </c>
-      <c r="M234" s="94">
-        <f>AVERAGE(M227:M233)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D235" s="1"/>
-    </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D238" s="1"/>
-    </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D239" s="1"/>
-    </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D240" s="1"/>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D241" s="1"/>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="C241" s="39">
+        <f>SUM(C234:C240)</f>
+        <v>8280.0500000000011</v>
+      </c>
+      <c r="D241" s="39">
+        <f>SUM(D234:D240)</f>
+        <v>7429</v>
+      </c>
+      <c r="E241" s="94">
+        <f>AVERAGE(E234:E240)</f>
+        <v>0.25210605657533031</v>
+      </c>
+      <c r="F241" s="39">
+        <f>SUM(F234:F240)</f>
+        <v>707</v>
+      </c>
+      <c r="G241" s="94">
+        <f>AVERAGE(G234:G240)</f>
+        <v>2.6734060477077239E-2</v>
+      </c>
+      <c r="H241" s="39">
+        <f>SUM(H234:H240)</f>
+        <v>1</v>
+      </c>
+      <c r="I241" s="94">
+        <f>AVERAGE(I234:I240)</f>
+        <v>1.7735213265939524E-5</v>
+      </c>
+      <c r="J241" s="39">
+        <f>SUM(J234:J240)</f>
+        <v>143</v>
+      </c>
+      <c r="K241" s="94">
+        <f>AVERAGE(K234:K240)</f>
+        <v>6.8564334486122197E-3</v>
+      </c>
+      <c r="L241" s="39">
+        <f>SUM(L234:L240)</f>
+        <v>0</v>
+      </c>
+      <c r="M241" s="94">
+        <f>AVERAGE(M234:M240)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D256" s="1"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.2">
@@ -25416,6 +25606,27 @@
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D318" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973565E0-60AF-0347-AAC7-E3DDA825F46C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1AE586-AD7B-0A40-B4BE-4265300BD388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1540" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -2954,7 +2954,7 @@
                   <c:v>8055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>5142</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.01</c:v>
@@ -3035,6 +3035,9 @@
                 <c:pt idx="1">
                   <c:v>7234</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3399</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3102,6 +3105,9 @@
                 <c:pt idx="1">
                   <c:v>684</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1557</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3168,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3238,6 +3247,9 @@
                 <c:pt idx="1">
                   <c:v>136</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3305,6 +3317,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -14389,7 +14404,7 @@
   <dimension ref="B1:M318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L235" sqref="L235"/>
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14453,7 +14468,7 @@
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>853126.08000000007</v>
+        <v>858268.07000000007</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -14463,11 +14478,11 @@
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>736673</v>
+        <v>740072</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.86349839404745421</v>
+        <v>0.86228536965146563</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -14476,11 +14491,11 @@
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>95751</v>
+        <v>97308</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.11223546231290923</v>
+        <v>0.11337716431650544</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -14493,7 +14508,7 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.5164790648528758E-6</v>
+        <v>3.4954114045044224E-6</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -14502,11 +14517,11 @@
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>20683</v>
+        <v>20869</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.4243778832784009E-2</v>
+        <v>2.4315246866867597E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -14528,7 +14543,7 @@
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>853110</v>
+        <v>858252</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -14554,27 +14569,27 @@
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>853126.08000000007</v>
+        <v>858268.07000000007</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>736673</v>
+        <v>740072</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.79200868747089836</v>
+        <v>0.79495970013967654</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>95751</v>
+        <v>97308</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.13113293068148071</v>
+        <v>0.13248471847944704</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14589,12 +14604,12 @@
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>20683</v>
+        <v>20869</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.1093897581737329E-2</v>
+        <v>4.125538282927859E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -25163,33 +25178,43 @@
         <v>43320</v>
       </c>
       <c r="C236" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D236" s="87"/>
+        <v>5142</v>
+      </c>
+      <c r="D236" s="87">
+        <v>3399</v>
+      </c>
       <c r="E236" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F236" s="87"/>
+        <v>0.661026837806301</v>
+      </c>
+      <c r="F236" s="87">
+        <v>1557</v>
+      </c>
       <c r="G236" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H236" s="34"/>
+        <v>0.30280046674445743</v>
+      </c>
+      <c r="H236" s="34">
+        <v>0</v>
+      </c>
       <c r="I236" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J236" s="87"/>
+      <c r="J236" s="87">
+        <v>186</v>
+      </c>
       <c r="K236" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L236" s="34"/>
+        <v>3.6172695449241538E-2</v>
+      </c>
+      <c r="L236" s="34">
+        <v>0</v>
+      </c>
       <c r="M236" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
@@ -25354,23 +25379,23 @@
       </c>
       <c r="C241" s="39">
         <f>SUM(C234:C240)</f>
-        <v>8280.0500000000011</v>
+        <v>13422.04</v>
       </c>
       <c r="D241" s="39">
         <f>SUM(D234:D240)</f>
-        <v>7429</v>
+        <v>10828</v>
       </c>
       <c r="E241" s="94">
         <f>AVERAGE(E234:E240)</f>
-        <v>0.25210605657533031</v>
+        <v>0.34653846197623045</v>
       </c>
       <c r="F241" s="39">
         <f>SUM(F234:F240)</f>
-        <v>707</v>
+        <v>2264</v>
       </c>
       <c r="G241" s="94">
         <f>AVERAGE(G234:G240)</f>
-        <v>2.6734060477077239E-2</v>
+        <v>6.9991270011999729E-2</v>
       </c>
       <c r="H241" s="39">
         <f>SUM(H234:H240)</f>
@@ -25382,11 +25407,11 @@
       </c>
       <c r="J241" s="39">
         <f>SUM(J234:J240)</f>
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="K241" s="94">
         <f>AVERAGE(K234:K240)</f>
-        <v>6.8564334486122197E-3</v>
+        <v>1.202396136993244E-2</v>
       </c>
       <c r="L241" s="39">
         <f>SUM(L234:L240)</f>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1AE586-AD7B-0A40-B4BE-4265300BD388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C8170-8C2E-0443-BE04-73BF99151A06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1540" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="5080" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -2957,7 +2957,7 @@
                   <c:v>5142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.01</c:v>
@@ -3038,6 +3038,9 @@
                 <c:pt idx="2">
                   <c:v>3399</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3108,6 +3111,9 @@
                 <c:pt idx="2">
                   <c:v>1557</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1351</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3176,6 +3182,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3250,6 +3259,9 @@
                 <c:pt idx="2">
                   <c:v>186</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3320,6 +3332,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -14404,7 +14419,7 @@
   <dimension ref="B1:M318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L236" sqref="L236"/>
+      <selection activeCell="L237" sqref="L237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14468,7 +14483,7 @@
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>858268.07000000007</v>
+        <v>861518.06</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -14478,11 +14493,11 @@
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>740072</v>
+        <v>741779</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.86228536965146563</v>
+        <v>0.86101387125883344</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -14491,11 +14506,11 @@
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>97308</v>
+        <v>98659</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.11337716431650544</v>
+        <v>0.11451762253248643</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -14508,7 +14523,7 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.4954114045044224E-6</v>
+        <v>3.4822253174820267E-6</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -14517,11 +14532,11 @@
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>20869</v>
+        <v>21061</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.4315246866867597E-2</v>
+        <v>2.4446382470496322E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -14543,7 +14558,7 @@
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>858252</v>
+        <v>861502</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -14569,27 +14584,27 @@
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>858268.07000000007</v>
+        <v>861518.06</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>740072</v>
+        <v>741779</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.79495970013967654</v>
+        <v>0.79730448035945678</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>97308</v>
+        <v>98659</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.13248471847944704</v>
+        <v>0.13434048771021626</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14604,12 +14619,12 @@
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>20869</v>
+        <v>21061</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.125538282927859E-2</v>
+        <v>4.1519119093014853E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -25226,33 +25241,43 @@
         <v>43321</v>
       </c>
       <c r="C237" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D237" s="87"/>
+        <v>3250</v>
+      </c>
+      <c r="D237" s="87">
+        <v>1707</v>
+      </c>
       <c r="E237" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F237" s="87"/>
+        <v>0.52523076923076928</v>
+      </c>
+      <c r="F237" s="87">
+        <v>1351</v>
+      </c>
       <c r="G237" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H237" s="34"/>
+        <v>0.41569230769230769</v>
+      </c>
+      <c r="H237" s="34">
+        <v>0</v>
+      </c>
       <c r="I237" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J237" s="87"/>
+      <c r="J237" s="87">
+        <v>192</v>
+      </c>
       <c r="K237" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L237" s="34"/>
+        <v>5.9076923076923075E-2</v>
+      </c>
+      <c r="L237" s="34">
+        <v>0</v>
+      </c>
       <c r="M237" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
@@ -25379,23 +25404,23 @@
       </c>
       <c r="C241" s="39">
         <f>SUM(C234:C240)</f>
-        <v>13422.04</v>
+        <v>16672.029999999995</v>
       </c>
       <c r="D241" s="39">
         <f>SUM(D234:D240)</f>
-        <v>10828</v>
+        <v>12535</v>
       </c>
       <c r="E241" s="94">
         <f>AVERAGE(E234:E240)</f>
-        <v>0.34653846197623045</v>
+        <v>0.42157142900919753</v>
       </c>
       <c r="F241" s="39">
         <f>SUM(F234:F240)</f>
-        <v>2264</v>
+        <v>3615</v>
       </c>
       <c r="G241" s="94">
         <f>AVERAGE(G234:G240)</f>
-        <v>6.9991270011999729E-2</v>
+        <v>0.12937588539661513</v>
       </c>
       <c r="H241" s="39">
         <f>SUM(H234:H240)</f>
@@ -25407,11 +25432,11 @@
       </c>
       <c r="J241" s="39">
         <f>SUM(J234:J240)</f>
-        <v>329</v>
+        <v>521</v>
       </c>
       <c r="K241" s="94">
         <f>AVERAGE(K234:K240)</f>
-        <v>1.202396136993244E-2</v>
+        <v>2.0463521809492877E-2</v>
       </c>
       <c r="L241" s="39">
         <f>SUM(L234:L240)</f>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C8170-8C2E-0443-BE04-73BF99151A06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C29BD-BE06-45C3-AC13-9D9CCBBFB93B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="5080" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="5076" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_Toc495308772" localSheetId="5">'06'!#REF!</definedName>
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -857,9 +857,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
+    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
@@ -1139,6 +1139,18 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2737,18 +2749,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -2834,7 +2834,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2915,7 +2915,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43318</c:v>
@@ -2960,13 +2960,13 @@
                   <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>2952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,7 +2997,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43318</c:v>
@@ -3040,6 +3040,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,7 +3079,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43318</c:v>
@@ -3113,6 +3122,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3161,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43318</c:v>
@@ -3185,6 +3203,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3218,7 +3245,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43318</c:v>
@@ -3261,6 +3288,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3293,7 +3329,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$234:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43318</c:v>
@@ -3335,6 +3371,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3367,7 +3412,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3401,7 +3446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3459,7 +3504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3501,7 +3546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3540,7 +3585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3570,7 +3615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3584,7 +3629,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3668,7 +3713,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3879,7 +3924,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4090,7 +4135,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4301,7 +4346,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4514,7 +4559,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4727,7 +4772,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4936,7 +4981,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4970,7 +5015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5028,7 +5073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5070,7 +5115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5109,7 +5154,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5139,7 +5184,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5153,7 +5198,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5237,7 +5282,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5466,7 +5511,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5695,7 +5740,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5924,7 +5969,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6155,7 +6200,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6386,7 +6431,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6613,7 +6658,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6647,7 +6692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6705,7 +6750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6747,7 +6792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6786,7 +6831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6816,7 +6861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6830,7 +6875,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6914,7 +6959,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7137,7 +7182,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7360,7 +7405,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7583,7 +7628,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7808,7 +7853,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8033,7 +8078,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8254,7 +8299,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8288,7 +8333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8346,7 +8391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8388,7 +8433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8427,7 +8472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8457,7 +8502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8471,7 +8516,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8555,7 +8600,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8784,7 +8829,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9013,7 +9058,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9242,7 +9287,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9473,7 +9518,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9704,7 +9749,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9931,7 +9976,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9965,7 +10010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10023,7 +10068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10065,7 +10110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10104,7 +10149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10134,7 +10179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10148,7 +10193,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10232,7 +10277,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10455,7 +10500,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10678,7 +10723,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10901,7 +10946,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11126,7 +11171,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11351,7 +11396,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11572,7 +11617,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11606,7 +11651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11664,7 +11709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11706,7 +11751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11745,7 +11790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11775,7 +11820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11789,7 +11834,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11870,7 +11915,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12096,7 +12141,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12322,7 +12367,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12548,7 +12593,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12776,7 +12821,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13004,7 +13049,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13231,7 +13276,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13265,7 +13310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13323,7 +13368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13365,7 +13410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13404,7 +13449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13434,7 +13479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13757,7 +13802,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
       <totalsRowFormula>SUM(C234:C240)</totalsRowFormula>
     </tableColumn>
@@ -13807,7 +13852,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -13819,46 +13864,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="87">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="86">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="84">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Complete]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="84">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="82">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Failed]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="82">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="80">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
       <calculatedColumnFormula>Tabla18203[Transactions 
 In_Prog]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="80">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="78">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Timeout]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="78">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="76">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
       <calculatedColumnFormula>Tabla18203[Transactions
 Trans Fail]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -13869,7 +13914,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
   <autoFilter ref="B16:M48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -13881,46 +13926,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="71">
       <totalsRowFormula>SUM(C42:C48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="70">
       <totalsRowFormula>SUM(D42:D48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Complete]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="68">
       <totalsRowFormula>SUM(F42:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="66">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Failed]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="66">
       <totalsRowFormula>SUM(H42:H48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="64">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
       <calculatedColumnFormula>Tabla18204[Transactions 
 In_Prog]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="64">
       <totalsRowFormula>SUM(J42:J48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="62">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Timeout]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="62">
       <totalsRowFormula>SUM(L42:L48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="60">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
       <calculatedColumnFormula>Tabla18204[Transactions
 Trans Fail]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M48)</totalsRowFormula>
@@ -13931,7 +13976,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -13943,46 +13988,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="55">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="54">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Complete]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="52">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Failed]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="50">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="48">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
       <calculatedColumnFormula>Tabla18205[Transactions 
 In_Prog]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="48">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="46">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Timeout]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="46">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="44">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
       <calculatedColumnFormula>Tabla18205[Transactions
 Trans Fail]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -13993,7 +14038,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -14005,46 +14050,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="39">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="36">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Complete]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="36">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Failed]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="34">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="32">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
       <calculatedColumnFormula>Tabla18206[Transactions 
 In_Prog]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="32">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="30">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Timeout]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="30">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
       <calculatedColumnFormula>Tabla18206[Transactions
 Trans Fail]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -14055,7 +14100,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -14067,46 +14112,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="23">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Complete]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="20">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Failed]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="18">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabla18207[Transactions 
 In_Prog]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="16">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Timeout]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="14">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
       <calculatedColumnFormula>Tabla18207[Transactions
 Trans Fail]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14418,36 +14463,36 @@
   </sheetPr>
   <dimension ref="B1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L237" sqref="L237"/>
+    <sheetView tabSelected="1" topLeftCell="B240" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L240" sqref="L240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14456,12 +14501,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -14470,50 +14515,50 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>861518.06</v>
+        <v>866453.03</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>741779</v>
+        <v>743656</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.86101387125883344</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.85827618376497572</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>98659</v>
+        <v>101144</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.11451762253248643</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.1167333906143764</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -14523,23 +14568,23 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.4822253174820267E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+        <v>3.462391954472131E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>21061</v>
+        <v>21634</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.4446382470496322E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2.4968462514350028E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -14552,17 +14597,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>861502</v>
+        <v>866437</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -14578,33 +14623,33 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>861518.06</v>
+        <v>866453.03</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>741779</v>
+        <v>743656</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.79730448035945678</v>
+        <v>0.80112656787950898</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>98659</v>
+        <v>101144</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.13434048771021626</v>
+        <v>0.14101029550194219</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14619,12 +14664,12 @@
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>21061</v>
+        <v>21634</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.1519119093014853E-2</v>
+        <v>4.4420080924093788E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -14637,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -14675,7 +14720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>43101</v>
       </c>
@@ -14723,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>43102</v>
       </c>
@@ -14771,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>43103</v>
       </c>
@@ -14819,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>43104</v>
       </c>
@@ -14867,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>43105</v>
       </c>
@@ -14915,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>43106</v>
       </c>
@@ -14963,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>43107</v>
       </c>
@@ -15011,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>43108</v>
       </c>
@@ -15059,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>43109</v>
       </c>
@@ -15107,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27">
         <v>43110</v>
       </c>
@@ -15155,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27">
         <v>43111</v>
       </c>
@@ -15203,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27">
         <v>43112</v>
       </c>
@@ -15251,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27">
         <v>43113</v>
       </c>
@@ -15299,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27">
         <v>43114</v>
       </c>
@@ -15347,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27">
         <v>43115</v>
       </c>
@@ -15395,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27">
         <v>43116</v>
       </c>
@@ -15443,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27">
         <v>43117</v>
       </c>
@@ -15491,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27">
         <v>43118</v>
       </c>
@@ -15539,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27">
         <v>43119</v>
       </c>
@@ -15587,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27">
         <v>43120</v>
       </c>
@@ -15635,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="27">
         <v>43121</v>
       </c>
@@ -15683,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43122</v>
       </c>
@@ -15731,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43123</v>
       </c>
@@ -15779,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43124</v>
       </c>
@@ -15827,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43125</v>
       </c>
@@ -15875,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43126</v>
       </c>
@@ -15923,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43127</v>
       </c>
@@ -15971,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43128</v>
       </c>
@@ -16019,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43129</v>
       </c>
@@ -16067,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43130</v>
       </c>
@@ -16115,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
         <v>43131</v>
       </c>
@@ -16163,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="37">
         <v>43132</v>
       </c>
@@ -16211,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="37">
         <v>43133</v>
       </c>
@@ -16259,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="37">
         <v>43134</v>
       </c>
@@ -16307,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="37">
         <v>43135</v>
       </c>
@@ -16355,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="37">
         <v>43136</v>
       </c>
@@ -16403,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="37">
         <v>43137</v>
       </c>
@@ -16451,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="37">
         <v>43138</v>
       </c>
@@ -16499,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="37">
         <v>43139</v>
       </c>
@@ -16547,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="37">
         <v>43140</v>
       </c>
@@ -16595,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="37">
         <v>43141</v>
       </c>
@@ -16643,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="37">
         <v>43142</v>
       </c>
@@ -16691,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="37">
         <v>43143</v>
       </c>
@@ -16739,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="37">
         <v>43144</v>
       </c>
@@ -16787,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="37">
         <v>43145</v>
       </c>
@@ -16835,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="37">
         <v>43146</v>
       </c>
@@ -16883,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="37">
         <v>43147</v>
       </c>
@@ -16931,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="37">
         <v>43148</v>
       </c>
@@ -16979,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="37">
         <v>43149</v>
       </c>
@@ -17027,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="37">
         <v>43150</v>
       </c>
@@ -17075,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="37">
         <v>43151</v>
       </c>
@@ -17123,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="37">
         <v>43152</v>
       </c>
@@ -17171,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="37">
         <v>43153</v>
       </c>
@@ -17219,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="37">
         <v>43154</v>
       </c>
@@ -17267,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="37">
         <v>43155</v>
       </c>
@@ -17315,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="37">
         <v>43156</v>
       </c>
@@ -17363,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="37">
         <v>43157</v>
       </c>
@@ -17411,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="37">
         <v>43158</v>
       </c>
@@ -17459,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="37">
         <v>43159</v>
       </c>
@@ -17507,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="37">
         <v>43160</v>
       </c>
@@ -17555,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="37">
         <v>43161</v>
       </c>
@@ -17603,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="37">
         <v>43162</v>
       </c>
@@ -17651,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="37">
         <v>43163</v>
       </c>
@@ -17699,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="37">
         <v>43164</v>
       </c>
@@ -17747,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="37">
         <v>43165</v>
       </c>
@@ -17795,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="37">
         <v>43166</v>
       </c>
@@ -17843,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="37">
         <v>43167</v>
       </c>
@@ -17891,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="37">
         <v>43168</v>
       </c>
@@ -17939,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="37">
         <v>43169</v>
       </c>
@@ -17987,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="37">
         <v>43170</v>
       </c>
@@ -18035,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="37">
         <v>43171</v>
       </c>
@@ -18083,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="37">
         <v>43172</v>
       </c>
@@ -18131,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="37">
         <v>43173</v>
       </c>
@@ -18179,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="37">
         <v>43174</v>
       </c>
@@ -18227,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="37">
         <v>43175</v>
       </c>
@@ -18275,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="37">
         <v>43176</v>
       </c>
@@ -18323,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="37">
         <v>43177</v>
       </c>
@@ -18371,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43">
         <v>43178</v>
       </c>
@@ -18419,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="43">
         <v>43179</v>
       </c>
@@ -18467,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="43">
         <v>43180</v>
       </c>
@@ -18515,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43">
         <v>43181</v>
       </c>
@@ -18563,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="43">
         <v>43182</v>
       </c>
@@ -18611,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="43">
         <v>43183</v>
       </c>
@@ -18659,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="43">
         <v>43184</v>
       </c>
@@ -18707,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="43">
         <v>43185</v>
       </c>
@@ -18755,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="43">
         <v>43186</v>
       </c>
@@ -18803,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="43">
         <v>43187</v>
       </c>
@@ -18851,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="43">
         <v>43188</v>
       </c>
@@ -18899,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="43">
         <v>43189</v>
       </c>
@@ -18947,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="43">
         <v>43190</v>
       </c>
@@ -18995,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="43">
         <v>43191</v>
       </c>
@@ -19043,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="43">
         <v>43192</v>
       </c>
@@ -19091,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="43">
         <v>43193</v>
       </c>
@@ -19139,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="43">
         <v>43194</v>
       </c>
@@ -19187,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="43">
         <v>43195</v>
       </c>
@@ -19235,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="43">
         <v>43196</v>
       </c>
@@ -19283,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="43">
         <v>43197</v>
       </c>
@@ -19331,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="43">
         <v>43198</v>
       </c>
@@ -19379,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="43">
         <v>43199</v>
       </c>
@@ -19427,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="43">
         <v>43200</v>
       </c>
@@ -19475,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="43">
         <v>43201</v>
       </c>
@@ -19523,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="43">
         <v>43202</v>
       </c>
@@ -19571,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="43">
         <v>43203</v>
       </c>
@@ -19619,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="43">
         <v>43204</v>
       </c>
@@ -19667,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="43">
         <v>43205</v>
       </c>
@@ -19715,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="43">
         <v>43206</v>
       </c>
@@ -19763,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="43">
         <v>43207</v>
       </c>
@@ -19811,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="43">
         <v>43208</v>
       </c>
@@ -19859,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="43">
         <v>43209</v>
       </c>
@@ -19907,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="43">
         <v>43210</v>
       </c>
@@ -19955,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="43">
         <v>43211</v>
       </c>
@@ -20003,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="43">
         <v>43212</v>
       </c>
@@ -20051,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="43">
         <v>43213</v>
       </c>
@@ -20099,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="43">
         <v>43214</v>
       </c>
@@ -20147,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="43">
         <v>43215</v>
       </c>
@@ -20195,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="43">
         <v>43216</v>
       </c>
@@ -20243,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="43">
         <v>43217</v>
       </c>
@@ -20291,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="43">
         <v>43218</v>
       </c>
@@ -20339,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="43">
         <v>43219</v>
       </c>
@@ -20387,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="43">
         <v>43220</v>
       </c>
@@ -20435,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="43">
         <v>43221</v>
       </c>
@@ -20483,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="43">
         <v>43222</v>
       </c>
@@ -20531,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="43">
         <v>43223</v>
       </c>
@@ -20579,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="43">
         <v>43224</v>
       </c>
@@ -20627,7 +20672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="43">
         <v>43225</v>
       </c>
@@ -20675,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="51">
         <v>43226</v>
       </c>
@@ -20723,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="51">
         <v>43227</v>
       </c>
@@ -20771,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="51">
         <v>43228</v>
       </c>
@@ -20819,7 +20864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="51">
         <v>43229</v>
       </c>
@@ -20867,7 +20912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="51">
         <v>43230</v>
       </c>
@@ -20915,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="51">
         <v>43231</v>
       </c>
@@ -20963,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="51">
         <v>43232</v>
       </c>
@@ -21011,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="43">
         <v>43233</v>
       </c>
@@ -21059,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="37">
         <v>43234</v>
       </c>
@@ -21107,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="37">
         <v>43235</v>
       </c>
@@ -21155,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="37">
         <v>43236</v>
       </c>
@@ -21203,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="37">
         <v>43237</v>
       </c>
@@ -21251,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="37">
         <v>43238</v>
       </c>
@@ -21299,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="37">
         <v>43239</v>
       </c>
@@ -21347,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="37">
         <v>43240</v>
       </c>
@@ -21395,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="37">
         <v>43241</v>
       </c>
@@ -21443,7 +21488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="37">
         <v>43242</v>
       </c>
@@ -21491,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="37">
         <v>43243</v>
       </c>
@@ -21539,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="37">
         <v>43244</v>
       </c>
@@ -21587,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="37">
         <v>43245</v>
       </c>
@@ -21635,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="37">
         <v>43246</v>
       </c>
@@ -21683,7 +21728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="37">
         <v>43247</v>
       </c>
@@ -21731,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="37">
         <v>43248</v>
       </c>
@@ -21779,7 +21824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="37">
         <v>43249</v>
       </c>
@@ -21827,7 +21872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="37">
         <v>43250</v>
       </c>
@@ -21875,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="37">
         <v>43251</v>
       </c>
@@ -21923,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="37">
         <v>43252</v>
       </c>
@@ -21971,7 +22016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="37">
         <v>43253</v>
       </c>
@@ -22019,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="37">
         <v>43254</v>
       </c>
@@ -22067,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="37">
         <v>43255</v>
       </c>
@@ -22115,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="37">
         <v>43256</v>
       </c>
@@ -22163,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="37">
         <v>43257</v>
       </c>
@@ -22211,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="37">
         <v>43258</v>
       </c>
@@ -22259,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="37">
         <v>43259</v>
       </c>
@@ -22307,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="37">
         <v>43260</v>
       </c>
@@ -22355,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="37">
         <v>43261</v>
       </c>
@@ -22403,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="37">
         <v>43262</v>
       </c>
@@ -22451,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="37">
         <v>43263</v>
       </c>
@@ -22499,7 +22544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="37">
         <v>43264</v>
       </c>
@@ -22547,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="37">
         <v>43265</v>
       </c>
@@ -22595,7 +22640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="37">
         <v>43266</v>
       </c>
@@ -22643,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="37">
         <v>43267</v>
       </c>
@@ -22691,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="37">
         <v>43268</v>
       </c>
@@ -22739,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="37">
         <v>43269</v>
       </c>
@@ -22787,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="37">
         <v>43270</v>
       </c>
@@ -22835,7 +22880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="37">
         <v>43271</v>
       </c>
@@ -22883,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="37">
         <v>43272</v>
       </c>
@@ -22931,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="37">
         <v>43273</v>
       </c>
@@ -22979,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="37">
         <v>43274</v>
       </c>
@@ -23027,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="37">
         <v>43275</v>
       </c>
@@ -23075,7 +23120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="37">
         <v>43276</v>
       </c>
@@ -23123,7 +23168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="37">
         <v>43277</v>
       </c>
@@ -23172,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="37">
         <v>43278</v>
       </c>
@@ -23220,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="37">
         <v>43279</v>
       </c>
@@ -23268,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="37">
         <v>43280</v>
       </c>
@@ -23316,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="37">
         <v>43281</v>
       </c>
@@ -23364,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="37">
         <v>43282</v>
       </c>
@@ -23412,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="37">
         <v>43283</v>
       </c>
@@ -23460,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="37">
         <v>43284</v>
       </c>
@@ -23508,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="37">
         <v>43285</v>
       </c>
@@ -23556,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="37">
         <v>43286</v>
       </c>
@@ -23604,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="37">
         <v>43287</v>
       </c>
@@ -23652,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="37">
         <v>43288</v>
       </c>
@@ -23700,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="37">
         <v>43289</v>
       </c>
@@ -23748,7 +23793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="37">
         <v>43290</v>
       </c>
@@ -23796,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="37">
         <v>43291</v>
       </c>
@@ -23844,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="37">
         <v>43292</v>
       </c>
@@ -23892,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="37">
         <v>43293</v>
       </c>
@@ -23940,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="37">
         <v>43294</v>
       </c>
@@ -23988,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="37">
         <v>43295</v>
       </c>
@@ -24036,7 +24081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="37">
         <v>43296</v>
       </c>
@@ -24084,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="37">
         <v>43297</v>
       </c>
@@ -24132,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="37">
         <v>43298</v>
       </c>
@@ -24180,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="37">
         <v>43299</v>
       </c>
@@ -24228,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="37">
         <v>43300</v>
       </c>
@@ -24276,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="37">
         <v>43301</v>
       </c>
@@ -24324,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="37">
         <v>43302</v>
       </c>
@@ -24372,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="37">
         <v>43303</v>
       </c>
@@ -24420,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="37">
         <v>43304</v>
       </c>
@@ -24468,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="37">
         <v>43305</v>
       </c>
@@ -24516,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="37">
         <v>43306</v>
       </c>
@@ -24564,7 +24609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="37">
         <v>43307</v>
       </c>
@@ -24612,7 +24657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="37">
         <v>43308</v>
       </c>
@@ -24660,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="37">
         <v>43309</v>
       </c>
@@ -24708,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="37">
         <v>43310</v>
       </c>
@@ -24756,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24804,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24852,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24900,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24948,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -24996,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25044,7 +25089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25092,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B234" s="37">
         <v>43318</v>
       </c>
@@ -25140,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B235" s="37">
         <v>43319</v>
       </c>
@@ -25188,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B236" s="37">
         <v>43320</v>
       </c>
@@ -25236,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B237" s="37">
         <v>43321</v>
       </c>
@@ -25284,143 +25329,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B238" s="37">
         <v>43322</v>
       </c>
       <c r="C238" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D238" s="87"/>
+        <v>2952</v>
+      </c>
+      <c r="D238" s="87">
+        <v>1371</v>
+      </c>
       <c r="E238" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F238" s="87"/>
+        <v>0.46443089430894308</v>
+      </c>
+      <c r="F238" s="87">
+        <v>1372</v>
+      </c>
       <c r="G238" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H238" s="34"/>
+        <v>0.46476964769647694</v>
+      </c>
+      <c r="H238" s="34">
+        <v>0</v>
+      </c>
       <c r="I238" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J238" s="87"/>
+      <c r="J238" s="87">
+        <v>209</v>
+      </c>
       <c r="K238" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L238" s="34"/>
+        <v>7.0799457994579942E-2</v>
+      </c>
+      <c r="L238" s="34">
+        <v>0</v>
+      </c>
       <c r="M238" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="37">
         <v>43323</v>
       </c>
       <c r="C239" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D239" s="87"/>
+        <v>1600</v>
+      </c>
+      <c r="D239" s="87">
+        <v>468</v>
+      </c>
       <c r="E239" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F239" s="87"/>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="F239" s="87">
+        <v>945</v>
+      </c>
       <c r="G239" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H239" s="34"/>
+        <v>0.59062499999999996</v>
+      </c>
+      <c r="H239" s="34">
+        <v>0</v>
+      </c>
       <c r="I239" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J239" s="87"/>
+      <c r="J239" s="87">
+        <v>187</v>
+      </c>
       <c r="K239" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L239" s="34"/>
+        <v>0.11687500000000001</v>
+      </c>
+      <c r="L239" s="34">
+        <v>0</v>
+      </c>
       <c r="M239" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="37">
         <v>43324</v>
       </c>
       <c r="C240" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D240" s="87"/>
+        <v>383</v>
+      </c>
+      <c r="D240" s="87">
+        <v>38</v>
+      </c>
       <c r="E240" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F240" s="87"/>
+        <v>9.921671018276762E-2</v>
+      </c>
+      <c r="F240" s="87">
+        <v>168</v>
+      </c>
       <c r="G240" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H240" s="34"/>
+        <v>0.43864229765013057</v>
+      </c>
+      <c r="H240" s="34">
+        <v>0</v>
+      </c>
       <c r="I240" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J240" s="87"/>
+      <c r="J240" s="87">
+        <v>177</v>
+      </c>
       <c r="K240" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L240" s="34"/>
+        <v>0.46214099216710181</v>
+      </c>
+      <c r="L240" s="34">
+        <v>0</v>
+      </c>
       <c r="M240" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B241" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C241" s="39">
         <f>SUM(C234:C240)</f>
-        <v>16672.029999999995</v>
+        <v>21607</v>
       </c>
       <c r="D241" s="39">
         <f>SUM(D234:D240)</f>
-        <v>12535</v>
+        <v>14412</v>
       </c>
       <c r="E241" s="94">
         <f>AVERAGE(E234:E240)</f>
-        <v>0.42157142900919753</v>
+        <v>0.5438782296508704</v>
       </c>
       <c r="F241" s="39">
         <f>SUM(F234:F240)</f>
-        <v>3615</v>
+        <v>6100</v>
       </c>
       <c r="G241" s="94">
         <f>AVERAGE(G234:G240)</f>
-        <v>0.12937588539661513</v>
+        <v>0.34280973473184473</v>
       </c>
       <c r="H241" s="39">
         <f>SUM(H234:H240)</f>
@@ -25432,11 +25507,11 @@
       </c>
       <c r="J241" s="39">
         <f>SUM(J234:J240)</f>
-        <v>521</v>
+        <v>1094</v>
       </c>
       <c r="K241" s="94">
         <f>AVERAGE(K234:K240)</f>
-        <v>2.0463521809492877E-2</v>
+        <v>0.11329430040401885</v>
       </c>
       <c r="L241" s="39">
         <f>SUM(L234:L240)</f>
@@ -25447,235 +25522,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="1"/>
     </row>
   </sheetData>
@@ -25703,32 +25778,32 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -25737,12 +25812,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="42"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -25751,14 +25826,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -25768,7 +25843,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -25781,7 +25856,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -25794,7 +25869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -25811,7 +25886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -25824,7 +25899,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -25837,7 +25912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -25847,7 +25922,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -25863,7 +25938,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -25912,7 +25987,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -25950,7 +26025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43132</v>
       </c>
@@ -25993,7 +26068,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43133</v>
       </c>
@@ -26036,7 +26111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43134</v>
       </c>
@@ -26079,7 +26154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43135</v>
       </c>
@@ -26122,7 +26197,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43136</v>
       </c>
@@ -26165,7 +26240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43137</v>
       </c>
@@ -26208,7 +26283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43138</v>
       </c>
@@ -26251,7 +26326,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43139</v>
       </c>
@@ -26294,7 +26369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43140</v>
       </c>
@@ -26337,7 +26412,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43141</v>
       </c>
@@ -26380,7 +26455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43142</v>
       </c>
@@ -26423,7 +26498,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43143</v>
       </c>
@@ -26466,7 +26541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43144</v>
       </c>
@@ -26509,7 +26584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43145</v>
       </c>
@@ -26552,7 +26627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43146</v>
       </c>
@@ -26595,7 +26670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43147</v>
       </c>
@@ -26638,7 +26713,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43148</v>
       </c>
@@ -26681,7 +26756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43149</v>
       </c>
@@ -26724,7 +26799,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43150</v>
       </c>
@@ -26767,7 +26842,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43151</v>
       </c>
@@ -26810,7 +26885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43152</v>
       </c>
@@ -26853,7 +26928,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43153</v>
       </c>
@@ -26896,7 +26971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43154</v>
       </c>
@@ -26939,7 +27014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43155</v>
       </c>
@@ -26982,7 +27057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43156</v>
       </c>
@@ -27025,7 +27100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43157</v>
       </c>
@@ -27068,7 +27143,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43158</v>
       </c>
@@ -27111,7 +27186,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43159</v>
       </c>
@@ -27154,7 +27229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
@@ -27203,238 +27278,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
   </sheetData>
@@ -27462,32 +27537,32 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -27496,12 +27571,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="46"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -27510,14 +27585,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -27527,7 +27602,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -27540,7 +27615,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -27553,7 +27628,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -27570,7 +27645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -27583,7 +27658,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -27596,7 +27671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -27606,7 +27681,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -27622,7 +27697,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -27671,7 +27746,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -27709,7 +27784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43160</v>
       </c>
@@ -27752,7 +27827,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43161</v>
       </c>
@@ -27795,7 +27870,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43162</v>
       </c>
@@ -27838,7 +27913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43163</v>
       </c>
@@ -27881,7 +27956,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43164</v>
       </c>
@@ -27924,7 +27999,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43165</v>
       </c>
@@ -27967,7 +28042,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43166</v>
       </c>
@@ -28010,7 +28085,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43167</v>
       </c>
@@ -28053,7 +28128,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43168</v>
       </c>
@@ -28096,7 +28171,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43169</v>
       </c>
@@ -28139,7 +28214,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43170</v>
       </c>
@@ -28182,7 +28257,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43171</v>
       </c>
@@ -28225,7 +28300,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43172</v>
       </c>
@@ -28268,7 +28343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43173</v>
       </c>
@@ -28311,7 +28386,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43174</v>
       </c>
@@ -28354,7 +28429,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43175</v>
       </c>
@@ -28397,7 +28472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43176</v>
       </c>
@@ -28440,7 +28515,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43177</v>
       </c>
@@ -28483,7 +28558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43">
         <v>43178</v>
       </c>
@@ -28526,7 +28601,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43">
         <v>43179</v>
       </c>
@@ -28569,7 +28644,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43">
         <v>43180</v>
       </c>
@@ -28612,7 +28687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43">
         <v>43181</v>
       </c>
@@ -28655,7 +28730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43">
         <v>43182</v>
       </c>
@@ -28698,7 +28773,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43">
         <v>43183</v>
       </c>
@@ -28741,7 +28816,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43">
         <v>43184</v>
       </c>
@@ -28784,7 +28859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43">
         <v>43185</v>
       </c>
@@ -28827,7 +28902,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43">
         <v>43186</v>
       </c>
@@ -28870,7 +28945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43">
         <v>43187</v>
       </c>
@@ -28913,7 +28988,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43">
         <v>43188</v>
       </c>
@@ -28956,7 +29031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43">
         <v>43189</v>
       </c>
@@ -28999,7 +29074,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="43">
         <v>43190</v>
       </c>
@@ -29042,7 +29117,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="43">
         <v>43191</v>
       </c>
@@ -29085,7 +29160,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B49" s="44" t="s">
         <v>26</v>
       </c>
@@ -29134,238 +29209,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="1"/>
     </row>
   </sheetData>
@@ -29393,32 +29468,32 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -29427,12 +29502,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -29441,14 +29516,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -29458,7 +29533,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -29471,7 +29546,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -29484,7 +29559,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -29501,7 +29576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -29514,7 +29589,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -29527,7 +29602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -29537,7 +29612,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -29553,7 +29628,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -29602,7 +29677,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -29640,7 +29715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>43191</v>
       </c>
@@ -29683,7 +29758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>43192</v>
       </c>
@@ -29726,7 +29801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43">
         <v>43193</v>
       </c>
@@ -29769,7 +29844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43">
         <v>43194</v>
       </c>
@@ -29812,7 +29887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43">
         <v>43195</v>
       </c>
@@ -29855,7 +29930,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43">
         <v>43196</v>
       </c>
@@ -29898,7 +29973,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43">
         <v>43197</v>
       </c>
@@ -29941,7 +30016,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>43198</v>
       </c>
@@ -29984,7 +30059,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="43">
         <v>43199</v>
       </c>
@@ -30027,7 +30102,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43">
         <v>43200</v>
       </c>
@@ -30070,7 +30145,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43">
         <v>43201</v>
       </c>
@@ -30113,7 +30188,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="43">
         <v>43202</v>
       </c>
@@ -30156,7 +30231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43">
         <v>43203</v>
       </c>
@@ -30199,7 +30274,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="43">
         <v>43204</v>
       </c>
@@ -30242,7 +30317,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43">
         <v>43205</v>
       </c>
@@ -30285,7 +30360,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>43206</v>
       </c>
@@ -30328,7 +30403,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="43">
         <v>43207</v>
       </c>
@@ -30371,7 +30446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43">
         <v>43208</v>
       </c>
@@ -30414,7 +30489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43">
         <v>43209</v>
       </c>
@@ -30457,7 +30532,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43">
         <v>43210</v>
       </c>
@@ -30500,7 +30575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43">
         <v>43211</v>
       </c>
@@ -30543,7 +30618,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43">
         <v>43212</v>
       </c>
@@ -30586,7 +30661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43">
         <v>43213</v>
       </c>
@@ -30629,7 +30704,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43">
         <v>43214</v>
       </c>
@@ -30672,7 +30747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43">
         <v>43215</v>
       </c>
@@ -30715,7 +30790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43">
         <v>43216</v>
       </c>
@@ -30758,7 +30833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43">
         <v>43217</v>
       </c>
@@ -30801,7 +30876,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43">
         <v>43218</v>
       </c>
@@ -30844,7 +30919,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43">
         <v>43219</v>
       </c>
@@ -30887,7 +30962,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43">
         <v>43220</v>
       </c>
@@ -30930,7 +31005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="44" t="s">
         <v>26</v>
       </c>
@@ -30979,238 +31054,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
   </sheetData>
@@ -31238,32 +31313,32 @@
       <selection activeCell="M48" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -31272,12 +31347,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="53"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -31286,14 +31361,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -31303,7 +31378,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -31316,7 +31391,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -31329,7 +31404,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -31346,7 +31421,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -31359,7 +31434,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -31372,7 +31447,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -31382,7 +31457,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -31398,7 +31473,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -31447,7 +31522,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -31485,7 +31560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>43221</v>
       </c>
@@ -31528,7 +31603,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>43222</v>
       </c>
@@ -31571,7 +31646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43">
         <v>43223</v>
       </c>
@@ -31614,7 +31689,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43">
         <v>43224</v>
       </c>
@@ -31657,7 +31732,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43">
         <v>43225</v>
       </c>
@@ -31700,7 +31775,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="51">
         <v>43226</v>
       </c>
@@ -31743,7 +31818,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51">
         <v>43227</v>
       </c>
@@ -31786,7 +31861,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51">
         <v>43228</v>
       </c>
@@ -31829,7 +31904,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="51">
         <v>43229</v>
       </c>
@@ -31872,7 +31947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="51">
         <v>43230</v>
       </c>
@@ -31915,7 +31990,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="51">
         <v>43231</v>
       </c>
@@ -31958,7 +32033,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51">
         <v>43232</v>
       </c>
@@ -32001,7 +32076,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43">
         <v>43233</v>
       </c>
@@ -32044,7 +32119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43234</v>
       </c>
@@ -32087,7 +32162,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43235</v>
       </c>
@@ -32130,7 +32205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43236</v>
       </c>
@@ -32173,7 +32248,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43237</v>
       </c>
@@ -32216,7 +32291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43238</v>
       </c>
@@ -32259,7 +32334,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43239</v>
       </c>
@@ -32302,7 +32377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43240</v>
       </c>
@@ -32345,7 +32420,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43241</v>
       </c>
@@ -32388,7 +32463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43242</v>
       </c>
@@ -32431,7 +32506,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43243</v>
       </c>
@@ -32474,7 +32549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43244</v>
       </c>
@@ -32517,7 +32592,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43245</v>
       </c>
@@ -32560,7 +32635,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43246</v>
       </c>
@@ -32603,7 +32678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43247</v>
       </c>
@@ -32646,7 +32721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43248</v>
       </c>
@@ -32689,7 +32764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43249</v>
       </c>
@@ -32732,7 +32807,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43250</v>
       </c>
@@ -32775,7 +32850,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
         <v>43251</v>
       </c>
@@ -32818,7 +32893,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B48" s="48" t="s">
         <v>26</v>
       </c>
@@ -32867,238 +32942,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
   </sheetData>
@@ -33126,32 +33201,32 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -33160,12 +33235,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="92"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -33174,14 +33249,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -33191,7 +33266,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -33204,7 +33279,7 @@
         <v>0.86040208590640865</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -33217,7 +33292,7 @@
         <v>0.12686976808014272</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -33234,7 +33309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -33247,7 +33322,7 @@
         <v>1.2385069301495815E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -33260,7 +33335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -33270,7 +33345,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -33286,7 +33361,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -33345,7 +33420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -33383,7 +33458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43252</v>
       </c>
@@ -33431,7 +33506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43253</v>
       </c>
@@ -33479,7 +33554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43254</v>
       </c>
@@ -33527,7 +33602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43255</v>
       </c>
@@ -33575,7 +33650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43256</v>
       </c>
@@ -33623,7 +33698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43257</v>
       </c>
@@ -33671,7 +33746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43258</v>
       </c>
@@ -33719,7 +33794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43259</v>
       </c>
@@ -33767,7 +33842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43260</v>
       </c>
@@ -33815,7 +33890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43261</v>
       </c>
@@ -33863,7 +33938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43262</v>
       </c>
@@ -33911,7 +33986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43263</v>
       </c>
@@ -33959,7 +34034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43264</v>
       </c>
@@ -34007,7 +34082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43265</v>
       </c>
@@ -34055,7 +34130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43266</v>
       </c>
@@ -34103,7 +34178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43267</v>
       </c>
@@ -34151,7 +34226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43268</v>
       </c>
@@ -34199,7 +34274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43269</v>
       </c>
@@ -34247,7 +34322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43270</v>
       </c>
@@ -34295,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43271</v>
       </c>
@@ -34343,7 +34418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43272</v>
       </c>
@@ -34391,7 +34466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43273</v>
       </c>
@@ -34439,7 +34514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43274</v>
       </c>
@@ -34487,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43275</v>
       </c>
@@ -34535,7 +34610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43276</v>
       </c>
@@ -34583,7 +34658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43277</v>
       </c>
@@ -34632,7 +34707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43278</v>
       </c>
@@ -34680,7 +34755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43279</v>
       </c>
@@ -34728,7 +34803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43280</v>
       </c>
@@ -34776,7 +34851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43281</v>
       </c>
@@ -34824,7 +34899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="89" t="s">
         <v>26</v>
       </c>
@@ -34873,235 +34948,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -35126,9 +35201,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="101">
         <v>43282</v>
       </c>
@@ -35166,7 +35241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="97">
         <v>43283</v>
       </c>
@@ -35204,7 +35279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="101">
         <v>43284</v>
       </c>
@@ -35242,7 +35317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="97">
         <v>43285</v>
       </c>
@@ -35280,7 +35355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="101">
         <v>43286</v>
       </c>
@@ -35318,7 +35393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="97">
         <v>43287</v>
       </c>
@@ -35356,7 +35431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="101">
         <v>43288</v>
       </c>
@@ -35394,7 +35469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="97">
         <v>43289</v>
       </c>
@@ -35432,7 +35507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="101">
         <v>43290</v>
       </c>
@@ -35470,7 +35545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="97">
         <v>43291</v>
       </c>
@@ -35508,7 +35583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="101">
         <v>43292</v>
       </c>
@@ -35546,7 +35621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="97">
         <v>43293</v>
       </c>
@@ -35584,7 +35659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="101">
         <v>43294</v>
       </c>
@@ -35622,7 +35697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="97">
         <v>43295</v>
       </c>
@@ -35660,7 +35735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="101">
         <v>43296</v>
       </c>
@@ -35698,7 +35773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="97">
         <v>43297</v>
       </c>
@@ -35736,7 +35811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="101">
         <v>43298</v>
       </c>
@@ -35774,7 +35849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="97">
         <v>43299</v>
       </c>
@@ -35812,7 +35887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="101">
         <v>43300</v>
       </c>
@@ -35850,7 +35925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="97">
         <v>43301</v>
       </c>
@@ -35888,7 +35963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="101">
         <v>43302</v>
       </c>
@@ -35926,7 +36001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="97">
         <v>43303</v>
       </c>
@@ -35964,7 +36039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="101">
         <v>43304</v>
       </c>
@@ -36002,7 +36077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="97">
         <v>43305</v>
       </c>
@@ -36040,7 +36115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="101">
         <v>43306</v>
       </c>
@@ -36078,7 +36153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="97">
         <v>43307</v>
       </c>
@@ -36116,7 +36191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="101">
         <v>43308</v>
       </c>
@@ -36154,7 +36229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="97">
         <v>43309</v>
       </c>
@@ -36192,7 +36267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="101">
         <v>43310</v>
       </c>
@@ -36230,7 +36305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="97">
         <v>43311</v>
       </c>
@@ -36268,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="101">
         <v>43312</v>
       </c>
@@ -36306,7 +36381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="24.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>26</v>
       </c>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C29BD-BE06-45C3-AC13-9D9CCBBFB93B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7F642B-6AF9-5C4A-A67D-99A5724AD385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="5076" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="3120" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,14 @@
     <definedName name="_Toc495308772" localSheetId="5">'06'!#REF!</definedName>
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -857,9 +864,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
-    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
@@ -1139,18 +1146,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2749,6 +2744,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -2834,7 +2841,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2913,60 +2920,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$234:$B$240</c:f>
+              <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43318</c:v>
+                  <c:v>43325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43319</c:v>
+                  <c:v>43326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43320</c:v>
+                  <c:v>43327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43321</c:v>
+                  <c:v>43328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43322</c:v>
+                  <c:v>43329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43323</c:v>
+                  <c:v>43330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43324</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$C$234:$C$240</c:f>
+              <c:f>WASSPerformance!$C$241:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225</c:v>
+                  <c:v>4329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8055</c:v>
+                  <c:v>3937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5142</c:v>
+                  <c:v>4204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3250</c:v>
+                  <c:v>3825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2952</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>383</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,60 +3002,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$234:$B$240</c:f>
+              <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43318</c:v>
+                  <c:v>43325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43319</c:v>
+                  <c:v>43326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43320</c:v>
+                  <c:v>43327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43321</c:v>
+                  <c:v>43328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43322</c:v>
+                  <c:v>43329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43323</c:v>
+                  <c:v>43330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43324</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$D$234:$D$240</c:f>
+              <c:f>WASSPerformance!$D$241:$D$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>195</c:v>
+                  <c:v>2530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7234</c:v>
+                  <c:v>2115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3399</c:v>
+                  <c:v>3007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1371</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>3096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,60 +3075,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$234:$B$240</c:f>
+              <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43318</c:v>
+                  <c:v>43325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43319</c:v>
+                  <c:v>43326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43320</c:v>
+                  <c:v>43327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43321</c:v>
+                  <c:v>43328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43322</c:v>
+                  <c:v>43329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43323</c:v>
+                  <c:v>43330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43324</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$F$234:$F$240</c:f>
+              <c:f>WASSPerformance!$F$241:$F$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>1603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>684</c:v>
+                  <c:v>1621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1557</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>168</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,37 +3148,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$234:$B$240</c:f>
+              <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43318</c:v>
+                  <c:v>43325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43319</c:v>
+                  <c:v>43326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43320</c:v>
+                  <c:v>43327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43321</c:v>
+                  <c:v>43328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43322</c:v>
+                  <c:v>43329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43323</c:v>
+                  <c:v>43330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43324</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$H$234:$H$240</c:f>
+              <c:f>WASSPerformance!$H$241:$H$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3197,21 +3186,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3243,60 +3223,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$234:$B$240</c:f>
+              <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43318</c:v>
+                  <c:v>43325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43319</c:v>
+                  <c:v>43326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43320</c:v>
+                  <c:v>43327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43321</c:v>
+                  <c:v>43328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43322</c:v>
+                  <c:v>43329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43323</c:v>
+                  <c:v>43330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43324</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$J$234:$J$240</c:f>
+              <c:f>WASSPerformance!$J$241:$J$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>136</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>177</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,37 +3298,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$234:$B$240</c:f>
+              <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43318</c:v>
+                  <c:v>43325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43319</c:v>
+                  <c:v>43326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43320</c:v>
+                  <c:v>43327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43321</c:v>
+                  <c:v>43328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43322</c:v>
+                  <c:v>43329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43323</c:v>
+                  <c:v>43330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43324</c:v>
+                  <c:v>43331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$L$234:$L$240</c:f>
+              <c:f>WASSPerformance!$L$241:$L$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3371,15 +3342,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3412,7 +3374,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3446,7 +3408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3504,7 +3466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3546,7 +3508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3585,7 +3547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3615,7 +3577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3629,7 +3591,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3713,7 +3675,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3924,7 +3886,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4135,7 +4097,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4346,7 +4308,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4559,7 +4521,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4772,7 +4734,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4981,7 +4943,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5015,7 +4977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5073,7 +5035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5115,7 +5077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5154,7 +5116,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5184,7 +5146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5198,7 +5160,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5282,7 +5244,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5511,7 +5473,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5740,7 +5702,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5969,7 +5931,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6200,7 +6162,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6431,7 +6393,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6658,7 +6620,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6692,7 +6654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6750,7 +6712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6792,7 +6754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6831,7 +6793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6861,7 +6823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6875,7 +6837,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6959,7 +6921,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7182,7 +7144,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7405,7 +7367,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7628,7 +7590,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7853,7 +7815,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8078,7 +8040,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8299,7 +8261,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8333,7 +8295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8391,7 +8353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8433,7 +8395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8472,7 +8434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8502,7 +8464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8516,7 +8478,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8600,7 +8562,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8829,7 +8791,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9058,7 +9020,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9287,7 +9249,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9518,7 +9480,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9749,7 +9711,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9976,7 +9938,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10010,7 +9972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10068,7 +10030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10110,7 +10072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10149,7 +10111,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10179,7 +10141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10193,7 +10155,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10277,7 +10239,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10500,7 +10462,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10723,7 +10685,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10946,7 +10908,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11171,7 +11133,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11396,7 +11358,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11617,7 +11579,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11651,7 +11613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11709,7 +11671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11751,7 +11713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11790,7 +11752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11820,7 +11782,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11834,7 +11796,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11915,7 +11877,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12141,7 +12103,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12367,7 +12329,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12593,7 +12555,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12821,7 +12783,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13049,7 +13011,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13276,7 +13238,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13310,7 +13272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13368,7 +13330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13410,7 +13372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13449,7 +13411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13479,7 +13441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13496,13 +13458,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>866774</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13790,8 +13752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M241" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
-  <autoFilter ref="B16:M240" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M248" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
+  <autoFilter ref="B16:M247" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -13802,49 +13764,49 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C234:C240)</totalsRowFormula>
+      <totalsRowFormula>SUM(C241:C247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D234:D240)</totalsRowFormula>
+      <totalsRowFormula>SUM(D241:D247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E234:E240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E241:E247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F234:F240)</totalsRowFormula>
+      <totalsRowFormula>SUM(F241:F247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G234:G240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G241:G247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H234:H240)</totalsRowFormula>
+      <totalsRowFormula>SUM(H241:H247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I234:I240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I241:I247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J234:J240)</totalsRowFormula>
+      <totalsRowFormula>SUM(J241:J247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K234:K240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K241:K247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L234:L240)</totalsRowFormula>
+      <totalsRowFormula>SUM(L241:L247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M234:M240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M241:M247)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13852,7 +13814,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -13864,46 +13826,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="87">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="86">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="84">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Complete]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="84">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Failed]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="82">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="80">
       <calculatedColumnFormula>Tabla18203[Transactions 
 In_Prog]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="80">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="78">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Timeout]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="78">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="76">
       <calculatedColumnFormula>Tabla18203[Transactions
 Trans Fail]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -13914,7 +13876,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <autoFilter ref="B16:M48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -13926,46 +13888,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="71">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="70">
       <totalsRowFormula>SUM(C42:C48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="70">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
       <totalsRowFormula>SUM(D42:D48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="68">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Complete]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
       <totalsRowFormula>SUM(F42:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="66">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Failed]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="66">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
       <totalsRowFormula>SUM(H42:H48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="64">
       <calculatedColumnFormula>Tabla18204[Transactions 
 In_Prog]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="64">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
       <totalsRowFormula>SUM(J42:J48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="62">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Timeout]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="62">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
       <totalsRowFormula>SUM(L42:L48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="60">
       <calculatedColumnFormula>Tabla18204[Transactions
 Trans Fail]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M48)</totalsRowFormula>
@@ -13976,7 +13938,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -13988,46 +13950,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="55">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="54">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="54">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Complete]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="50">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Failed]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="50">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="48">
       <calculatedColumnFormula>Tabla18205[Transactions 
 In_Prog]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="48">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="46">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Timeout]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="46">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="44">
       <calculatedColumnFormula>Tabla18205[Transactions
 Trans Fail]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14038,7 +14000,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -14050,46 +14012,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Complete]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="36">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="34">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Failed]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="34">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabla18206[Transactions 
 In_Prog]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="32">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="30">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Timeout]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="30">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla18206[Transactions
 Trans Fail]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -14100,7 +14062,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -14112,46 +14074,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Complete]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Failed]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="16">
       <calculatedColumnFormula>Tabla18207[Transactions 
 In_Prog]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Timeout]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabla18207[Transactions
 Trans Fail]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14461,38 +14423,38 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:M318"/>
+  <dimension ref="B1:M325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B240" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L240" sqref="L240"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N249" sqref="N249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14501,12 +14463,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -14515,50 +14477,50 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>866453.03</v>
+        <v>882748.06</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>743656</v>
+        <v>754404</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.85827618376497572</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.85460850517190601</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>101144</v>
+        <v>105903</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.1167333906143764</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.11996967741849242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -14568,23 +14530,23 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.462391954472131E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.3984781569500132E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>21634</v>
+        <v>22422</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.4968462514350028E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2.54002257450444E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -14597,17 +14559,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>866437</v>
+        <v>882732</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -14623,33 +14585,33 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>866453.03</v>
+        <v>882748.06</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>743656</v>
+        <v>754404</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.80112656787950898</v>
+        <v>0.78830595583931873</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>101144</v>
+        <v>105903</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.14101029550194219</v>
+        <v>0.14175778698922661</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14659,17 +14621,17 @@
       <c r="I15" s="15">
         <f>AVERAGE(Tabla1820[%
 In_Prog])</f>
-        <v>4.0502753324651319E-6</v>
+        <v>3.9275397163298251E-6</v>
       </c>
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>21634</v>
+        <v>22422</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.4420080924093788E-2</v>
+        <v>4.3913553814061083E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -14682,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -14720,7 +14682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>43101</v>
       </c>
@@ -14768,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>43102</v>
       </c>
@@ -14816,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>43103</v>
       </c>
@@ -14864,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22">
         <v>43104</v>
       </c>
@@ -14912,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="22">
         <v>43105</v>
       </c>
@@ -14960,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22">
         <v>43106</v>
       </c>
@@ -15008,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22">
         <v>43107</v>
       </c>
@@ -15056,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27">
         <v>43108</v>
       </c>
@@ -15104,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27">
         <v>43109</v>
       </c>
@@ -15152,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
         <v>43110</v>
       </c>
@@ -15200,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27">
         <v>43111</v>
       </c>
@@ -15248,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27">
         <v>43112</v>
       </c>
@@ -15296,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27">
         <v>43113</v>
       </c>
@@ -15344,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27">
         <v>43114</v>
       </c>
@@ -15392,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27">
         <v>43115</v>
       </c>
@@ -15440,7 +15402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27">
         <v>43116</v>
       </c>
@@ -15488,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27">
         <v>43117</v>
       </c>
@@ -15536,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>43118</v>
       </c>
@@ -15584,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27">
         <v>43119</v>
       </c>
@@ -15632,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27">
         <v>43120</v>
       </c>
@@ -15680,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27">
         <v>43121</v>
       </c>
@@ -15728,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43122</v>
       </c>
@@ -15776,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43123</v>
       </c>
@@ -15824,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43124</v>
       </c>
@@ -15872,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43125</v>
       </c>
@@ -15920,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43126</v>
       </c>
@@ -15968,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43127</v>
       </c>
@@ -16016,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43128</v>
       </c>
@@ -16064,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43129</v>
       </c>
@@ -16112,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43130</v>
       </c>
@@ -16160,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <v>43131</v>
       </c>
@@ -16208,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
         <v>43132</v>
       </c>
@@ -16256,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
         <v>43133</v>
       </c>
@@ -16304,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
         <v>43134</v>
       </c>
@@ -16352,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="37">
         <v>43135</v>
       </c>
@@ -16400,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
         <v>43136</v>
       </c>
@@ -16448,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
         <v>43137</v>
       </c>
@@ -16496,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="37">
         <v>43138</v>
       </c>
@@ -16544,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="37">
         <v>43139</v>
       </c>
@@ -16592,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
         <v>43140</v>
       </c>
@@ -16640,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="37">
         <v>43141</v>
       </c>
@@ -16688,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="37">
         <v>43142</v>
       </c>
@@ -16736,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="37">
         <v>43143</v>
       </c>
@@ -16784,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="37">
         <v>43144</v>
       </c>
@@ -16832,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="37">
         <v>43145</v>
       </c>
@@ -16880,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="37">
         <v>43146</v>
       </c>
@@ -16928,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="37">
         <v>43147</v>
       </c>
@@ -16976,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="37">
         <v>43148</v>
       </c>
@@ -17024,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="37">
         <v>43149</v>
       </c>
@@ -17072,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="37">
         <v>43150</v>
       </c>
@@ -17120,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="37">
         <v>43151</v>
       </c>
@@ -17168,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="37">
         <v>43152</v>
       </c>
@@ -17216,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="37">
         <v>43153</v>
       </c>
@@ -17264,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="37">
         <v>43154</v>
       </c>
@@ -17312,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="37">
         <v>43155</v>
       </c>
@@ -17360,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="37">
         <v>43156</v>
       </c>
@@ -17408,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37">
         <v>43157</v>
       </c>
@@ -17456,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="37">
         <v>43158</v>
       </c>
@@ -17504,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37">
         <v>43159</v>
       </c>
@@ -17552,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="37">
         <v>43160</v>
       </c>
@@ -17600,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="37">
         <v>43161</v>
       </c>
@@ -17648,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="37">
         <v>43162</v>
       </c>
@@ -17696,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="37">
         <v>43163</v>
       </c>
@@ -17744,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="37">
         <v>43164</v>
       </c>
@@ -17792,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37">
         <v>43165</v>
       </c>
@@ -17840,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="37">
         <v>43166</v>
       </c>
@@ -17888,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37">
         <v>43167</v>
       </c>
@@ -17936,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="37">
         <v>43168</v>
       </c>
@@ -17984,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="37">
         <v>43169</v>
       </c>
@@ -18032,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="37">
         <v>43170</v>
       </c>
@@ -18080,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="37">
         <v>43171</v>
       </c>
@@ -18128,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="37">
         <v>43172</v>
       </c>
@@ -18176,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37">
         <v>43173</v>
       </c>
@@ -18224,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="37">
         <v>43174</v>
       </c>
@@ -18272,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="37">
         <v>43175</v>
       </c>
@@ -18320,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="37">
         <v>43176</v>
       </c>
@@ -18368,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="37">
         <v>43177</v>
       </c>
@@ -18416,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
         <v>43178</v>
       </c>
@@ -18464,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="43">
         <v>43179</v>
       </c>
@@ -18512,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="43">
         <v>43180</v>
       </c>
@@ -18560,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="43">
         <v>43181</v>
       </c>
@@ -18608,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="43">
         <v>43182</v>
       </c>
@@ -18656,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="43">
         <v>43183</v>
       </c>
@@ -18704,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="43">
         <v>43184</v>
       </c>
@@ -18752,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="43">
         <v>43185</v>
       </c>
@@ -18800,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="43">
         <v>43186</v>
       </c>
@@ -18848,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="43">
         <v>43187</v>
       </c>
@@ -18896,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="43">
         <v>43188</v>
       </c>
@@ -18944,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="43">
         <v>43189</v>
       </c>
@@ -18992,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="43">
         <v>43190</v>
       </c>
@@ -19040,7 +19002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="43">
         <v>43191</v>
       </c>
@@ -19088,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="43">
         <v>43192</v>
       </c>
@@ -19136,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="43">
         <v>43193</v>
       </c>
@@ -19184,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="43">
         <v>43194</v>
       </c>
@@ -19232,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="43">
         <v>43195</v>
       </c>
@@ -19280,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="43">
         <v>43196</v>
       </c>
@@ -19328,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="43">
         <v>43197</v>
       </c>
@@ -19376,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="43">
         <v>43198</v>
       </c>
@@ -19424,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="43">
         <v>43199</v>
       </c>
@@ -19472,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="43">
         <v>43200</v>
       </c>
@@ -19520,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="43">
         <v>43201</v>
       </c>
@@ -19568,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="43">
         <v>43202</v>
       </c>
@@ -19616,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="43">
         <v>43203</v>
       </c>
@@ -19664,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="43">
         <v>43204</v>
       </c>
@@ -19712,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="43">
         <v>43205</v>
       </c>
@@ -19760,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="43">
         <v>43206</v>
       </c>
@@ -19808,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="43">
         <v>43207</v>
       </c>
@@ -19856,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="43">
         <v>43208</v>
       </c>
@@ -19904,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="43">
         <v>43209</v>
       </c>
@@ -19952,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="43">
         <v>43210</v>
       </c>
@@ -20000,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="43">
         <v>43211</v>
       </c>
@@ -20048,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="43">
         <v>43212</v>
       </c>
@@ -20096,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="43">
         <v>43213</v>
       </c>
@@ -20144,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="43">
         <v>43214</v>
       </c>
@@ -20192,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="43">
         <v>43215</v>
       </c>
@@ -20240,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="43">
         <v>43216</v>
       </c>
@@ -20288,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="43">
         <v>43217</v>
       </c>
@@ -20336,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="43">
         <v>43218</v>
       </c>
@@ -20384,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="43">
         <v>43219</v>
       </c>
@@ -20432,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="43">
         <v>43220</v>
       </c>
@@ -20480,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="43">
         <v>43221</v>
       </c>
@@ -20528,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="43">
         <v>43222</v>
       </c>
@@ -20576,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="43">
         <v>43223</v>
       </c>
@@ -20624,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="43">
         <v>43224</v>
       </c>
@@ -20672,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="43">
         <v>43225</v>
       </c>
@@ -20720,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="51">
         <v>43226</v>
       </c>
@@ -20768,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="51">
         <v>43227</v>
       </c>
@@ -20816,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="51">
         <v>43228</v>
       </c>
@@ -20864,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="51">
         <v>43229</v>
       </c>
@@ -20912,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="51">
         <v>43230</v>
       </c>
@@ -20960,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="51">
         <v>43231</v>
       </c>
@@ -21008,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="51">
         <v>43232</v>
       </c>
@@ -21056,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="43">
         <v>43233</v>
       </c>
@@ -21104,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="37">
         <v>43234</v>
       </c>
@@ -21152,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="37">
         <v>43235</v>
       </c>
@@ -21200,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="37">
         <v>43236</v>
       </c>
@@ -21248,7 +21210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="37">
         <v>43237</v>
       </c>
@@ -21296,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="37">
         <v>43238</v>
       </c>
@@ -21344,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="37">
         <v>43239</v>
       </c>
@@ -21392,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="37">
         <v>43240</v>
       </c>
@@ -21440,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="37">
         <v>43241</v>
       </c>
@@ -21488,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="37">
         <v>43242</v>
       </c>
@@ -21536,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="37">
         <v>43243</v>
       </c>
@@ -21584,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="37">
         <v>43244</v>
       </c>
@@ -21632,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="37">
         <v>43245</v>
       </c>
@@ -21680,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="37">
         <v>43246</v>
       </c>
@@ -21728,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="37">
         <v>43247</v>
       </c>
@@ -21776,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="37">
         <v>43248</v>
       </c>
@@ -21824,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="37">
         <v>43249</v>
       </c>
@@ -21872,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="37">
         <v>43250</v>
       </c>
@@ -21920,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="37">
         <v>43251</v>
       </c>
@@ -21968,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="37">
         <v>43252</v>
       </c>
@@ -22016,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="37">
         <v>43253</v>
       </c>
@@ -22064,7 +22026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="37">
         <v>43254</v>
       </c>
@@ -22112,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="37">
         <v>43255</v>
       </c>
@@ -22160,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="37">
         <v>43256</v>
       </c>
@@ -22208,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="37">
         <v>43257</v>
       </c>
@@ -22256,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="37">
         <v>43258</v>
       </c>
@@ -22304,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="37">
         <v>43259</v>
       </c>
@@ -22352,7 +22314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="37">
         <v>43260</v>
       </c>
@@ -22400,7 +22362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="37">
         <v>43261</v>
       </c>
@@ -22448,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="37">
         <v>43262</v>
       </c>
@@ -22496,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="37">
         <v>43263</v>
       </c>
@@ -22544,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="37">
         <v>43264</v>
       </c>
@@ -22592,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="37">
         <v>43265</v>
       </c>
@@ -22640,7 +22602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="37">
         <v>43266</v>
       </c>
@@ -22688,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="37">
         <v>43267</v>
       </c>
@@ -22736,7 +22698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="37">
         <v>43268</v>
       </c>
@@ -22784,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="37">
         <v>43269</v>
       </c>
@@ -22832,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="37">
         <v>43270</v>
       </c>
@@ -22880,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="37">
         <v>43271</v>
       </c>
@@ -22928,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="37">
         <v>43272</v>
       </c>
@@ -22976,7 +22938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="37">
         <v>43273</v>
       </c>
@@ -23024,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="37">
         <v>43274</v>
       </c>
@@ -23072,7 +23034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="37">
         <v>43275</v>
       </c>
@@ -23120,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="37">
         <v>43276</v>
       </c>
@@ -23168,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="37">
         <v>43277</v>
       </c>
@@ -23200,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="87">
-        <f t="shared" ref="J193" si="0">A811</f>
+        <f t="shared" ref="J193" si="0">A818</f>
         <v>0</v>
       </c>
       <c r="K193" s="24">
@@ -23217,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="37">
         <v>43278</v>
       </c>
@@ -23265,7 +23227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="37">
         <v>43279</v>
       </c>
@@ -23313,7 +23275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="37">
         <v>43280</v>
       </c>
@@ -23361,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="37">
         <v>43281</v>
       </c>
@@ -23409,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="37">
         <v>43282</v>
       </c>
@@ -23457,7 +23419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="37">
         <v>43283</v>
       </c>
@@ -23505,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="37">
         <v>43284</v>
       </c>
@@ -23553,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="37">
         <v>43285</v>
       </c>
@@ -23601,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="37">
         <v>43286</v>
       </c>
@@ -23649,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="37">
         <v>43287</v>
       </c>
@@ -23697,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="37">
         <v>43288</v>
       </c>
@@ -23745,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="37">
         <v>43289</v>
       </c>
@@ -23793,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="37">
         <v>43290</v>
       </c>
@@ -23841,7 +23803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="37">
         <v>43291</v>
       </c>
@@ -23889,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="37">
         <v>43292</v>
       </c>
@@ -23937,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="37">
         <v>43293</v>
       </c>
@@ -23985,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="37">
         <v>43294</v>
       </c>
@@ -24033,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="37">
         <v>43295</v>
       </c>
@@ -24081,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="37">
         <v>43296</v>
       </c>
@@ -24129,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="37">
         <v>43297</v>
       </c>
@@ -24177,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="37">
         <v>43298</v>
       </c>
@@ -24225,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="37">
         <v>43299</v>
       </c>
@@ -24273,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="37">
         <v>43300</v>
       </c>
@@ -24321,7 +24283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="37">
         <v>43301</v>
       </c>
@@ -24369,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="37">
         <v>43302</v>
       </c>
@@ -24417,7 +24379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="37">
         <v>43303</v>
       </c>
@@ -24465,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="37">
         <v>43304</v>
       </c>
@@ -24513,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="37">
         <v>43305</v>
       </c>
@@ -24561,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="37">
         <v>43306</v>
       </c>
@@ -24609,7 +24571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="37">
         <v>43307</v>
       </c>
@@ -24657,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="37">
         <v>43308</v>
       </c>
@@ -24705,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="37">
         <v>43309</v>
       </c>
@@ -24753,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="37">
         <v>43310</v>
       </c>
@@ -24801,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24849,7 +24811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24897,7 +24859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24945,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24993,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -25041,7 +25003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25089,7 +25051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25137,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="37">
         <v>43318</v>
       </c>
@@ -25185,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="37">
         <v>43319</v>
       </c>
@@ -25233,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="37">
         <v>43320</v>
       </c>
@@ -25281,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="37">
         <v>43321</v>
       </c>
@@ -25329,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="37">
         <v>43322</v>
       </c>
@@ -25377,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="37">
         <v>43323</v>
       </c>
@@ -25425,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="37">
         <v>43324</v>
       </c>
@@ -25473,285 +25435,591 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="B241" s="38" t="s">
+    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="37">
+        <v>43325</v>
+      </c>
+      <c r="C241" s="93">
+        <v>4329</v>
+      </c>
+      <c r="D241" s="87">
+        <v>2530</v>
+      </c>
+      <c r="E241" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.58443058443058438</v>
+      </c>
+      <c r="F241" s="87">
+        <v>1603</v>
+      </c>
+      <c r="G241" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.37029337029337028</v>
+      </c>
+      <c r="H241" s="34">
+        <v>0</v>
+      </c>
+      <c r="I241" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J241" s="87">
+        <v>196</v>
+      </c>
+      <c r="K241" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>4.5276045276045278E-2</v>
+      </c>
+      <c r="L241" s="34">
+        <v>0</v>
+      </c>
+      <c r="M241" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="37">
+        <v>43326</v>
+      </c>
+      <c r="C242" s="93">
+        <v>3937</v>
+      </c>
+      <c r="D242" s="87">
+        <v>2115</v>
+      </c>
+      <c r="E242" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.53721107442214888</v>
+      </c>
+      <c r="F242" s="87">
+        <v>1621</v>
+      </c>
+      <c r="G242" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.41173482346964696</v>
+      </c>
+      <c r="H242" s="34">
+        <v>0</v>
+      </c>
+      <c r="I242" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J242" s="87">
+        <v>201</v>
+      </c>
+      <c r="K242" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>5.1054102108204213E-2</v>
+      </c>
+      <c r="L242" s="34">
+        <v>0</v>
+      </c>
+      <c r="M242" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="37">
+        <v>43327</v>
+      </c>
+      <c r="C243" s="93">
+        <v>4204</v>
+      </c>
+      <c r="D243" s="87">
+        <v>3007</v>
+      </c>
+      <c r="E243" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.71527117031398668</v>
+      </c>
+      <c r="F243" s="87">
+        <v>1001</v>
+      </c>
+      <c r="G243" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.23810656517602283</v>
+      </c>
+      <c r="H243" s="34">
+        <v>0</v>
+      </c>
+      <c r="I243" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J243" s="87">
+        <v>196</v>
+      </c>
+      <c r="K243" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>4.6622264509990484E-2</v>
+      </c>
+      <c r="L243" s="34">
+        <v>0</v>
+      </c>
+      <c r="M243" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="37">
+        <v>43328</v>
+      </c>
+      <c r="C244" s="93">
+        <v>3825</v>
+      </c>
+      <c r="D244" s="87">
+        <v>3096</v>
+      </c>
+      <c r="E244" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.80941176470588239</v>
+      </c>
+      <c r="F244" s="87">
+        <v>534</v>
+      </c>
+      <c r="G244" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.13960784313725491</v>
+      </c>
+      <c r="H244" s="34">
+        <v>0</v>
+      </c>
+      <c r="I244" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J244" s="87">
+        <v>195</v>
+      </c>
+      <c r="K244" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>5.0980392156862744E-2</v>
+      </c>
+      <c r="L244" s="34">
+        <v>0</v>
+      </c>
+      <c r="M244" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="37">
+        <v>43329</v>
+      </c>
+      <c r="C245" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D245" s="87"/>
+      <c r="E245" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F245" s="87"/>
+      <c r="G245" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H245" s="34"/>
+      <c r="I245" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J245" s="87"/>
+      <c r="K245" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L245" s="34"/>
+      <c r="M245" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="37">
+        <v>43330</v>
+      </c>
+      <c r="C246" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D246" s="87"/>
+      <c r="E246" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F246" s="87"/>
+      <c r="G246" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H246" s="34"/>
+      <c r="I246" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J246" s="87"/>
+      <c r="K246" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L246" s="34"/>
+      <c r="M246" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="37">
+        <v>43331</v>
+      </c>
+      <c r="C247" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D247" s="87"/>
+      <c r="E247" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F247" s="87"/>
+      <c r="G247" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H247" s="34"/>
+      <c r="I247" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J247" s="87"/>
+      <c r="K247" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L247" s="34"/>
+      <c r="M247" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="B248" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C241" s="39">
-        <f>SUM(C234:C240)</f>
-        <v>21607</v>
-      </c>
-      <c r="D241" s="39">
-        <f>SUM(D234:D240)</f>
-        <v>14412</v>
-      </c>
-      <c r="E241" s="94">
-        <f>AVERAGE(E234:E240)</f>
-        <v>0.5438782296508704</v>
-      </c>
-      <c r="F241" s="39">
-        <f>SUM(F234:F240)</f>
-        <v>6100</v>
-      </c>
-      <c r="G241" s="94">
-        <f>AVERAGE(G234:G240)</f>
-        <v>0.34280973473184473</v>
-      </c>
-      <c r="H241" s="39">
-        <f>SUM(H234:H240)</f>
-        <v>1</v>
-      </c>
-      <c r="I241" s="94">
-        <f>AVERAGE(I234:I240)</f>
-        <v>1.7735213265939524E-5</v>
-      </c>
-      <c r="J241" s="39">
-        <f>SUM(J234:J240)</f>
-        <v>1094</v>
-      </c>
-      <c r="K241" s="94">
-        <f>AVERAGE(K234:K240)</f>
-        <v>0.11329430040401885</v>
-      </c>
-      <c r="L241" s="39">
-        <f>SUM(L234:L240)</f>
-        <v>0</v>
-      </c>
-      <c r="M241" s="94">
-        <f>AVERAGE(M234:M240)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D242" s="1"/>
-    </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D243" s="1"/>
-    </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D244" s="1"/>
-    </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D245" s="1"/>
-    </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D246" s="1"/>
-    </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D247" s="1"/>
-    </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C248" s="39">
+        <f>SUM(C241:C247)</f>
+        <v>16295.03</v>
+      </c>
+      <c r="D248" s="39">
+        <f>SUM(D241:D247)</f>
+        <v>10748</v>
+      </c>
+      <c r="E248" s="94">
+        <f>AVERAGE(E241:E247)</f>
+        <v>0.37804637055322887</v>
+      </c>
+      <c r="F248" s="39">
+        <f>SUM(F241:F247)</f>
+        <v>4759</v>
+      </c>
+      <c r="G248" s="94">
+        <f>AVERAGE(G241:G247)</f>
+        <v>0.16567751458232788</v>
+      </c>
+      <c r="H248" s="39">
+        <f>SUM(H241:H247)</f>
+        <v>0</v>
+      </c>
+      <c r="I248" s="94">
+        <f>AVERAGE(I241:I247)</f>
+        <v>0</v>
+      </c>
+      <c r="J248" s="39">
+        <f>SUM(J241:J247)</f>
+        <v>788</v>
+      </c>
+      <c r="K248" s="94">
+        <f>AVERAGE(K241:K247)</f>
+        <v>2.7704686293014678E-2</v>
+      </c>
+      <c r="L248" s="39">
+        <f>SUM(L241:L247)</f>
+        <v>0</v>
+      </c>
+      <c r="M248" s="94">
+        <f>AVERAGE(M241:M247)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D318" s="1"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D325" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25778,32 +26046,32 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -25812,12 +26080,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="42"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -25826,14 +26094,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -25843,7 +26111,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -25856,7 +26124,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -25869,7 +26137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -25886,7 +26154,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -25899,7 +26167,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -25912,7 +26180,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -25922,7 +26190,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -25938,7 +26206,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -25987,7 +26255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -26025,7 +26293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43132</v>
       </c>
@@ -26068,7 +26336,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43133</v>
       </c>
@@ -26111,7 +26379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43134</v>
       </c>
@@ -26154,7 +26422,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43135</v>
       </c>
@@ -26197,7 +26465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43136</v>
       </c>
@@ -26240,7 +26508,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43137</v>
       </c>
@@ -26283,7 +26551,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43138</v>
       </c>
@@ -26326,7 +26594,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43139</v>
       </c>
@@ -26369,7 +26637,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43140</v>
       </c>
@@ -26412,7 +26680,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43141</v>
       </c>
@@ -26455,7 +26723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43142</v>
       </c>
@@ -26498,7 +26766,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43143</v>
       </c>
@@ -26541,7 +26809,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43144</v>
       </c>
@@ -26584,7 +26852,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43145</v>
       </c>
@@ -26627,7 +26895,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43146</v>
       </c>
@@ -26670,7 +26938,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43147</v>
       </c>
@@ -26713,7 +26981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43148</v>
       </c>
@@ -26756,7 +27024,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43149</v>
       </c>
@@ -26799,7 +27067,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43150</v>
       </c>
@@ -26842,7 +27110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43151</v>
       </c>
@@ -26885,7 +27153,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43152</v>
       </c>
@@ -26928,7 +27196,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43153</v>
       </c>
@@ -26971,7 +27239,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43154</v>
       </c>
@@ -27014,7 +27282,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43155</v>
       </c>
@@ -27057,7 +27325,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43156</v>
       </c>
@@ -27100,7 +27368,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43157</v>
       </c>
@@ -27143,7 +27411,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43158</v>
       </c>
@@ -27186,7 +27454,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43159</v>
       </c>
@@ -27229,7 +27497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
@@ -27278,238 +27546,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
   </sheetData>
@@ -27537,32 +27805,32 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -27571,12 +27839,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="46"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -27585,14 +27853,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -27602,7 +27870,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -27615,7 +27883,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -27628,7 +27896,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -27645,7 +27913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -27658,7 +27926,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -27671,7 +27939,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -27681,7 +27949,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -27697,7 +27965,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -27746,7 +28014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -27784,7 +28052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43160</v>
       </c>
@@ -27827,7 +28095,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43161</v>
       </c>
@@ -27870,7 +28138,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43162</v>
       </c>
@@ -27913,7 +28181,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43163</v>
       </c>
@@ -27956,7 +28224,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43164</v>
       </c>
@@ -27999,7 +28267,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43165</v>
       </c>
@@ -28042,7 +28310,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43166</v>
       </c>
@@ -28085,7 +28353,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43167</v>
       </c>
@@ -28128,7 +28396,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43168</v>
       </c>
@@ -28171,7 +28439,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43169</v>
       </c>
@@ -28214,7 +28482,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43170</v>
       </c>
@@ -28257,7 +28525,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43171</v>
       </c>
@@ -28300,7 +28568,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43172</v>
       </c>
@@ -28343,7 +28611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43173</v>
       </c>
@@ -28386,7 +28654,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43174</v>
       </c>
@@ -28429,7 +28697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43175</v>
       </c>
@@ -28472,7 +28740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43176</v>
       </c>
@@ -28515,7 +28783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43177</v>
       </c>
@@ -28558,7 +28826,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="43">
         <v>43178</v>
       </c>
@@ -28601,7 +28869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43">
         <v>43179</v>
       </c>
@@ -28644,7 +28912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43">
         <v>43180</v>
       </c>
@@ -28687,7 +28955,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43">
         <v>43181</v>
       </c>
@@ -28730,7 +28998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="43">
         <v>43182</v>
       </c>
@@ -28773,7 +29041,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="43">
         <v>43183</v>
       </c>
@@ -28816,7 +29084,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="43">
         <v>43184</v>
       </c>
@@ -28859,7 +29127,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="43">
         <v>43185</v>
       </c>
@@ -28902,7 +29170,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="43">
         <v>43186</v>
       </c>
@@ -28945,7 +29213,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="43">
         <v>43187</v>
       </c>
@@ -28988,7 +29256,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43">
         <v>43188</v>
       </c>
@@ -29031,7 +29299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="43">
         <v>43189</v>
       </c>
@@ -29074,7 +29342,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="43">
         <v>43190</v>
       </c>
@@ -29117,7 +29385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="43">
         <v>43191</v>
       </c>
@@ -29160,7 +29428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B49" s="44" t="s">
         <v>26</v>
       </c>
@@ -29209,238 +29477,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
     </row>
   </sheetData>
@@ -29468,32 +29736,32 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -29502,12 +29770,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -29516,14 +29784,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -29533,7 +29801,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -29546,7 +29814,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -29559,7 +29827,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -29576,7 +29844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -29589,7 +29857,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -29602,7 +29870,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -29612,7 +29880,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -29628,7 +29896,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -29677,7 +29945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -29715,7 +29983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43">
         <v>43191</v>
       </c>
@@ -29758,7 +30026,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43">
         <v>43192</v>
       </c>
@@ -29801,7 +30069,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>43193</v>
       </c>
@@ -29844,7 +30112,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="43">
         <v>43194</v>
       </c>
@@ -29887,7 +30155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="43">
         <v>43195</v>
       </c>
@@ -29930,7 +30198,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="43">
         <v>43196</v>
       </c>
@@ -29973,7 +30241,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="43">
         <v>43197</v>
       </c>
@@ -30016,7 +30284,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="43">
         <v>43198</v>
       </c>
@@ -30059,7 +30327,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="43">
         <v>43199</v>
       </c>
@@ -30102,7 +30370,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="43">
         <v>43200</v>
       </c>
@@ -30145,7 +30413,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="43">
         <v>43201</v>
       </c>
@@ -30188,7 +30456,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="43">
         <v>43202</v>
       </c>
@@ -30231,7 +30499,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43">
         <v>43203</v>
       </c>
@@ -30274,7 +30542,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="43">
         <v>43204</v>
       </c>
@@ -30317,7 +30585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="43">
         <v>43205</v>
       </c>
@@ -30360,7 +30628,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="43">
         <v>43206</v>
       </c>
@@ -30403,7 +30671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="43">
         <v>43207</v>
       </c>
@@ -30446,7 +30714,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="43">
         <v>43208</v>
       </c>
@@ -30489,7 +30757,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="43">
         <v>43209</v>
       </c>
@@ -30532,7 +30800,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43">
         <v>43210</v>
       </c>
@@ -30575,7 +30843,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43">
         <v>43211</v>
       </c>
@@ -30618,7 +30886,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43">
         <v>43212</v>
       </c>
@@ -30661,7 +30929,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="43">
         <v>43213</v>
       </c>
@@ -30704,7 +30972,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="43">
         <v>43214</v>
       </c>
@@ -30747,7 +31015,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="43">
         <v>43215</v>
       </c>
@@ -30790,7 +31058,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="43">
         <v>43216</v>
       </c>
@@ -30833,7 +31101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="43">
         <v>43217</v>
       </c>
@@ -30876,7 +31144,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="43">
         <v>43218</v>
       </c>
@@ -30919,7 +31187,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43">
         <v>43219</v>
       </c>
@@ -30962,7 +31230,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="43">
         <v>43220</v>
       </c>
@@ -31005,7 +31273,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
         <v>26</v>
       </c>
@@ -31054,238 +31322,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
   </sheetData>
@@ -31313,32 +31581,32 @@
       <selection activeCell="M48" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -31347,12 +31615,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="53"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -31361,14 +31629,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -31378,7 +31646,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -31391,7 +31659,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -31404,7 +31672,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -31421,7 +31689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -31434,7 +31702,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -31447,7 +31715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -31457,7 +31725,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -31473,7 +31741,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -31522,7 +31790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -31560,7 +31828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43">
         <v>43221</v>
       </c>
@@ -31603,7 +31871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43">
         <v>43222</v>
       </c>
@@ -31646,7 +31914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>43223</v>
       </c>
@@ -31689,7 +31957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="43">
         <v>43224</v>
       </c>
@@ -31732,7 +32000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="43">
         <v>43225</v>
       </c>
@@ -31775,7 +32043,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="51">
         <v>43226</v>
       </c>
@@ -31818,7 +32086,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="51">
         <v>43227</v>
       </c>
@@ -31861,7 +32129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="51">
         <v>43228</v>
       </c>
@@ -31904,7 +32172,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="51">
         <v>43229</v>
       </c>
@@ -31947,7 +32215,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51">
         <v>43230</v>
       </c>
@@ -31990,7 +32258,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51">
         <v>43231</v>
       </c>
@@ -32033,7 +32301,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51">
         <v>43232</v>
       </c>
@@ -32076,7 +32344,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43">
         <v>43233</v>
       </c>
@@ -32119,7 +32387,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43234</v>
       </c>
@@ -32162,7 +32430,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43235</v>
       </c>
@@ -32205,7 +32473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43236</v>
       </c>
@@ -32248,7 +32516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43237</v>
       </c>
@@ -32291,7 +32559,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43238</v>
       </c>
@@ -32334,7 +32602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43239</v>
       </c>
@@ -32377,7 +32645,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43240</v>
       </c>
@@ -32420,7 +32688,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43241</v>
       </c>
@@ -32463,7 +32731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43242</v>
       </c>
@@ -32506,7 +32774,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43243</v>
       </c>
@@ -32549,7 +32817,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43244</v>
       </c>
@@ -32592,7 +32860,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43245</v>
       </c>
@@ -32635,7 +32903,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43246</v>
       </c>
@@ -32678,7 +32946,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43247</v>
       </c>
@@ -32721,7 +32989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43248</v>
       </c>
@@ -32764,7 +33032,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43249</v>
       </c>
@@ -32807,7 +33075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43250</v>
       </c>
@@ -32850,7 +33118,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <v>43251</v>
       </c>
@@ -32893,7 +33161,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B48" s="48" t="s">
         <v>26</v>
       </c>
@@ -32942,238 +33210,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
   </sheetData>
@@ -33201,32 +33469,32 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -33235,12 +33503,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="92"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -33249,14 +33517,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -33266,7 +33534,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -33279,7 +33547,7 @@
         <v>0.86040208590640865</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -33292,7 +33560,7 @@
         <v>0.12686976808014272</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -33309,7 +33577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -33322,7 +33590,7 @@
         <v>1.2385069301495815E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -33335,7 +33603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -33345,7 +33613,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -33361,7 +33629,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -33420,7 +33688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -33458,7 +33726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43252</v>
       </c>
@@ -33506,7 +33774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43253</v>
       </c>
@@ -33554,7 +33822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43254</v>
       </c>
@@ -33602,7 +33870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43255</v>
       </c>
@@ -33650,7 +33918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43256</v>
       </c>
@@ -33698,7 +33966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43257</v>
       </c>
@@ -33746,7 +34014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43258</v>
       </c>
@@ -33794,7 +34062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43259</v>
       </c>
@@ -33842,7 +34110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43260</v>
       </c>
@@ -33890,7 +34158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43261</v>
       </c>
@@ -33938,7 +34206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43262</v>
       </c>
@@ -33986,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43263</v>
       </c>
@@ -34034,7 +34302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43264</v>
       </c>
@@ -34082,7 +34350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43265</v>
       </c>
@@ -34130,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43266</v>
       </c>
@@ -34178,7 +34446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43267</v>
       </c>
@@ -34226,7 +34494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43268</v>
       </c>
@@ -34274,7 +34542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43269</v>
       </c>
@@ -34322,7 +34590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43270</v>
       </c>
@@ -34370,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43271</v>
       </c>
@@ -34418,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43272</v>
       </c>
@@ -34466,7 +34734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43273</v>
       </c>
@@ -34514,7 +34782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43274</v>
       </c>
@@ -34562,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43275</v>
       </c>
@@ -34610,7 +34878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43276</v>
       </c>
@@ -34658,7 +34926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43277</v>
       </c>
@@ -34707,7 +34975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43278</v>
       </c>
@@ -34755,7 +35023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43279</v>
       </c>
@@ -34803,7 +35071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43280</v>
       </c>
@@ -34851,7 +35119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43281</v>
       </c>
@@ -34899,7 +35167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="89" t="s">
         <v>26</v>
       </c>
@@ -34948,235 +35216,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -35201,9 +35469,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="101">
         <v>43282</v>
       </c>
@@ -35241,7 +35509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="97">
         <v>43283</v>
       </c>
@@ -35279,7 +35547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="101">
         <v>43284</v>
       </c>
@@ -35317,7 +35585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="97">
         <v>43285</v>
       </c>
@@ -35355,7 +35623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="101">
         <v>43286</v>
       </c>
@@ -35393,7 +35661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="97">
         <v>43287</v>
       </c>
@@ -35431,7 +35699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="101">
         <v>43288</v>
       </c>
@@ -35469,7 +35737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="97">
         <v>43289</v>
       </c>
@@ -35507,7 +35775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="101">
         <v>43290</v>
       </c>
@@ -35545,7 +35813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="97">
         <v>43291</v>
       </c>
@@ -35583,7 +35851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="101">
         <v>43292</v>
       </c>
@@ -35621,7 +35889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
         <v>43293</v>
       </c>
@@ -35659,7 +35927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="101">
         <v>43294</v>
       </c>
@@ -35697,7 +35965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="97">
         <v>43295</v>
       </c>
@@ -35735,7 +36003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="101">
         <v>43296</v>
       </c>
@@ -35773,7 +36041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>43297</v>
       </c>
@@ -35811,7 +36079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="101">
         <v>43298</v>
       </c>
@@ -35849,7 +36117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="97">
         <v>43299</v>
       </c>
@@ -35887,7 +36155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="101">
         <v>43300</v>
       </c>
@@ -35925,7 +36193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="97">
         <v>43301</v>
       </c>
@@ -35963,7 +36231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="101">
         <v>43302</v>
       </c>
@@ -36001,7 +36269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
         <v>43303</v>
       </c>
@@ -36039,7 +36307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="101">
         <v>43304</v>
       </c>
@@ -36077,7 +36345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="97">
         <v>43305</v>
       </c>
@@ -36115,7 +36383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="101">
         <v>43306</v>
       </c>
@@ -36153,7 +36421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="97">
         <v>43307</v>
       </c>
@@ -36191,7 +36459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="101">
         <v>43308</v>
       </c>
@@ -36229,7 +36497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="97">
         <v>43309</v>
       </c>
@@ -36267,7 +36535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="101">
         <v>43310</v>
       </c>
@@ -36305,7 +36573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="97">
         <v>43311</v>
       </c>
@@ -36343,7 +36611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>43312</v>
       </c>
@@ -36381,7 +36649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="24.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="103" t="s">
         <v>26</v>
       </c>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7F642B-6AF9-5C4A-A67D-99A5724AD385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB23C94E-5DB9-4A8E-8E63-6B502CEF2ACB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3120" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="3120" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,6 @@
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -864,289 +857,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
+    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2744,6 +2462,281 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2841,7 +2834,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2922,7 +2915,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43325</c:v>
@@ -2967,13 +2960,13 @@
                   <c:v>3825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3004,7 +2997,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43325</c:v>
@@ -3047,6 +3040,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3079,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43325</c:v>
@@ -3120,6 +3122,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,7 +3161,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43325</c:v>
@@ -3192,6 +3203,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3225,7 +3245,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43325</c:v>
@@ -3268,6 +3288,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,7 +3329,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$241:$B$247</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43325</c:v>
@@ -3342,6 +3371,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3374,7 +3412,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3408,7 +3446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3466,7 +3504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3508,7 +3546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3547,7 +3585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3577,7 +3615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3591,7 +3629,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3675,7 +3713,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3886,7 +3924,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4097,7 +4135,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4308,7 +4346,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4521,7 +4559,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4734,7 +4772,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4943,7 +4981,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4977,7 +5015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5035,7 +5073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5077,7 +5115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5116,7 +5154,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5146,7 +5184,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5160,7 +5198,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5244,7 +5282,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5473,7 +5511,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5702,7 +5740,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5931,7 +5969,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6162,7 +6200,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6393,7 +6431,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6620,7 +6658,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6654,7 +6692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6712,7 +6750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6754,7 +6792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6793,7 +6831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6823,7 +6861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6837,7 +6875,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6921,7 +6959,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7144,7 +7182,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7367,7 +7405,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7590,7 +7628,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7815,7 +7853,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8040,7 +8078,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8261,7 +8299,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8295,7 +8333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8353,7 +8391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8395,7 +8433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8434,7 +8472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8464,7 +8502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8478,7 +8516,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8562,7 +8600,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8791,7 +8829,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9020,7 +9058,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9249,7 +9287,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9480,7 +9518,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9711,7 +9749,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9938,7 +9976,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9972,7 +10010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10030,7 +10068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10072,7 +10110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10111,7 +10149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10141,7 +10179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10155,7 +10193,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10239,7 +10277,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10462,7 +10500,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10685,7 +10723,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10908,7 +10946,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11133,7 +11171,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11358,7 +11396,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11579,7 +11617,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11613,7 +11651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11671,7 +11709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11713,7 +11751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11752,7 +11790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11782,7 +11820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11796,7 +11834,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11877,7 +11915,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12103,7 +12141,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12329,7 +12367,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12555,7 +12593,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12783,7 +12821,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13011,7 +13049,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13238,7 +13276,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13272,7 +13310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13330,7 +13368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13372,7 +13410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13411,7 +13449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13441,7 +13479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13764,46 +13802,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="90">
       <totalsRowFormula>SUM(C241:C247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="89">
       <totalsRowFormula>SUM(D241:D247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="88">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E241:E247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="87">
       <totalsRowFormula>SUM(F241:F247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="86">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G241:G247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="85">
       <totalsRowFormula>SUM(H241:H247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="84">
       <calculatedColumnFormula>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I241:I247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="83">
       <totalsRowFormula>SUM(J241:J247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K241:K247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="81">
       <totalsRowFormula>SUM(L241:L247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="80">
       <calculatedColumnFormula>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M241:M247)</totalsRowFormula>
@@ -13814,7 +13852,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -13826,46 +13864,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="74">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="73">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="84">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="72">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Complete]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="71">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="82">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="70">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Failed]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="69">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="80">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="68">
       <calculatedColumnFormula>Tabla18203[Transactions 
 In_Prog]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="67">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="78">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="66">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Timeout]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="65">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="76">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="64">
       <calculatedColumnFormula>Tabla18203[Transactions
 Trans Fail]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -13876,7 +13914,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
   <autoFilter ref="B16:M48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -13888,46 +13926,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="58">
       <totalsRowFormula>SUM(C42:C48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="57">
       <totalsRowFormula>SUM(D42:D48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="56">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Complete]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="55">
       <totalsRowFormula>SUM(F42:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="66">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="54">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Failed]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="53">
       <totalsRowFormula>SUM(H42:H48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="64">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla18204[Transactions 
 In_Prog]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="51">
       <totalsRowFormula>SUM(J42:J48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="62">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="50">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Timeout]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="49">
       <totalsRowFormula>SUM(L42:L48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="60">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="48">
       <calculatedColumnFormula>Tabla18204[Transactions
 Trans Fail]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M48)</totalsRowFormula>
@@ -13938,7 +13976,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -13950,46 +13988,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="42">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="41">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="40">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Complete]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="39">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="38">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Failed]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="37">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="48">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabla18205[Transactions 
 In_Prog]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="35">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="46">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="34">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Timeout]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="33">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="44">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabla18205[Transactions
 Trans Fail]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14000,7 +14038,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -14012,46 +14050,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="26">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="25">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="36">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Complete]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="23">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="22">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Failed]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="21">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="32">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla18206[Transactions 
 In_Prog]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="19">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="30">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Timeout]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="17">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="16">
       <calculatedColumnFormula>Tabla18206[Transactions
 Trans Fail]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -14062,7 +14100,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -14074,46 +14112,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Complete]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Failed]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18207[Transactions 
 In_Prog]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Timeout]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18207[Transactions
 Trans Fail]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14425,36 +14463,36 @@
   </sheetPr>
   <dimension ref="B1:M325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N249" sqref="N249"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241:M248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14463,12 +14501,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -14477,50 +14515,50 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>882748.06</v>
+        <v>886553.03</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>754404</v>
+        <v>756968</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.85460850517190601</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.853832736886591</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>105903</v>
+        <v>106549</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.11996967741849242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.12018344802228018</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -14530,23 +14568,23 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.3984781569500132E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+        <v>3.3838923318552078E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>22422</v>
+        <v>23017</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.54002257450444E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2.5962349934103773E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -14559,17 +14597,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>882732</v>
+        <v>886537</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -14585,33 +14623,33 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>882748.06</v>
+        <v>886553.03</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>754404</v>
+        <v>756968</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.78830595583931873</v>
+        <v>0.7961145241391393</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>105903</v>
+        <v>106549</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.14175778698922661</v>
+        <v>0.14376861783880265</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14626,12 +14664,12 @@
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>22422</v>
+        <v>23017</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.3913553814061083E-2</v>
+        <v>4.7081167651677649E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -14644,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -14682,7 +14720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>43101</v>
       </c>
@@ -14730,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>43102</v>
       </c>
@@ -14778,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>43103</v>
       </c>
@@ -14826,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>43104</v>
       </c>
@@ -14874,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>43105</v>
       </c>
@@ -14922,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>43106</v>
       </c>
@@ -14970,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>43107</v>
       </c>
@@ -15018,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>43108</v>
       </c>
@@ -15066,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>43109</v>
       </c>
@@ -15114,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27">
         <v>43110</v>
       </c>
@@ -15162,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27">
         <v>43111</v>
       </c>
@@ -15210,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27">
         <v>43112</v>
       </c>
@@ -15258,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27">
         <v>43113</v>
       </c>
@@ -15306,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27">
         <v>43114</v>
       </c>
@@ -15354,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27">
         <v>43115</v>
       </c>
@@ -15402,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27">
         <v>43116</v>
       </c>
@@ -15450,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27">
         <v>43117</v>
       </c>
@@ -15498,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27">
         <v>43118</v>
       </c>
@@ -15546,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27">
         <v>43119</v>
       </c>
@@ -15594,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27">
         <v>43120</v>
       </c>
@@ -15642,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="27">
         <v>43121</v>
       </c>
@@ -15690,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43122</v>
       </c>
@@ -15738,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43123</v>
       </c>
@@ -15786,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43124</v>
       </c>
@@ -15834,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43125</v>
       </c>
@@ -15882,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43126</v>
       </c>
@@ -15930,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43127</v>
       </c>
@@ -15978,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43128</v>
       </c>
@@ -16026,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43129</v>
       </c>
@@ -16074,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43130</v>
       </c>
@@ -16122,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
         <v>43131</v>
       </c>
@@ -16170,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="37">
         <v>43132</v>
       </c>
@@ -16218,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="37">
         <v>43133</v>
       </c>
@@ -16266,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="37">
         <v>43134</v>
       </c>
@@ -16314,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="37">
         <v>43135</v>
       </c>
@@ -16362,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="37">
         <v>43136</v>
       </c>
@@ -16410,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="37">
         <v>43137</v>
       </c>
@@ -16458,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="37">
         <v>43138</v>
       </c>
@@ -16506,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="37">
         <v>43139</v>
       </c>
@@ -16554,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="37">
         <v>43140</v>
       </c>
@@ -16602,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="37">
         <v>43141</v>
       </c>
@@ -16650,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="37">
         <v>43142</v>
       </c>
@@ -16698,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="37">
         <v>43143</v>
       </c>
@@ -16746,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="37">
         <v>43144</v>
       </c>
@@ -16794,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="37">
         <v>43145</v>
       </c>
@@ -16842,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="37">
         <v>43146</v>
       </c>
@@ -16890,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="37">
         <v>43147</v>
       </c>
@@ -16938,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="37">
         <v>43148</v>
       </c>
@@ -16986,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="37">
         <v>43149</v>
       </c>
@@ -17034,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="37">
         <v>43150</v>
       </c>
@@ -17082,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="37">
         <v>43151</v>
       </c>
@@ -17130,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="37">
         <v>43152</v>
       </c>
@@ -17178,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="37">
         <v>43153</v>
       </c>
@@ -17226,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="37">
         <v>43154</v>
       </c>
@@ -17274,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="37">
         <v>43155</v>
       </c>
@@ -17322,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="37">
         <v>43156</v>
       </c>
@@ -17370,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="37">
         <v>43157</v>
       </c>
@@ -17418,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="37">
         <v>43158</v>
       </c>
@@ -17466,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="37">
         <v>43159</v>
       </c>
@@ -17514,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="37">
         <v>43160</v>
       </c>
@@ -17562,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="37">
         <v>43161</v>
       </c>
@@ -17610,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="37">
         <v>43162</v>
       </c>
@@ -17658,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="37">
         <v>43163</v>
       </c>
@@ -17706,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="37">
         <v>43164</v>
       </c>
@@ -17754,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="37">
         <v>43165</v>
       </c>
@@ -17802,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="37">
         <v>43166</v>
       </c>
@@ -17850,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="37">
         <v>43167</v>
       </c>
@@ -17898,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="37">
         <v>43168</v>
       </c>
@@ -17946,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="37">
         <v>43169</v>
       </c>
@@ -17994,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="37">
         <v>43170</v>
       </c>
@@ -18042,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="37">
         <v>43171</v>
       </c>
@@ -18090,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="37">
         <v>43172</v>
       </c>
@@ -18138,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="37">
         <v>43173</v>
       </c>
@@ -18186,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="37">
         <v>43174</v>
       </c>
@@ -18234,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="37">
         <v>43175</v>
       </c>
@@ -18282,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="37">
         <v>43176</v>
       </c>
@@ -18330,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="37">
         <v>43177</v>
       </c>
@@ -18378,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43">
         <v>43178</v>
       </c>
@@ -18426,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="43">
         <v>43179</v>
       </c>
@@ -18474,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="43">
         <v>43180</v>
       </c>
@@ -18522,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43">
         <v>43181</v>
       </c>
@@ -18570,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="43">
         <v>43182</v>
       </c>
@@ -18618,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="43">
         <v>43183</v>
       </c>
@@ -18666,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="43">
         <v>43184</v>
       </c>
@@ -18714,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="43">
         <v>43185</v>
       </c>
@@ -18762,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="43">
         <v>43186</v>
       </c>
@@ -18810,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="43">
         <v>43187</v>
       </c>
@@ -18858,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="43">
         <v>43188</v>
       </c>
@@ -18906,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="43">
         <v>43189</v>
       </c>
@@ -18954,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="43">
         <v>43190</v>
       </c>
@@ -19002,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="43">
         <v>43191</v>
       </c>
@@ -19050,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="43">
         <v>43192</v>
       </c>
@@ -19098,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="43">
         <v>43193</v>
       </c>
@@ -19146,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="43">
         <v>43194</v>
       </c>
@@ -19194,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="43">
         <v>43195</v>
       </c>
@@ -19242,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="43">
         <v>43196</v>
       </c>
@@ -19290,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="43">
         <v>43197</v>
       </c>
@@ -19338,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="43">
         <v>43198</v>
       </c>
@@ -19386,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="43">
         <v>43199</v>
       </c>
@@ -19434,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="43">
         <v>43200</v>
       </c>
@@ -19482,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="43">
         <v>43201</v>
       </c>
@@ -19530,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="43">
         <v>43202</v>
       </c>
@@ -19578,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="43">
         <v>43203</v>
       </c>
@@ -19626,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="43">
         <v>43204</v>
       </c>
@@ -19674,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="43">
         <v>43205</v>
       </c>
@@ -19722,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="43">
         <v>43206</v>
       </c>
@@ -19770,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="43">
         <v>43207</v>
       </c>
@@ -19818,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="43">
         <v>43208</v>
       </c>
@@ -19866,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="43">
         <v>43209</v>
       </c>
@@ -19914,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="43">
         <v>43210</v>
       </c>
@@ -19962,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="43">
         <v>43211</v>
       </c>
@@ -20010,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="43">
         <v>43212</v>
       </c>
@@ -20058,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="43">
         <v>43213</v>
       </c>
@@ -20106,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="43">
         <v>43214</v>
       </c>
@@ -20154,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="43">
         <v>43215</v>
       </c>
@@ -20202,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="43">
         <v>43216</v>
       </c>
@@ -20250,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="43">
         <v>43217</v>
       </c>
@@ -20298,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="43">
         <v>43218</v>
       </c>
@@ -20346,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="43">
         <v>43219</v>
       </c>
@@ -20394,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="43">
         <v>43220</v>
       </c>
@@ -20442,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="43">
         <v>43221</v>
       </c>
@@ -20490,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="43">
         <v>43222</v>
       </c>
@@ -20538,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="43">
         <v>43223</v>
       </c>
@@ -20586,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="43">
         <v>43224</v>
       </c>
@@ -20634,7 +20672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="43">
         <v>43225</v>
       </c>
@@ -20682,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="51">
         <v>43226</v>
       </c>
@@ -20730,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="51">
         <v>43227</v>
       </c>
@@ -20778,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="51">
         <v>43228</v>
       </c>
@@ -20826,7 +20864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="51">
         <v>43229</v>
       </c>
@@ -20874,7 +20912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="51">
         <v>43230</v>
       </c>
@@ -20922,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="51">
         <v>43231</v>
       </c>
@@ -20970,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="51">
         <v>43232</v>
       </c>
@@ -21018,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="43">
         <v>43233</v>
       </c>
@@ -21066,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="37">
         <v>43234</v>
       </c>
@@ -21114,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="37">
         <v>43235</v>
       </c>
@@ -21162,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="37">
         <v>43236</v>
       </c>
@@ -21210,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="37">
         <v>43237</v>
       </c>
@@ -21258,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="37">
         <v>43238</v>
       </c>
@@ -21306,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="37">
         <v>43239</v>
       </c>
@@ -21354,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="37">
         <v>43240</v>
       </c>
@@ -21402,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="37">
         <v>43241</v>
       </c>
@@ -21450,7 +21488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="37">
         <v>43242</v>
       </c>
@@ -21498,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="37">
         <v>43243</v>
       </c>
@@ -21546,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="37">
         <v>43244</v>
       </c>
@@ -21594,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="37">
         <v>43245</v>
       </c>
@@ -21642,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="37">
         <v>43246</v>
       </c>
@@ -21690,7 +21728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="37">
         <v>43247</v>
       </c>
@@ -21738,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="37">
         <v>43248</v>
       </c>
@@ -21786,7 +21824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="37">
         <v>43249</v>
       </c>
@@ -21834,7 +21872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="37">
         <v>43250</v>
       </c>
@@ -21882,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="37">
         <v>43251</v>
       </c>
@@ -21930,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="37">
         <v>43252</v>
       </c>
@@ -21978,7 +22016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="37">
         <v>43253</v>
       </c>
@@ -22026,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="37">
         <v>43254</v>
       </c>
@@ -22074,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="37">
         <v>43255</v>
       </c>
@@ -22122,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="37">
         <v>43256</v>
       </c>
@@ -22170,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="37">
         <v>43257</v>
       </c>
@@ -22218,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="37">
         <v>43258</v>
       </c>
@@ -22266,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="37">
         <v>43259</v>
       </c>
@@ -22314,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="37">
         <v>43260</v>
       </c>
@@ -22362,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="37">
         <v>43261</v>
       </c>
@@ -22410,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="37">
         <v>43262</v>
       </c>
@@ -22458,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="37">
         <v>43263</v>
       </c>
@@ -22506,7 +22544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="37">
         <v>43264</v>
       </c>
@@ -22554,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="37">
         <v>43265</v>
       </c>
@@ -22602,7 +22640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="37">
         <v>43266</v>
       </c>
@@ -22650,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="37">
         <v>43267</v>
       </c>
@@ -22698,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="37">
         <v>43268</v>
       </c>
@@ -22746,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="37">
         <v>43269</v>
       </c>
@@ -22794,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="37">
         <v>43270</v>
       </c>
@@ -22842,7 +22880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="37">
         <v>43271</v>
       </c>
@@ -22890,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="37">
         <v>43272</v>
       </c>
@@ -22938,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="37">
         <v>43273</v>
       </c>
@@ -22986,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="37">
         <v>43274</v>
       </c>
@@ -23034,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="37">
         <v>43275</v>
       </c>
@@ -23082,7 +23120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="37">
         <v>43276</v>
       </c>
@@ -23130,7 +23168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="37">
         <v>43277</v>
       </c>
@@ -23179,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="37">
         <v>43278</v>
       </c>
@@ -23227,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="37">
         <v>43279</v>
       </c>
@@ -23275,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="37">
         <v>43280</v>
       </c>
@@ -23323,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="37">
         <v>43281</v>
       </c>
@@ -23371,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="37">
         <v>43282</v>
       </c>
@@ -23419,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="37">
         <v>43283</v>
       </c>
@@ -23467,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="37">
         <v>43284</v>
       </c>
@@ -23515,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="37">
         <v>43285</v>
       </c>
@@ -23563,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="37">
         <v>43286</v>
       </c>
@@ -23611,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="37">
         <v>43287</v>
       </c>
@@ -23659,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="37">
         <v>43288</v>
       </c>
@@ -23707,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="37">
         <v>43289</v>
       </c>
@@ -23755,7 +23793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="37">
         <v>43290</v>
       </c>
@@ -23803,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="37">
         <v>43291</v>
       </c>
@@ -23851,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="37">
         <v>43292</v>
       </c>
@@ -23899,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="37">
         <v>43293</v>
       </c>
@@ -23947,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="37">
         <v>43294</v>
       </c>
@@ -23995,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="37">
         <v>43295</v>
       </c>
@@ -24043,7 +24081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="37">
         <v>43296</v>
       </c>
@@ -24091,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="37">
         <v>43297</v>
       </c>
@@ -24139,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="37">
         <v>43298</v>
       </c>
@@ -24187,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="37">
         <v>43299</v>
       </c>
@@ -24235,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="37">
         <v>43300</v>
       </c>
@@ -24283,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="37">
         <v>43301</v>
       </c>
@@ -24331,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="37">
         <v>43302</v>
       </c>
@@ -24379,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="37">
         <v>43303</v>
       </c>
@@ -24427,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="37">
         <v>43304</v>
       </c>
@@ -24475,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="37">
         <v>43305</v>
       </c>
@@ -24523,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="37">
         <v>43306</v>
       </c>
@@ -24571,7 +24609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="37">
         <v>43307</v>
       </c>
@@ -24619,7 +24657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="37">
         <v>43308</v>
       </c>
@@ -24667,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="37">
         <v>43309</v>
       </c>
@@ -24715,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="37">
         <v>43310</v>
       </c>
@@ -24763,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24811,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24859,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24907,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24955,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -25003,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25051,7 +25089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25099,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="37">
         <v>43318</v>
       </c>
@@ -25147,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="37">
         <v>43319</v>
       </c>
@@ -25195,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="37">
         <v>43320</v>
       </c>
@@ -25243,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="37">
         <v>43321</v>
       </c>
@@ -25291,7 +25329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="37">
         <v>43322</v>
       </c>
@@ -25339,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="37">
         <v>43323</v>
       </c>
@@ -25387,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="37">
         <v>43324</v>
       </c>
@@ -25435,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B241" s="37">
         <v>43325</v>
       </c>
@@ -25483,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B242" s="37">
         <v>43326</v>
       </c>
@@ -25531,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B243" s="37">
         <v>43327</v>
       </c>
@@ -25579,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B244" s="37">
         <v>43328</v>
       </c>
@@ -25627,143 +25665,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B245" s="37">
         <v>43329</v>
       </c>
       <c r="C245" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D245" s="87"/>
+        <v>2212</v>
+      </c>
+      <c r="D245" s="87">
+        <v>1645</v>
+      </c>
       <c r="E245" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F245" s="87"/>
+        <v>0.74367088607594933</v>
+      </c>
+      <c r="F245" s="87">
+        <v>368</v>
+      </c>
       <c r="G245" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H245" s="34"/>
+        <v>0.16636528028933092</v>
+      </c>
+      <c r="H245" s="34">
+        <v>0</v>
+      </c>
       <c r="I245" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J245" s="87"/>
+      <c r="J245" s="87">
+        <v>199</v>
+      </c>
       <c r="K245" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L245" s="34"/>
+        <v>8.9963833634719714E-2</v>
+      </c>
+      <c r="L245" s="34">
+        <v>0</v>
+      </c>
       <c r="M245" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B246" s="37">
         <v>43330</v>
       </c>
       <c r="C246" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D246" s="87"/>
+        <v>1173</v>
+      </c>
+      <c r="D246" s="87">
+        <v>738</v>
+      </c>
       <c r="E246" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F246" s="87"/>
+        <v>0.62915601023017897</v>
+      </c>
+      <c r="F246" s="87">
+        <v>238</v>
+      </c>
       <c r="G246" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H246" s="34"/>
+        <v>0.20289855072463769</v>
+      </c>
+      <c r="H246" s="34">
+        <v>0</v>
+      </c>
       <c r="I246" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J246" s="87"/>
+      <c r="J246" s="87">
+        <v>197</v>
+      </c>
       <c r="K246" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L246" s="34"/>
+        <v>0.1679454390451833</v>
+      </c>
+      <c r="L246" s="34">
+        <v>0</v>
+      </c>
       <c r="M246" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B247" s="37">
         <v>43331</v>
       </c>
       <c r="C247" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D247" s="87"/>
+        <v>420</v>
+      </c>
+      <c r="D247" s="87">
+        <v>181</v>
+      </c>
       <c r="E247" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F247" s="87"/>
+        <v>0.43095238095238098</v>
+      </c>
+      <c r="F247" s="87">
+        <v>40</v>
+      </c>
       <c r="G247" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H247" s="34"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="H247" s="34">
+        <v>0</v>
+      </c>
       <c r="I247" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J247" s="87"/>
+      <c r="J247" s="87">
+        <v>199</v>
+      </c>
       <c r="K247" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L247" s="34"/>
+        <v>0.47380952380952379</v>
+      </c>
+      <c r="L247" s="34">
+        <v>0</v>
+      </c>
       <c r="M247" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B248" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C248" s="39">
         <f>SUM(C241:C247)</f>
-        <v>16295.03</v>
+        <v>20100</v>
       </c>
       <c r="D248" s="39">
         <f>SUM(D241:D247)</f>
-        <v>10748</v>
+        <v>13312</v>
       </c>
       <c r="E248" s="94">
         <f>AVERAGE(E241:E247)</f>
-        <v>0.37804637055322887</v>
+        <v>0.63572912444730167</v>
       </c>
       <c r="F248" s="39">
         <f>SUM(F241:F247)</f>
-        <v>4759</v>
+        <v>5405</v>
       </c>
       <c r="G248" s="94">
         <f>AVERAGE(G241:G247)</f>
-        <v>0.16567751458232788</v>
+        <v>0.23203493261833699</v>
       </c>
       <c r="H248" s="39">
         <f>SUM(H241:H247)</f>
@@ -25775,11 +25843,11 @@
       </c>
       <c r="J248" s="39">
         <f>SUM(J241:J247)</f>
-        <v>788</v>
+        <v>1383</v>
       </c>
       <c r="K248" s="94">
         <f>AVERAGE(K241:K247)</f>
-        <v>2.7704686293014678E-2</v>
+        <v>0.13223594293436136</v>
       </c>
       <c r="L248" s="39">
         <f>SUM(L241:L247)</f>
@@ -25790,235 +25858,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="1"/>
     </row>
   </sheetData>
@@ -26046,32 +26114,32 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -26080,12 +26148,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="42"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -26094,14 +26162,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -26111,7 +26179,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -26124,7 +26192,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -26137,7 +26205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -26154,7 +26222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -26167,7 +26235,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -26180,7 +26248,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -26190,7 +26258,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -26206,7 +26274,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -26255,7 +26323,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -26293,7 +26361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43132</v>
       </c>
@@ -26336,7 +26404,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43133</v>
       </c>
@@ -26379,7 +26447,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43134</v>
       </c>
@@ -26422,7 +26490,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43135</v>
       </c>
@@ -26465,7 +26533,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43136</v>
       </c>
@@ -26508,7 +26576,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43137</v>
       </c>
@@ -26551,7 +26619,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43138</v>
       </c>
@@ -26594,7 +26662,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43139</v>
       </c>
@@ -26637,7 +26705,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43140</v>
       </c>
@@ -26680,7 +26748,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43141</v>
       </c>
@@ -26723,7 +26791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43142</v>
       </c>
@@ -26766,7 +26834,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43143</v>
       </c>
@@ -26809,7 +26877,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43144</v>
       </c>
@@ -26852,7 +26920,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43145</v>
       </c>
@@ -26895,7 +26963,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43146</v>
       </c>
@@ -26938,7 +27006,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43147</v>
       </c>
@@ -26981,7 +27049,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43148</v>
       </c>
@@ -27024,7 +27092,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43149</v>
       </c>
@@ -27067,7 +27135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43150</v>
       </c>
@@ -27110,7 +27178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43151</v>
       </c>
@@ -27153,7 +27221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43152</v>
       </c>
@@ -27196,7 +27264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43153</v>
       </c>
@@ -27239,7 +27307,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43154</v>
       </c>
@@ -27282,7 +27350,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43155</v>
       </c>
@@ -27325,7 +27393,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43156</v>
       </c>
@@ -27368,7 +27436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43157</v>
       </c>
@@ -27411,7 +27479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43158</v>
       </c>
@@ -27454,7 +27522,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43159</v>
       </c>
@@ -27497,7 +27565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
@@ -27546,238 +27614,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
   </sheetData>
@@ -27805,32 +27873,32 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -27839,12 +27907,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="46"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -27853,14 +27921,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -27870,7 +27938,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -27883,7 +27951,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -27896,7 +27964,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -27913,7 +27981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -27926,7 +27994,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -27939,7 +28007,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -27949,7 +28017,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -27965,7 +28033,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -28014,7 +28082,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -28052,7 +28120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43160</v>
       </c>
@@ -28095,7 +28163,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43161</v>
       </c>
@@ -28138,7 +28206,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43162</v>
       </c>
@@ -28181,7 +28249,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43163</v>
       </c>
@@ -28224,7 +28292,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43164</v>
       </c>
@@ -28267,7 +28335,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43165</v>
       </c>
@@ -28310,7 +28378,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43166</v>
       </c>
@@ -28353,7 +28421,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43167</v>
       </c>
@@ -28396,7 +28464,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43168</v>
       </c>
@@ -28439,7 +28507,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43169</v>
       </c>
@@ -28482,7 +28550,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43170</v>
       </c>
@@ -28525,7 +28593,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43171</v>
       </c>
@@ -28568,7 +28636,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43172</v>
       </c>
@@ -28611,7 +28679,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43173</v>
       </c>
@@ -28654,7 +28722,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43174</v>
       </c>
@@ -28697,7 +28765,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43175</v>
       </c>
@@ -28740,7 +28808,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43176</v>
       </c>
@@ -28783,7 +28851,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43177</v>
       </c>
@@ -28826,7 +28894,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43">
         <v>43178</v>
       </c>
@@ -28869,7 +28937,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43">
         <v>43179</v>
       </c>
@@ -28912,7 +28980,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43">
         <v>43180</v>
       </c>
@@ -28955,7 +29023,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43">
         <v>43181</v>
       </c>
@@ -28998,7 +29066,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43">
         <v>43182</v>
       </c>
@@ -29041,7 +29109,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43">
         <v>43183</v>
       </c>
@@ -29084,7 +29152,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43">
         <v>43184</v>
       </c>
@@ -29127,7 +29195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43">
         <v>43185</v>
       </c>
@@ -29170,7 +29238,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43">
         <v>43186</v>
       </c>
@@ -29213,7 +29281,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43">
         <v>43187</v>
       </c>
@@ -29256,7 +29324,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43">
         <v>43188</v>
       </c>
@@ -29299,7 +29367,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43">
         <v>43189</v>
       </c>
@@ -29342,7 +29410,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="43">
         <v>43190</v>
       </c>
@@ -29385,7 +29453,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="43">
         <v>43191</v>
       </c>
@@ -29428,7 +29496,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B49" s="44" t="s">
         <v>26</v>
       </c>
@@ -29477,238 +29545,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="1"/>
     </row>
   </sheetData>
@@ -29736,32 +29804,32 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -29770,12 +29838,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -29784,14 +29852,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -29801,7 +29869,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -29814,7 +29882,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -29827,7 +29895,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -29844,7 +29912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -29857,7 +29925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -29870,7 +29938,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -29880,7 +29948,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -29896,7 +29964,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -29945,7 +30013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -29983,7 +30051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>43191</v>
       </c>
@@ -30026,7 +30094,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>43192</v>
       </c>
@@ -30069,7 +30137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43">
         <v>43193</v>
       </c>
@@ -30112,7 +30180,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43">
         <v>43194</v>
       </c>
@@ -30155,7 +30223,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43">
         <v>43195</v>
       </c>
@@ -30198,7 +30266,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43">
         <v>43196</v>
       </c>
@@ -30241,7 +30309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43">
         <v>43197</v>
       </c>
@@ -30284,7 +30352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>43198</v>
       </c>
@@ -30327,7 +30395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="43">
         <v>43199</v>
       </c>
@@ -30370,7 +30438,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43">
         <v>43200</v>
       </c>
@@ -30413,7 +30481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43">
         <v>43201</v>
       </c>
@@ -30456,7 +30524,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="43">
         <v>43202</v>
       </c>
@@ -30499,7 +30567,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43">
         <v>43203</v>
       </c>
@@ -30542,7 +30610,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="43">
         <v>43204</v>
       </c>
@@ -30585,7 +30653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43">
         <v>43205</v>
       </c>
@@ -30628,7 +30696,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>43206</v>
       </c>
@@ -30671,7 +30739,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="43">
         <v>43207</v>
       </c>
@@ -30714,7 +30782,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43">
         <v>43208</v>
       </c>
@@ -30757,7 +30825,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43">
         <v>43209</v>
       </c>
@@ -30800,7 +30868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43">
         <v>43210</v>
       </c>
@@ -30843,7 +30911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43">
         <v>43211</v>
       </c>
@@ -30886,7 +30954,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43">
         <v>43212</v>
       </c>
@@ -30929,7 +30997,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43">
         <v>43213</v>
       </c>
@@ -30972,7 +31040,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43">
         <v>43214</v>
       </c>
@@ -31015,7 +31083,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43">
         <v>43215</v>
       </c>
@@ -31058,7 +31126,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43">
         <v>43216</v>
       </c>
@@ -31101,7 +31169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43">
         <v>43217</v>
       </c>
@@ -31144,7 +31212,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43">
         <v>43218</v>
       </c>
@@ -31187,7 +31255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43">
         <v>43219</v>
       </c>
@@ -31230,7 +31298,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43">
         <v>43220</v>
       </c>
@@ -31273,7 +31341,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="44" t="s">
         <v>26</v>
       </c>
@@ -31322,238 +31390,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
   </sheetData>
@@ -31581,32 +31649,32 @@
       <selection activeCell="M48" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -31615,12 +31683,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="53"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -31629,14 +31697,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -31646,7 +31714,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -31659,7 +31727,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -31672,7 +31740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -31689,7 +31757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -31702,7 +31770,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -31715,7 +31783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -31725,7 +31793,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -31741,7 +31809,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -31790,7 +31858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -31828,7 +31896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>43221</v>
       </c>
@@ -31871,7 +31939,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>43222</v>
       </c>
@@ -31914,7 +31982,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43">
         <v>43223</v>
       </c>
@@ -31957,7 +32025,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43">
         <v>43224</v>
       </c>
@@ -32000,7 +32068,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43">
         <v>43225</v>
       </c>
@@ -32043,7 +32111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="51">
         <v>43226</v>
       </c>
@@ -32086,7 +32154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51">
         <v>43227</v>
       </c>
@@ -32129,7 +32197,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51">
         <v>43228</v>
       </c>
@@ -32172,7 +32240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="51">
         <v>43229</v>
       </c>
@@ -32215,7 +32283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="51">
         <v>43230</v>
       </c>
@@ -32258,7 +32326,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="51">
         <v>43231</v>
       </c>
@@ -32301,7 +32369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51">
         <v>43232</v>
       </c>
@@ -32344,7 +32412,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43">
         <v>43233</v>
       </c>
@@ -32387,7 +32455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43234</v>
       </c>
@@ -32430,7 +32498,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43235</v>
       </c>
@@ -32473,7 +32541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43236</v>
       </c>
@@ -32516,7 +32584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43237</v>
       </c>
@@ -32559,7 +32627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43238</v>
       </c>
@@ -32602,7 +32670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43239</v>
       </c>
@@ -32645,7 +32713,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43240</v>
       </c>
@@ -32688,7 +32756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43241</v>
       </c>
@@ -32731,7 +32799,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43242</v>
       </c>
@@ -32774,7 +32842,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43243</v>
       </c>
@@ -32817,7 +32885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43244</v>
       </c>
@@ -32860,7 +32928,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43245</v>
       </c>
@@ -32903,7 +32971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43246</v>
       </c>
@@ -32946,7 +33014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43247</v>
       </c>
@@ -32989,7 +33057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43248</v>
       </c>
@@ -33032,7 +33100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43249</v>
       </c>
@@ -33075,7 +33143,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43250</v>
       </c>
@@ -33118,7 +33186,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
         <v>43251</v>
       </c>
@@ -33161,7 +33229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B48" s="48" t="s">
         <v>26</v>
       </c>
@@ -33210,238 +33278,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
   </sheetData>
@@ -33469,32 +33537,32 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -33503,12 +33571,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="92"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -33517,14 +33585,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -33534,7 +33602,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -33547,7 +33615,7 @@
         <v>0.86040208590640865</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -33560,7 +33628,7 @@
         <v>0.12686976808014272</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -33577,7 +33645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -33590,7 +33658,7 @@
         <v>1.2385069301495815E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -33603,7 +33671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -33613,7 +33681,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -33629,7 +33697,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -33688,7 +33756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -33726,7 +33794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43252</v>
       </c>
@@ -33774,7 +33842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43253</v>
       </c>
@@ -33822,7 +33890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43254</v>
       </c>
@@ -33870,7 +33938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43255</v>
       </c>
@@ -33918,7 +33986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43256</v>
       </c>
@@ -33966,7 +34034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43257</v>
       </c>
@@ -34014,7 +34082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43258</v>
       </c>
@@ -34062,7 +34130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43259</v>
       </c>
@@ -34110,7 +34178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43260</v>
       </c>
@@ -34158,7 +34226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43261</v>
       </c>
@@ -34206,7 +34274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43262</v>
       </c>
@@ -34254,7 +34322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43263</v>
       </c>
@@ -34302,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43264</v>
       </c>
@@ -34350,7 +34418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43265</v>
       </c>
@@ -34398,7 +34466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43266</v>
       </c>
@@ -34446,7 +34514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43267</v>
       </c>
@@ -34494,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43268</v>
       </c>
@@ -34542,7 +34610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43269</v>
       </c>
@@ -34590,7 +34658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43270</v>
       </c>
@@ -34638,7 +34706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43271</v>
       </c>
@@ -34686,7 +34754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43272</v>
       </c>
@@ -34734,7 +34802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43273</v>
       </c>
@@ -34782,7 +34850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43274</v>
       </c>
@@ -34830,7 +34898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43275</v>
       </c>
@@ -34878,7 +34946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43276</v>
       </c>
@@ -34926,7 +34994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43277</v>
       </c>
@@ -34975,7 +35043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43278</v>
       </c>
@@ -35023,7 +35091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43279</v>
       </c>
@@ -35071,7 +35139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43280</v>
       </c>
@@ -35119,7 +35187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43281</v>
       </c>
@@ -35167,7 +35235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="89" t="s">
         <v>26</v>
       </c>
@@ -35216,235 +35284,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -35469,9 +35537,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="101">
         <v>43282</v>
       </c>
@@ -35509,7 +35577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="97">
         <v>43283</v>
       </c>
@@ -35547,7 +35615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="101">
         <v>43284</v>
       </c>
@@ -35585,7 +35653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="97">
         <v>43285</v>
       </c>
@@ -35623,7 +35691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="101">
         <v>43286</v>
       </c>
@@ -35661,7 +35729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="97">
         <v>43287</v>
       </c>
@@ -35699,7 +35767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="101">
         <v>43288</v>
       </c>
@@ -35737,7 +35805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="97">
         <v>43289</v>
       </c>
@@ -35775,7 +35843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="101">
         <v>43290</v>
       </c>
@@ -35813,7 +35881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="97">
         <v>43291</v>
       </c>
@@ -35851,7 +35919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="101">
         <v>43292</v>
       </c>
@@ -35889,7 +35957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="97">
         <v>43293</v>
       </c>
@@ -35927,7 +35995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="101">
         <v>43294</v>
       </c>
@@ -35965,7 +36033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="97">
         <v>43295</v>
       </c>
@@ -36003,7 +36071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="101">
         <v>43296</v>
       </c>
@@ -36041,7 +36109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="97">
         <v>43297</v>
       </c>
@@ -36079,7 +36147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="101">
         <v>43298</v>
       </c>
@@ -36117,7 +36185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="97">
         <v>43299</v>
       </c>
@@ -36155,7 +36223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="101">
         <v>43300</v>
       </c>
@@ -36193,7 +36261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="97">
         <v>43301</v>
       </c>
@@ -36231,7 +36299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="101">
         <v>43302</v>
       </c>
@@ -36269,7 +36337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="97">
         <v>43303</v>
       </c>
@@ -36307,7 +36375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="101">
         <v>43304</v>
       </c>
@@ -36345,7 +36413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="97">
         <v>43305</v>
       </c>
@@ -36383,7 +36451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="101">
         <v>43306</v>
       </c>
@@ -36421,7 +36489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="97">
         <v>43307</v>
       </c>
@@ -36459,7 +36527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="101">
         <v>43308</v>
       </c>
@@ -36497,7 +36565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="97">
         <v>43309</v>
       </c>
@@ -36535,7 +36603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="101">
         <v>43310</v>
       </c>
@@ -36573,7 +36641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="97">
         <v>43311</v>
       </c>
@@ -36611,7 +36679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="101">
         <v>43312</v>
       </c>
@@ -36649,7 +36717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="24.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>26</v>
       </c>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB23C94E-5DB9-4A8E-8E63-6B502CEF2ACB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063F6B4-4F4C-E54D-B7C5-82B85B7C1D7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3120" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="5580" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,13 @@
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -857,14 +864,289 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
-    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="98">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2462,281 +2744,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2834,7 +2841,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2913,60 +2920,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$241:$B$247</c:f>
+              <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43325</c:v>
+                  <c:v>43332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43326</c:v>
+                  <c:v>43333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43327</c:v>
+                  <c:v>43334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43328</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43329</c:v>
+                  <c:v>43336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43330</c:v>
+                  <c:v>43337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43331</c:v>
+                  <c:v>43338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$C$241:$C$247</c:f>
+              <c:f>WASSPerformance!$C$248:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4329</c:v>
+                  <c:v>5475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3937</c:v>
+                  <c:v>4801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4204</c:v>
+                  <c:v>6818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3825</c:v>
+                  <c:v>4859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2212</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1173</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>420</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,60 +3002,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$241:$B$247</c:f>
+              <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43325</c:v>
+                  <c:v>43332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43326</c:v>
+                  <c:v>43333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43327</c:v>
+                  <c:v>43334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43328</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43329</c:v>
+                  <c:v>43336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43330</c:v>
+                  <c:v>43337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43331</c:v>
+                  <c:v>43338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$D$241:$D$247</c:f>
+              <c:f>WASSPerformance!$D$248:$D$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2530</c:v>
+                  <c:v>4522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2115</c:v>
+                  <c:v>3992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3007</c:v>
+                  <c:v>4971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>181</c:v>
+                  <c:v>3846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,60 +3075,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$241:$B$247</c:f>
+              <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43325</c:v>
+                  <c:v>43332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43326</c:v>
+                  <c:v>43333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43327</c:v>
+                  <c:v>43334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43328</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43329</c:v>
+                  <c:v>43336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43330</c:v>
+                  <c:v>43337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43331</c:v>
+                  <c:v>43338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$F$241:$F$247</c:f>
+              <c:f>WASSPerformance!$F$248:$F$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1603</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1621</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1001</c:v>
+                  <c:v>1638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,37 +3148,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$241:$B$247</c:f>
+              <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43325</c:v>
+                  <c:v>43332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43326</c:v>
+                  <c:v>43333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43327</c:v>
+                  <c:v>43334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43328</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43329</c:v>
+                  <c:v>43336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43330</c:v>
+                  <c:v>43337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43331</c:v>
+                  <c:v>43338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$H$241:$H$247</c:f>
+              <c:f>WASSPerformance!$H$248:$H$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3203,15 +3192,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3243,60 +3223,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$241:$B$247</c:f>
+              <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43325</c:v>
+                  <c:v>43332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43326</c:v>
+                  <c:v>43333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43327</c:v>
+                  <c:v>43334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43328</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43329</c:v>
+                  <c:v>43336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43330</c:v>
+                  <c:v>43337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43331</c:v>
+                  <c:v>43338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$J$241:$J$247</c:f>
+              <c:f>WASSPerformance!$J$248:$J$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>196</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>199</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,37 +3298,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$241:$B$247</c:f>
+              <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43325</c:v>
+                  <c:v>43332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43326</c:v>
+                  <c:v>43333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43327</c:v>
+                  <c:v>43334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43328</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43329</c:v>
+                  <c:v>43336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43330</c:v>
+                  <c:v>43337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43331</c:v>
+                  <c:v>43338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$L$241:$L$247</c:f>
+              <c:f>WASSPerformance!$L$248:$L$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3371,15 +3342,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3412,7 +3374,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3446,7 +3408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3504,7 +3466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3546,7 +3508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3585,7 +3547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3615,7 +3577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3629,7 +3591,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3713,7 +3675,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3924,7 +3886,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4135,7 +4097,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4346,7 +4308,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4559,7 +4521,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4772,7 +4734,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4981,7 +4943,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5015,7 +4977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5073,7 +5035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5115,7 +5077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5154,7 +5116,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5184,7 +5146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5198,7 +5160,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5282,7 +5244,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5511,7 +5473,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5740,7 +5702,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5969,7 +5931,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6200,7 +6162,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6431,7 +6393,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6658,7 +6620,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6692,7 +6654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6750,7 +6712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6792,7 +6754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6831,7 +6793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6861,7 +6823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6875,7 +6837,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6959,7 +6921,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7182,7 +7144,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7405,7 +7367,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7628,7 +7590,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7853,7 +7815,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8078,7 +8040,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8299,7 +8261,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8333,7 +8295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8391,7 +8353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8433,7 +8395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8472,7 +8434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8502,7 +8464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8516,7 +8478,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8600,7 +8562,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8829,7 +8791,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9058,7 +9020,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9287,7 +9249,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9518,7 +9480,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9749,7 +9711,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9976,7 +9938,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10010,7 +9972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10068,7 +10030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10110,7 +10072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10149,7 +10111,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10179,7 +10141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10193,7 +10155,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10277,7 +10239,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10500,7 +10462,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10723,7 +10685,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10946,7 +10908,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11171,7 +11133,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11396,7 +11358,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11617,7 +11579,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11651,7 +11613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11709,7 +11671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11751,7 +11713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11790,7 +11752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11820,7 +11782,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11834,7 +11796,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11915,7 +11877,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12141,7 +12103,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12367,7 +12329,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12593,7 +12555,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12821,7 +12783,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13049,7 +13011,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13276,7 +13238,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13310,7 +13272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13368,7 +13330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13410,7 +13372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13449,7 +13411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13479,7 +13441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13496,13 +13458,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>866774</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13790,8 +13752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M248" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
-  <autoFilter ref="B16:M247" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M255" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
+  <autoFilter ref="B16:M254" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -13802,49 +13764,49 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="90">
-      <totalsRowFormula>SUM(C241:C247)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(C248:C254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="89">
-      <totalsRowFormula>SUM(D241:D247)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(D248:D254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="88">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E241:E247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E248:E254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="87">
-      <totalsRowFormula>SUM(F241:F247)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(F248:F254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G241:G247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G248:G254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="85">
-      <totalsRowFormula>SUM(H241:H247)</totalsRowFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(H248:H254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="84">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I241:I247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I248:I254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="83">
-      <totalsRowFormula>SUM(J241:J247)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(J248:J254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="82">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K241:K247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K248:K254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="81">
-      <totalsRowFormula>SUM(L241:L247)</totalsRowFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(L248:L254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="80">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M241:M247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M248:M254)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13852,7 +13814,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -13864,46 +13826,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="74">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="86">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="73">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="72">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="84">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Complete]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="71">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="70">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Failed]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="69">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="80">
       <calculatedColumnFormula>Tabla18203[Transactions 
 In_Prog]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="67">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="66">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="78">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Timeout]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="65">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="64">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="76">
       <calculatedColumnFormula>Tabla18203[Transactions
 Trans Fail]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -13914,7 +13876,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <autoFilter ref="B16:M48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -13926,46 +13888,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="58">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="70">
       <totalsRowFormula>SUM(C42:C48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
       <totalsRowFormula>SUM(D42:D48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="56">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="68">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Complete]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="55">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
       <totalsRowFormula>SUM(F42:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="54">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="66">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Failed]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="53">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
       <totalsRowFormula>SUM(H42:H48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="64">
       <calculatedColumnFormula>Tabla18204[Transactions 
 In_Prog]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="51">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
       <totalsRowFormula>SUM(J42:J48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="50">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="62">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Timeout]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="49">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
       <totalsRowFormula>SUM(L42:L48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="48">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="60">
       <calculatedColumnFormula>Tabla18204[Transactions
 Trans Fail]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M48)</totalsRowFormula>
@@ -13976,7 +13938,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -13988,46 +13950,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="42">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="54">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="41">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="40">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Complete]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="39">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="50">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Failed]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="36">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="48">
       <calculatedColumnFormula>Tabla18205[Transactions 
 In_Prog]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="34">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="46">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Timeout]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="33">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="32">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="44">
       <calculatedColumnFormula>Tabla18205[Transactions
 Trans Fail]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14038,7 +14000,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -14050,46 +14012,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="25">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="24">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Complete]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="23">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="34">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Failed]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="21">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabla18206[Transactions 
 In_Prog]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="30">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Timeout]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla18206[Transactions
 Trans Fail]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -14100,7 +14062,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -14112,46 +14074,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Complete]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Failed]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="16">
       <calculatedColumnFormula>Tabla18207[Transactions 
 In_Prog]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Timeout]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabla18207[Transactions
 Trans Fail]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14461,38 +14423,38 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:M325"/>
+  <dimension ref="B1:M332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241:M248"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L251" sqref="L251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14501,12 +14463,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -14515,50 +14477,50 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>886553.03</v>
+        <v>908506.06</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>756968</v>
+        <v>774299</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.853832736886591</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.85227719889947673</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>106549</v>
+        <v>110314</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.12018344802228018</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.12142351587616267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -14568,23 +14530,23 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.3838923318552078E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.3021243688787281E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>23017</v>
+        <v>23874</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.5962349934103773E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2.6278305727536918E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -14597,17 +14559,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>886537</v>
+        <v>908490</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -14623,33 +14585,33 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>886553.03</v>
+        <v>908506.06</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>756968</v>
+        <v>774299</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.7961145241391393</v>
+        <v>0.78605254167979433</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>106549</v>
+        <v>110314</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.14376861783880265</v>
+        <v>0.14232243516674539</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14659,17 +14621,17 @@
       <c r="I15" s="15">
         <f>AVERAGE(Tabla1820[%
 In_Prog])</f>
-        <v>3.9275397163298251E-6</v>
+        <v>3.8120238423201238E-6</v>
       </c>
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>23017</v>
+        <v>23874</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.7081167651677649E-2</v>
+        <v>4.6367693424225434E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -14682,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -14720,7 +14682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>43101</v>
       </c>
@@ -14768,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>43102</v>
       </c>
@@ -14816,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>43103</v>
       </c>
@@ -14864,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22">
         <v>43104</v>
       </c>
@@ -14912,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="22">
         <v>43105</v>
       </c>
@@ -14960,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22">
         <v>43106</v>
       </c>
@@ -15008,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22">
         <v>43107</v>
       </c>
@@ -15056,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27">
         <v>43108</v>
       </c>
@@ -15104,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27">
         <v>43109</v>
       </c>
@@ -15152,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
         <v>43110</v>
       </c>
@@ -15200,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27">
         <v>43111</v>
       </c>
@@ -15248,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27">
         <v>43112</v>
       </c>
@@ -15296,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27">
         <v>43113</v>
       </c>
@@ -15344,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27">
         <v>43114</v>
       </c>
@@ -15392,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27">
         <v>43115</v>
       </c>
@@ -15440,7 +15402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27">
         <v>43116</v>
       </c>
@@ -15488,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27">
         <v>43117</v>
       </c>
@@ -15536,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>43118</v>
       </c>
@@ -15584,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27">
         <v>43119</v>
       </c>
@@ -15632,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27">
         <v>43120</v>
       </c>
@@ -15680,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27">
         <v>43121</v>
       </c>
@@ -15728,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43122</v>
       </c>
@@ -15776,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43123</v>
       </c>
@@ -15824,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43124</v>
       </c>
@@ -15872,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43125</v>
       </c>
@@ -15920,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43126</v>
       </c>
@@ -15968,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43127</v>
       </c>
@@ -16016,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43128</v>
       </c>
@@ -16064,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43129</v>
       </c>
@@ -16112,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43130</v>
       </c>
@@ -16160,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <v>43131</v>
       </c>
@@ -16208,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
         <v>43132</v>
       </c>
@@ -16256,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
         <v>43133</v>
       </c>
@@ -16304,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
         <v>43134</v>
       </c>
@@ -16352,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="37">
         <v>43135</v>
       </c>
@@ -16400,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
         <v>43136</v>
       </c>
@@ -16448,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
         <v>43137</v>
       </c>
@@ -16496,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="37">
         <v>43138</v>
       </c>
@@ -16544,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="37">
         <v>43139</v>
       </c>
@@ -16592,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
         <v>43140</v>
       </c>
@@ -16640,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="37">
         <v>43141</v>
       </c>
@@ -16688,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="37">
         <v>43142</v>
       </c>
@@ -16736,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="37">
         <v>43143</v>
       </c>
@@ -16784,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="37">
         <v>43144</v>
       </c>
@@ -16832,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="37">
         <v>43145</v>
       </c>
@@ -16880,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="37">
         <v>43146</v>
       </c>
@@ -16928,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="37">
         <v>43147</v>
       </c>
@@ -16976,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="37">
         <v>43148</v>
       </c>
@@ -17024,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="37">
         <v>43149</v>
       </c>
@@ -17072,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="37">
         <v>43150</v>
       </c>
@@ -17120,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="37">
         <v>43151</v>
       </c>
@@ -17168,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="37">
         <v>43152</v>
       </c>
@@ -17216,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="37">
         <v>43153</v>
       </c>
@@ -17264,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="37">
         <v>43154</v>
       </c>
@@ -17312,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="37">
         <v>43155</v>
       </c>
@@ -17360,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="37">
         <v>43156</v>
       </c>
@@ -17408,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37">
         <v>43157</v>
       </c>
@@ -17456,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="37">
         <v>43158</v>
       </c>
@@ -17504,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37">
         <v>43159</v>
       </c>
@@ -17552,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="37">
         <v>43160</v>
       </c>
@@ -17600,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="37">
         <v>43161</v>
       </c>
@@ -17648,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="37">
         <v>43162</v>
       </c>
@@ -17696,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="37">
         <v>43163</v>
       </c>
@@ -17744,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="37">
         <v>43164</v>
       </c>
@@ -17792,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37">
         <v>43165</v>
       </c>
@@ -17840,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="37">
         <v>43166</v>
       </c>
@@ -17888,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37">
         <v>43167</v>
       </c>
@@ -17936,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="37">
         <v>43168</v>
       </c>
@@ -17984,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="37">
         <v>43169</v>
       </c>
@@ -18032,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="37">
         <v>43170</v>
       </c>
@@ -18080,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="37">
         <v>43171</v>
       </c>
@@ -18128,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="37">
         <v>43172</v>
       </c>
@@ -18176,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37">
         <v>43173</v>
       </c>
@@ -18224,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="37">
         <v>43174</v>
       </c>
@@ -18272,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="37">
         <v>43175</v>
       </c>
@@ -18320,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="37">
         <v>43176</v>
       </c>
@@ -18368,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="37">
         <v>43177</v>
       </c>
@@ -18416,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
         <v>43178</v>
       </c>
@@ -18464,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="43">
         <v>43179</v>
       </c>
@@ -18512,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="43">
         <v>43180</v>
       </c>
@@ -18560,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="43">
         <v>43181</v>
       </c>
@@ -18608,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="43">
         <v>43182</v>
       </c>
@@ -18656,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="43">
         <v>43183</v>
       </c>
@@ -18704,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="43">
         <v>43184</v>
       </c>
@@ -18752,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="43">
         <v>43185</v>
       </c>
@@ -18800,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="43">
         <v>43186</v>
       </c>
@@ -18848,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="43">
         <v>43187</v>
       </c>
@@ -18896,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="43">
         <v>43188</v>
       </c>
@@ -18944,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="43">
         <v>43189</v>
       </c>
@@ -18992,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="43">
         <v>43190</v>
       </c>
@@ -19040,7 +19002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="43">
         <v>43191</v>
       </c>
@@ -19088,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="43">
         <v>43192</v>
       </c>
@@ -19136,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="43">
         <v>43193</v>
       </c>
@@ -19184,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="43">
         <v>43194</v>
       </c>
@@ -19232,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="43">
         <v>43195</v>
       </c>
@@ -19280,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="43">
         <v>43196</v>
       </c>
@@ -19328,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="43">
         <v>43197</v>
       </c>
@@ -19376,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="43">
         <v>43198</v>
       </c>
@@ -19424,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="43">
         <v>43199</v>
       </c>
@@ -19472,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="43">
         <v>43200</v>
       </c>
@@ -19520,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="43">
         <v>43201</v>
       </c>
@@ -19568,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="43">
         <v>43202</v>
       </c>
@@ -19616,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="43">
         <v>43203</v>
       </c>
@@ -19664,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="43">
         <v>43204</v>
       </c>
@@ -19712,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="43">
         <v>43205</v>
       </c>
@@ -19760,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="43">
         <v>43206</v>
       </c>
@@ -19808,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="43">
         <v>43207</v>
       </c>
@@ -19856,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="43">
         <v>43208</v>
       </c>
@@ -19904,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="43">
         <v>43209</v>
       </c>
@@ -19952,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="43">
         <v>43210</v>
       </c>
@@ -20000,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="43">
         <v>43211</v>
       </c>
@@ -20048,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="43">
         <v>43212</v>
       </c>
@@ -20096,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="43">
         <v>43213</v>
       </c>
@@ -20144,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="43">
         <v>43214</v>
       </c>
@@ -20192,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="43">
         <v>43215</v>
       </c>
@@ -20240,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="43">
         <v>43216</v>
       </c>
@@ -20288,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="43">
         <v>43217</v>
       </c>
@@ -20336,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="43">
         <v>43218</v>
       </c>
@@ -20384,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="43">
         <v>43219</v>
       </c>
@@ -20432,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="43">
         <v>43220</v>
       </c>
@@ -20480,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="43">
         <v>43221</v>
       </c>
@@ -20528,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="43">
         <v>43222</v>
       </c>
@@ -20576,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="43">
         <v>43223</v>
       </c>
@@ -20624,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="43">
         <v>43224</v>
       </c>
@@ -20672,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="43">
         <v>43225</v>
       </c>
@@ -20720,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="51">
         <v>43226</v>
       </c>
@@ -20768,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="51">
         <v>43227</v>
       </c>
@@ -20816,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="51">
         <v>43228</v>
       </c>
@@ -20864,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="51">
         <v>43229</v>
       </c>
@@ -20912,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="51">
         <v>43230</v>
       </c>
@@ -20960,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="51">
         <v>43231</v>
       </c>
@@ -21008,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="51">
         <v>43232</v>
       </c>
@@ -21056,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="43">
         <v>43233</v>
       </c>
@@ -21104,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="37">
         <v>43234</v>
       </c>
@@ -21152,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="37">
         <v>43235</v>
       </c>
@@ -21200,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="37">
         <v>43236</v>
       </c>
@@ -21248,7 +21210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="37">
         <v>43237</v>
       </c>
@@ -21296,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="37">
         <v>43238</v>
       </c>
@@ -21344,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="37">
         <v>43239</v>
       </c>
@@ -21392,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="37">
         <v>43240</v>
       </c>
@@ -21440,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="37">
         <v>43241</v>
       </c>
@@ -21488,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="37">
         <v>43242</v>
       </c>
@@ -21536,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="37">
         <v>43243</v>
       </c>
@@ -21584,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="37">
         <v>43244</v>
       </c>
@@ -21632,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="37">
         <v>43245</v>
       </c>
@@ -21680,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="37">
         <v>43246</v>
       </c>
@@ -21728,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="37">
         <v>43247</v>
       </c>
@@ -21776,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="37">
         <v>43248</v>
       </c>
@@ -21824,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="37">
         <v>43249</v>
       </c>
@@ -21872,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="37">
         <v>43250</v>
       </c>
@@ -21920,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="37">
         <v>43251</v>
       </c>
@@ -21968,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="37">
         <v>43252</v>
       </c>
@@ -22016,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="37">
         <v>43253</v>
       </c>
@@ -22064,7 +22026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="37">
         <v>43254</v>
       </c>
@@ -22112,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="37">
         <v>43255</v>
       </c>
@@ -22160,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="37">
         <v>43256</v>
       </c>
@@ -22208,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="37">
         <v>43257</v>
       </c>
@@ -22256,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="37">
         <v>43258</v>
       </c>
@@ -22304,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="37">
         <v>43259</v>
       </c>
@@ -22352,7 +22314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="37">
         <v>43260</v>
       </c>
@@ -22400,7 +22362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="37">
         <v>43261</v>
       </c>
@@ -22448,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="37">
         <v>43262</v>
       </c>
@@ -22496,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="37">
         <v>43263</v>
       </c>
@@ -22544,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="37">
         <v>43264</v>
       </c>
@@ -22592,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="37">
         <v>43265</v>
       </c>
@@ -22640,7 +22602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="37">
         <v>43266</v>
       </c>
@@ -22688,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="37">
         <v>43267</v>
       </c>
@@ -22736,7 +22698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="37">
         <v>43268</v>
       </c>
@@ -22784,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="37">
         <v>43269</v>
       </c>
@@ -22832,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="37">
         <v>43270</v>
       </c>
@@ -22880,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="37">
         <v>43271</v>
       </c>
@@ -22928,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="37">
         <v>43272</v>
       </c>
@@ -22976,7 +22938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="37">
         <v>43273</v>
       </c>
@@ -23024,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="37">
         <v>43274</v>
       </c>
@@ -23072,7 +23034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="37">
         <v>43275</v>
       </c>
@@ -23120,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="37">
         <v>43276</v>
       </c>
@@ -23168,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="37">
         <v>43277</v>
       </c>
@@ -23200,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="87">
-        <f t="shared" ref="J193" si="0">A818</f>
+        <f t="shared" ref="J193" si="0">A825</f>
         <v>0</v>
       </c>
       <c r="K193" s="24">
@@ -23217,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="37">
         <v>43278</v>
       </c>
@@ -23265,7 +23227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="37">
         <v>43279</v>
       </c>
@@ -23313,7 +23275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="37">
         <v>43280</v>
       </c>
@@ -23361,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="37">
         <v>43281</v>
       </c>
@@ -23409,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="37">
         <v>43282</v>
       </c>
@@ -23457,7 +23419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="37">
         <v>43283</v>
       </c>
@@ -23505,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="37">
         <v>43284</v>
       </c>
@@ -23553,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="37">
         <v>43285</v>
       </c>
@@ -23601,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="37">
         <v>43286</v>
       </c>
@@ -23649,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="37">
         <v>43287</v>
       </c>
@@ -23697,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="37">
         <v>43288</v>
       </c>
@@ -23745,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="37">
         <v>43289</v>
       </c>
@@ -23793,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="37">
         <v>43290</v>
       </c>
@@ -23841,7 +23803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="37">
         <v>43291</v>
       </c>
@@ -23889,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="37">
         <v>43292</v>
       </c>
@@ -23937,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="37">
         <v>43293</v>
       </c>
@@ -23985,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="37">
         <v>43294</v>
       </c>
@@ -24033,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="37">
         <v>43295</v>
       </c>
@@ -24081,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="37">
         <v>43296</v>
       </c>
@@ -24129,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="37">
         <v>43297</v>
       </c>
@@ -24177,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="37">
         <v>43298</v>
       </c>
@@ -24225,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="37">
         <v>43299</v>
       </c>
@@ -24273,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="37">
         <v>43300</v>
       </c>
@@ -24321,7 +24283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="37">
         <v>43301</v>
       </c>
@@ -24369,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="37">
         <v>43302</v>
       </c>
@@ -24417,7 +24379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="37">
         <v>43303</v>
       </c>
@@ -24465,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="37">
         <v>43304</v>
       </c>
@@ -24513,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="37">
         <v>43305</v>
       </c>
@@ -24561,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="37">
         <v>43306</v>
       </c>
@@ -24609,7 +24571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="37">
         <v>43307</v>
       </c>
@@ -24657,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="37">
         <v>43308</v>
       </c>
@@ -24705,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="37">
         <v>43309</v>
       </c>
@@ -24753,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="37">
         <v>43310</v>
       </c>
@@ -24801,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24849,7 +24811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24897,7 +24859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24945,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24993,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -25041,7 +25003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25089,7 +25051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25137,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="37">
         <v>43318</v>
       </c>
@@ -25185,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="37">
         <v>43319</v>
       </c>
@@ -25233,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="37">
         <v>43320</v>
       </c>
@@ -25281,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="37">
         <v>43321</v>
       </c>
@@ -25329,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="37">
         <v>43322</v>
       </c>
@@ -25377,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="37">
         <v>43323</v>
       </c>
@@ -25425,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="37">
         <v>43324</v>
       </c>
@@ -25473,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="37">
         <v>43325</v>
       </c>
@@ -25521,7 +25483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" s="37">
         <v>43326</v>
       </c>
@@ -25569,7 +25531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" s="37">
         <v>43327</v>
       </c>
@@ -25617,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="37">
         <v>43328</v>
       </c>
@@ -25665,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="37">
         <v>43329</v>
       </c>
@@ -25713,7 +25675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" s="37">
         <v>43330</v>
       </c>
@@ -25761,7 +25723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" s="37">
         <v>43331</v>
       </c>
@@ -25809,285 +25771,591 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="B248" s="38" t="s">
+    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="37">
+        <v>43332</v>
+      </c>
+      <c r="C248" s="93">
+        <v>5475</v>
+      </c>
+      <c r="D248" s="87">
+        <v>4522</v>
+      </c>
+      <c r="E248" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.82593607305936068</v>
+      </c>
+      <c r="F248" s="87">
+        <v>746</v>
+      </c>
+      <c r="G248" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.13625570776255708</v>
+      </c>
+      <c r="H248" s="34">
+        <v>0</v>
+      </c>
+      <c r="I248" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J248" s="87">
+        <v>207</v>
+      </c>
+      <c r="K248" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>3.7808219178082192E-2</v>
+      </c>
+      <c r="L248" s="34">
+        <v>0</v>
+      </c>
+      <c r="M248" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="37">
+        <v>43333</v>
+      </c>
+      <c r="C249" s="93">
+        <v>4801</v>
+      </c>
+      <c r="D249" s="87">
+        <v>3992</v>
+      </c>
+      <c r="E249" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.83149343886690275</v>
+      </c>
+      <c r="F249" s="87">
+        <v>592</v>
+      </c>
+      <c r="G249" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.12330764424078317</v>
+      </c>
+      <c r="H249" s="34">
+        <v>0</v>
+      </c>
+      <c r="I249" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J249" s="87">
+        <v>217</v>
+      </c>
+      <c r="K249" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>4.5198916892314103E-2</v>
+      </c>
+      <c r="L249" s="34">
+        <v>0</v>
+      </c>
+      <c r="M249" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="37">
+        <v>43334</v>
+      </c>
+      <c r="C250" s="93">
+        <v>6818</v>
+      </c>
+      <c r="D250" s="87">
+        <v>4971</v>
+      </c>
+      <c r="E250" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.72909944265180404</v>
+      </c>
+      <c r="F250" s="87">
+        <v>1638</v>
+      </c>
+      <c r="G250" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.2402464065708419</v>
+      </c>
+      <c r="H250" s="34">
+        <v>0</v>
+      </c>
+      <c r="I250" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J250" s="87">
+        <v>209</v>
+      </c>
+      <c r="K250" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>3.0654150777354061E-2</v>
+      </c>
+      <c r="L250" s="34">
+        <v>0</v>
+      </c>
+      <c r="M250" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="37">
+        <v>43335</v>
+      </c>
+      <c r="C251" s="93">
+        <v>4859</v>
+      </c>
+      <c r="D251" s="87">
+        <v>3846</v>
+      </c>
+      <c r="E251" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.7915208890718255</v>
+      </c>
+      <c r="F251" s="87">
+        <v>789</v>
+      </c>
+      <c r="G251" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.1623790903478082</v>
+      </c>
+      <c r="H251" s="34">
+        <v>0</v>
+      </c>
+      <c r="I251" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J251" s="87">
+        <v>224</v>
+      </c>
+      <c r="K251" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>4.610002058036633E-2</v>
+      </c>
+      <c r="L251" s="34">
+        <v>0</v>
+      </c>
+      <c r="M251" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="37">
+        <v>43336</v>
+      </c>
+      <c r="C252" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D252" s="87"/>
+      <c r="E252" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F252" s="87"/>
+      <c r="G252" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H252" s="34"/>
+      <c r="I252" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J252" s="87"/>
+      <c r="K252" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L252" s="34"/>
+      <c r="M252" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="37">
+        <v>43337</v>
+      </c>
+      <c r="C253" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D253" s="87"/>
+      <c r="E253" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F253" s="87"/>
+      <c r="G253" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H253" s="34"/>
+      <c r="I253" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="87"/>
+      <c r="K253" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L253" s="34"/>
+      <c r="M253" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="37">
+        <v>43338</v>
+      </c>
+      <c r="C254" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D254" s="87"/>
+      <c r="E254" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F254" s="87"/>
+      <c r="G254" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H254" s="34"/>
+      <c r="I254" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="87"/>
+      <c r="K254" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L254" s="34"/>
+      <c r="M254" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="B255" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C248" s="39">
-        <f>SUM(C241:C247)</f>
-        <v>20100</v>
-      </c>
-      <c r="D248" s="39">
-        <f>SUM(D241:D247)</f>
-        <v>13312</v>
-      </c>
-      <c r="E248" s="94">
-        <f>AVERAGE(E241:E247)</f>
-        <v>0.63572912444730167</v>
-      </c>
-      <c r="F248" s="39">
-        <f>SUM(F241:F247)</f>
-        <v>5405</v>
-      </c>
-      <c r="G248" s="94">
-        <f>AVERAGE(G241:G247)</f>
-        <v>0.23203493261833699</v>
-      </c>
-      <c r="H248" s="39">
-        <f>SUM(H241:H247)</f>
-        <v>0</v>
-      </c>
-      <c r="I248" s="94">
-        <f>AVERAGE(I241:I247)</f>
-        <v>0</v>
-      </c>
-      <c r="J248" s="39">
-        <f>SUM(J241:J247)</f>
-        <v>1383</v>
-      </c>
-      <c r="K248" s="94">
-        <f>AVERAGE(K241:K247)</f>
-        <v>0.13223594293436136</v>
-      </c>
-      <c r="L248" s="39">
-        <f>SUM(L241:L247)</f>
-        <v>0</v>
-      </c>
-      <c r="M248" s="94">
-        <f>AVERAGE(M241:M247)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D249" s="1"/>
-    </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D250" s="1"/>
-    </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D251" s="1"/>
-    </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D252" s="1"/>
-    </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D253" s="1"/>
-    </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D254" s="1"/>
-    </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D255" s="1"/>
-    </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C255" s="39">
+        <f>SUM(C248:C254)</f>
+        <v>21953.029999999995</v>
+      </c>
+      <c r="D255" s="39">
+        <f>SUM(D248:D254)</f>
+        <v>17331</v>
+      </c>
+      <c r="E255" s="94">
+        <f>AVERAGE(E248:E254)</f>
+        <v>0.45400712052141323</v>
+      </c>
+      <c r="F255" s="39">
+        <f>SUM(F248:F254)</f>
+        <v>3765</v>
+      </c>
+      <c r="G255" s="94">
+        <f>AVERAGE(G248:G254)</f>
+        <v>9.4598406988855771E-2</v>
+      </c>
+      <c r="H255" s="39">
+        <f>SUM(H248:H254)</f>
+        <v>0</v>
+      </c>
+      <c r="I255" s="94">
+        <f>AVERAGE(I248:I254)</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="39">
+        <f>SUM(J248:J254)</f>
+        <v>857</v>
+      </c>
+      <c r="K255" s="94">
+        <f>AVERAGE(K248:K254)</f>
+        <v>2.2823043918302383E-2</v>
+      </c>
+      <c r="L255" s="39">
+        <f>SUM(L248:L254)</f>
+        <v>0</v>
+      </c>
+      <c r="M255" s="94">
+        <f>AVERAGE(M248:M254)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D332" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26114,32 +26382,32 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -26148,12 +26416,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="42"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -26162,14 +26430,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -26179,7 +26447,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -26192,7 +26460,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -26205,7 +26473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -26222,7 +26490,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -26235,7 +26503,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -26248,7 +26516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -26258,7 +26526,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -26274,7 +26542,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -26323,7 +26591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -26361,7 +26629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43132</v>
       </c>
@@ -26404,7 +26672,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43133</v>
       </c>
@@ -26447,7 +26715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43134</v>
       </c>
@@ -26490,7 +26758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43135</v>
       </c>
@@ -26533,7 +26801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43136</v>
       </c>
@@ -26576,7 +26844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43137</v>
       </c>
@@ -26619,7 +26887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43138</v>
       </c>
@@ -26662,7 +26930,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43139</v>
       </c>
@@ -26705,7 +26973,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43140</v>
       </c>
@@ -26748,7 +27016,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43141</v>
       </c>
@@ -26791,7 +27059,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43142</v>
       </c>
@@ -26834,7 +27102,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43143</v>
       </c>
@@ -26877,7 +27145,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43144</v>
       </c>
@@ -26920,7 +27188,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43145</v>
       </c>
@@ -26963,7 +27231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43146</v>
       </c>
@@ -27006,7 +27274,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43147</v>
       </c>
@@ -27049,7 +27317,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43148</v>
       </c>
@@ -27092,7 +27360,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43149</v>
       </c>
@@ -27135,7 +27403,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43150</v>
       </c>
@@ -27178,7 +27446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43151</v>
       </c>
@@ -27221,7 +27489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43152</v>
       </c>
@@ -27264,7 +27532,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43153</v>
       </c>
@@ -27307,7 +27575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43154</v>
       </c>
@@ -27350,7 +27618,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43155</v>
       </c>
@@ -27393,7 +27661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43156</v>
       </c>
@@ -27436,7 +27704,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43157</v>
       </c>
@@ -27479,7 +27747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43158</v>
       </c>
@@ -27522,7 +27790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43159</v>
       </c>
@@ -27565,7 +27833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
@@ -27614,238 +27882,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
   </sheetData>
@@ -27873,32 +28141,32 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -27907,12 +28175,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="46"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -27921,14 +28189,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -27938,7 +28206,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -27951,7 +28219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -27964,7 +28232,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -27981,7 +28249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -27994,7 +28262,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -28007,7 +28275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -28017,7 +28285,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -28033,7 +28301,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -28082,7 +28350,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -28120,7 +28388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43160</v>
       </c>
@@ -28163,7 +28431,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43161</v>
       </c>
@@ -28206,7 +28474,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43162</v>
       </c>
@@ -28249,7 +28517,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43163</v>
       </c>
@@ -28292,7 +28560,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43164</v>
       </c>
@@ -28335,7 +28603,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43165</v>
       </c>
@@ -28378,7 +28646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43166</v>
       </c>
@@ -28421,7 +28689,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43167</v>
       </c>
@@ -28464,7 +28732,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43168</v>
       </c>
@@ -28507,7 +28775,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43169</v>
       </c>
@@ -28550,7 +28818,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43170</v>
       </c>
@@ -28593,7 +28861,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43171</v>
       </c>
@@ -28636,7 +28904,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43172</v>
       </c>
@@ -28679,7 +28947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43173</v>
       </c>
@@ -28722,7 +28990,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43174</v>
       </c>
@@ -28765,7 +29033,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43175</v>
       </c>
@@ -28808,7 +29076,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43176</v>
       </c>
@@ -28851,7 +29119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43177</v>
       </c>
@@ -28894,7 +29162,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="43">
         <v>43178</v>
       </c>
@@ -28937,7 +29205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43">
         <v>43179</v>
       </c>
@@ -28980,7 +29248,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43">
         <v>43180</v>
       </c>
@@ -29023,7 +29291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43">
         <v>43181</v>
       </c>
@@ -29066,7 +29334,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="43">
         <v>43182</v>
       </c>
@@ -29109,7 +29377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="43">
         <v>43183</v>
       </c>
@@ -29152,7 +29420,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="43">
         <v>43184</v>
       </c>
@@ -29195,7 +29463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="43">
         <v>43185</v>
       </c>
@@ -29238,7 +29506,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="43">
         <v>43186</v>
       </c>
@@ -29281,7 +29549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="43">
         <v>43187</v>
       </c>
@@ -29324,7 +29592,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43">
         <v>43188</v>
       </c>
@@ -29367,7 +29635,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="43">
         <v>43189</v>
       </c>
@@ -29410,7 +29678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="43">
         <v>43190</v>
       </c>
@@ -29453,7 +29721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="43">
         <v>43191</v>
       </c>
@@ -29496,7 +29764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B49" s="44" t="s">
         <v>26</v>
       </c>
@@ -29545,238 +29813,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
     </row>
   </sheetData>
@@ -29804,32 +30072,32 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -29838,12 +30106,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -29852,14 +30120,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -29869,7 +30137,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -29882,7 +30150,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -29895,7 +30163,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -29912,7 +30180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -29925,7 +30193,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -29938,7 +30206,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -29948,7 +30216,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -29964,7 +30232,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -30013,7 +30281,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -30051,7 +30319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43">
         <v>43191</v>
       </c>
@@ -30094,7 +30362,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43">
         <v>43192</v>
       </c>
@@ -30137,7 +30405,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>43193</v>
       </c>
@@ -30180,7 +30448,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="43">
         <v>43194</v>
       </c>
@@ -30223,7 +30491,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="43">
         <v>43195</v>
       </c>
@@ -30266,7 +30534,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="43">
         <v>43196</v>
       </c>
@@ -30309,7 +30577,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="43">
         <v>43197</v>
       </c>
@@ -30352,7 +30620,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="43">
         <v>43198</v>
       </c>
@@ -30395,7 +30663,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="43">
         <v>43199</v>
       </c>
@@ -30438,7 +30706,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="43">
         <v>43200</v>
       </c>
@@ -30481,7 +30749,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="43">
         <v>43201</v>
       </c>
@@ -30524,7 +30792,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="43">
         <v>43202</v>
       </c>
@@ -30567,7 +30835,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43">
         <v>43203</v>
       </c>
@@ -30610,7 +30878,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="43">
         <v>43204</v>
       </c>
@@ -30653,7 +30921,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="43">
         <v>43205</v>
       </c>
@@ -30696,7 +30964,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="43">
         <v>43206</v>
       </c>
@@ -30739,7 +31007,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="43">
         <v>43207</v>
       </c>
@@ -30782,7 +31050,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="43">
         <v>43208</v>
       </c>
@@ -30825,7 +31093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="43">
         <v>43209</v>
       </c>
@@ -30868,7 +31136,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43">
         <v>43210</v>
       </c>
@@ -30911,7 +31179,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43">
         <v>43211</v>
       </c>
@@ -30954,7 +31222,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43">
         <v>43212</v>
       </c>
@@ -30997,7 +31265,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="43">
         <v>43213</v>
       </c>
@@ -31040,7 +31308,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="43">
         <v>43214</v>
       </c>
@@ -31083,7 +31351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="43">
         <v>43215</v>
       </c>
@@ -31126,7 +31394,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="43">
         <v>43216</v>
       </c>
@@ -31169,7 +31437,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="43">
         <v>43217</v>
       </c>
@@ -31212,7 +31480,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="43">
         <v>43218</v>
       </c>
@@ -31255,7 +31523,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43">
         <v>43219</v>
       </c>
@@ -31298,7 +31566,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="43">
         <v>43220</v>
       </c>
@@ -31341,7 +31609,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
         <v>26</v>
       </c>
@@ -31390,238 +31658,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
   </sheetData>
@@ -31649,32 +31917,32 @@
       <selection activeCell="M48" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -31683,12 +31951,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="53"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -31697,14 +31965,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -31714,7 +31982,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -31727,7 +31995,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -31740,7 +32008,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -31757,7 +32025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -31770,7 +32038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -31783,7 +32051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -31793,7 +32061,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -31809,7 +32077,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -31858,7 +32126,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -31896,7 +32164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43">
         <v>43221</v>
       </c>
@@ -31939,7 +32207,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43">
         <v>43222</v>
       </c>
@@ -31982,7 +32250,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>43223</v>
       </c>
@@ -32025,7 +32293,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="43">
         <v>43224</v>
       </c>
@@ -32068,7 +32336,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="43">
         <v>43225</v>
       </c>
@@ -32111,7 +32379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="51">
         <v>43226</v>
       </c>
@@ -32154,7 +32422,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="51">
         <v>43227</v>
       </c>
@@ -32197,7 +32465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="51">
         <v>43228</v>
       </c>
@@ -32240,7 +32508,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="51">
         <v>43229</v>
       </c>
@@ -32283,7 +32551,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51">
         <v>43230</v>
       </c>
@@ -32326,7 +32594,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51">
         <v>43231</v>
       </c>
@@ -32369,7 +32637,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51">
         <v>43232</v>
       </c>
@@ -32412,7 +32680,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43">
         <v>43233</v>
       </c>
@@ -32455,7 +32723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43234</v>
       </c>
@@ -32498,7 +32766,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43235</v>
       </c>
@@ -32541,7 +32809,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43236</v>
       </c>
@@ -32584,7 +32852,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43237</v>
       </c>
@@ -32627,7 +32895,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43238</v>
       </c>
@@ -32670,7 +32938,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43239</v>
       </c>
@@ -32713,7 +32981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43240</v>
       </c>
@@ -32756,7 +33024,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43241</v>
       </c>
@@ -32799,7 +33067,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43242</v>
       </c>
@@ -32842,7 +33110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43243</v>
       </c>
@@ -32885,7 +33153,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43244</v>
       </c>
@@ -32928,7 +33196,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43245</v>
       </c>
@@ -32971,7 +33239,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43246</v>
       </c>
@@ -33014,7 +33282,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43247</v>
       </c>
@@ -33057,7 +33325,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43248</v>
       </c>
@@ -33100,7 +33368,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43249</v>
       </c>
@@ -33143,7 +33411,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43250</v>
       </c>
@@ -33186,7 +33454,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <v>43251</v>
       </c>
@@ -33229,7 +33497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B48" s="48" t="s">
         <v>26</v>
       </c>
@@ -33278,238 +33546,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
   </sheetData>
@@ -33537,32 +33805,32 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -33571,12 +33839,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="92"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -33585,14 +33853,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -33602,7 +33870,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -33615,7 +33883,7 @@
         <v>0.86040208590640865</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -33628,7 +33896,7 @@
         <v>0.12686976808014272</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -33645,7 +33913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -33658,7 +33926,7 @@
         <v>1.2385069301495815E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -33671,7 +33939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -33681,7 +33949,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -33697,7 +33965,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -33756,7 +34024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -33794,7 +34062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43252</v>
       </c>
@@ -33842,7 +34110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43253</v>
       </c>
@@ -33890,7 +34158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43254</v>
       </c>
@@ -33938,7 +34206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43255</v>
       </c>
@@ -33986,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43256</v>
       </c>
@@ -34034,7 +34302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43257</v>
       </c>
@@ -34082,7 +34350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43258</v>
       </c>
@@ -34130,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43259</v>
       </c>
@@ -34178,7 +34446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43260</v>
       </c>
@@ -34226,7 +34494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43261</v>
       </c>
@@ -34274,7 +34542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43262</v>
       </c>
@@ -34322,7 +34590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43263</v>
       </c>
@@ -34370,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43264</v>
       </c>
@@ -34418,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43265</v>
       </c>
@@ -34466,7 +34734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43266</v>
       </c>
@@ -34514,7 +34782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43267</v>
       </c>
@@ -34562,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43268</v>
       </c>
@@ -34610,7 +34878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43269</v>
       </c>
@@ -34658,7 +34926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43270</v>
       </c>
@@ -34706,7 +34974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43271</v>
       </c>
@@ -34754,7 +35022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43272</v>
       </c>
@@ -34802,7 +35070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43273</v>
       </c>
@@ -34850,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43274</v>
       </c>
@@ -34898,7 +35166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43275</v>
       </c>
@@ -34946,7 +35214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43276</v>
       </c>
@@ -34994,7 +35262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43277</v>
       </c>
@@ -35043,7 +35311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43278</v>
       </c>
@@ -35091,7 +35359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43279</v>
       </c>
@@ -35139,7 +35407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43280</v>
       </c>
@@ -35187,7 +35455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43281</v>
       </c>
@@ -35235,7 +35503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="89" t="s">
         <v>26</v>
       </c>
@@ -35284,235 +35552,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -35537,9 +35805,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="101">
         <v>43282</v>
       </c>
@@ -35577,7 +35845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="97">
         <v>43283</v>
       </c>
@@ -35615,7 +35883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="101">
         <v>43284</v>
       </c>
@@ -35653,7 +35921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="97">
         <v>43285</v>
       </c>
@@ -35691,7 +35959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="101">
         <v>43286</v>
       </c>
@@ -35729,7 +35997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="97">
         <v>43287</v>
       </c>
@@ -35767,7 +36035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="101">
         <v>43288</v>
       </c>
@@ -35805,7 +36073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="97">
         <v>43289</v>
       </c>
@@ -35843,7 +36111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="101">
         <v>43290</v>
       </c>
@@ -35881,7 +36149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="97">
         <v>43291</v>
       </c>
@@ -35919,7 +36187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="101">
         <v>43292</v>
       </c>
@@ -35957,7 +36225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
         <v>43293</v>
       </c>
@@ -35995,7 +36263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="101">
         <v>43294</v>
       </c>
@@ -36033,7 +36301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="97">
         <v>43295</v>
       </c>
@@ -36071,7 +36339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="101">
         <v>43296</v>
       </c>
@@ -36109,7 +36377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>43297</v>
       </c>
@@ -36147,7 +36415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="101">
         <v>43298</v>
       </c>
@@ -36185,7 +36453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="97">
         <v>43299</v>
       </c>
@@ -36223,7 +36491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="101">
         <v>43300</v>
       </c>
@@ -36261,7 +36529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="97">
         <v>43301</v>
       </c>
@@ -36299,7 +36567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="101">
         <v>43302</v>
       </c>
@@ -36337,7 +36605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
         <v>43303</v>
       </c>
@@ -36375,7 +36643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="101">
         <v>43304</v>
       </c>
@@ -36413,7 +36681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="97">
         <v>43305</v>
       </c>
@@ -36451,7 +36719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="101">
         <v>43306</v>
       </c>
@@ -36489,7 +36757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="97">
         <v>43307</v>
       </c>
@@ -36527,7 +36795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="101">
         <v>43308</v>
       </c>
@@ -36565,7 +36833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="97">
         <v>43309</v>
       </c>
@@ -36603,7 +36871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="101">
         <v>43310</v>
       </c>
@@ -36641,7 +36909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="97">
         <v>43311</v>
       </c>
@@ -36679,7 +36947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>43312</v>
       </c>
@@ -36717,7 +36985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="24.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="103" t="s">
         <v>26</v>
       </c>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063F6B4-4F4C-E54D-B7C5-82B85B7C1D7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F554E53-1F31-4520-A5D2-21F4213EBF10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="5580" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="5580" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,6 @@
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -864,9 +857,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
+    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
@@ -1146,6 +1139,18 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2744,18 +2749,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -2841,7 +2834,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2922,7 +2915,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43332</c:v>
@@ -2958,7 +2951,7 @@
                   <c:v>5475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4801</c:v>
+                  <c:v>4798</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6818</c:v>
@@ -2967,13 +2960,13 @@
                   <c:v>4859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>3627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3004,7 +2997,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43332</c:v>
@@ -3047,6 +3040,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3079,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43332</c:v>
@@ -3113,13 +3115,22 @@
                   <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>592</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1638</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,7 +3161,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43332</c:v>
@@ -3192,6 +3203,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3225,7 +3245,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43332</c:v>
@@ -3268,6 +3288,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,7 +3329,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$248:$B$254</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43332</c:v>
@@ -3342,6 +3371,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3374,7 +3412,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3408,7 +3446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3466,7 +3504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3508,7 +3546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3547,7 +3585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3577,7 +3615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3591,7 +3629,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3675,7 +3713,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3886,7 +3924,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4097,7 +4135,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4308,7 +4346,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4521,7 +4559,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4734,7 +4772,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4943,7 +4981,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4977,7 +5015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5035,7 +5073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5077,7 +5115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5116,7 +5154,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5146,7 +5184,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5160,7 +5198,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5244,7 +5282,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5473,7 +5511,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5702,7 +5740,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5931,7 +5969,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6162,7 +6200,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6393,7 +6431,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6620,7 +6658,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6654,7 +6692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6712,7 +6750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6754,7 +6792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6793,7 +6831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6823,7 +6861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6837,7 +6875,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6921,7 +6959,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7144,7 +7182,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7367,7 +7405,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7590,7 +7628,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7815,7 +7853,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8040,7 +8078,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8261,7 +8299,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8295,7 +8333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8353,7 +8391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8395,7 +8433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8434,7 +8472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8464,7 +8502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8478,7 +8516,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8562,7 +8600,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8791,7 +8829,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9020,7 +9058,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9249,7 +9287,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9480,7 +9518,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9711,7 +9749,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9938,7 +9976,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9972,7 +10010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10030,7 +10068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10072,7 +10110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10111,7 +10149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10141,7 +10179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10155,7 +10193,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10239,7 +10277,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10462,7 +10500,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10685,7 +10723,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10908,7 +10946,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11133,7 +11171,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11358,7 +11396,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11579,7 +11617,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11613,7 +11651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11671,7 +11709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11713,7 +11751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11752,7 +11790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11782,7 +11820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11796,7 +11834,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11877,7 +11915,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12103,7 +12141,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12329,7 +12367,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12555,7 +12593,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12783,7 +12821,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13011,7 +13049,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13238,7 +13276,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13272,7 +13310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13330,7 +13368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13372,7 +13410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13411,7 +13449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13441,7 +13479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13764,7 +13802,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
       <totalsRowFormula>SUM(C248:C254)</totalsRowFormula>
     </tableColumn>
@@ -13814,7 +13852,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -13826,46 +13864,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="87">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="86">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="84">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Complete]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="84">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="82">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Failed]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="82">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="80">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
       <calculatedColumnFormula>Tabla18203[Transactions 
 In_Prog]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="80">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="78">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Timeout]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="78">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="76">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
       <calculatedColumnFormula>Tabla18203[Transactions
 Trans Fail]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -13876,7 +13914,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
   <autoFilter ref="B16:M48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -13888,46 +13926,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="71">
       <totalsRowFormula>SUM(C42:C48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="70">
       <totalsRowFormula>SUM(D42:D48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Complete]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="68">
       <totalsRowFormula>SUM(F42:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="66">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Failed]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="66">
       <totalsRowFormula>SUM(H42:H48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="64">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
       <calculatedColumnFormula>Tabla18204[Transactions 
 In_Prog]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="64">
       <totalsRowFormula>SUM(J42:J48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="62">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Timeout]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="62">
       <totalsRowFormula>SUM(L42:L48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="60">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
       <calculatedColumnFormula>Tabla18204[Transactions
 Trans Fail]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M48)</totalsRowFormula>
@@ -13938,7 +13976,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -13950,46 +13988,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="55">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="54">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Complete]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="52">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Failed]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="50">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="48">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
       <calculatedColumnFormula>Tabla18205[Transactions 
 In_Prog]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="48">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="46">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Timeout]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="46">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="44">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
       <calculatedColumnFormula>Tabla18205[Transactions
 Trans Fail]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14000,7 +14038,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -14012,46 +14050,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="39">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="36">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Complete]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="36">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Failed]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="34">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="32">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
       <calculatedColumnFormula>Tabla18206[Transactions 
 In_Prog]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="32">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="30">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Timeout]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="30">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
       <calculatedColumnFormula>Tabla18206[Transactions
 Trans Fail]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -14062,7 +14100,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -14074,46 +14112,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="23">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Complete]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="20">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Failed]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="18">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabla18207[Transactions 
 In_Prog]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="16">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Timeout]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="14">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
       <calculatedColumnFormula>Tabla18207[Transactions
 Trans Fail]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14425,36 +14463,36 @@
   </sheetPr>
   <dimension ref="B1:M332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L251" sqref="L251"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248:M255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14463,12 +14501,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -14477,50 +14515,50 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>908506.06</v>
+        <v>913893.03</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>774299</v>
+        <v>778446</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.85227719889947673</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.85179115547035078</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>110314</v>
+        <v>111057</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.12142351587616267</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.12152078673802776</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -14530,23 +14568,23 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.3021243688787281E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+        <v>3.2826598972967326E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>23874</v>
+        <v>24371</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.6278305727536918E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2.6667234785672893E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -14559,17 +14597,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>908490</v>
+        <v>913877</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -14585,33 +14623,33 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>908506.06</v>
+        <v>913893.03</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>774299</v>
+        <v>778446</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.78605254167979433</v>
+        <v>0.79461769410496985</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>110314</v>
+        <v>111057</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.14232243516674539</v>
+        <v>0.14383239778376225</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14626,12 +14664,12 @@
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>23874</v>
+        <v>24371</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.6367693424225434E-2</v>
+        <v>4.8897620398839721E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -14644,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -14682,7 +14720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>43101</v>
       </c>
@@ -14730,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>43102</v>
       </c>
@@ -14778,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>43103</v>
       </c>
@@ -14826,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>43104</v>
       </c>
@@ -14874,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>43105</v>
       </c>
@@ -14922,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>43106</v>
       </c>
@@ -14970,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>43107</v>
       </c>
@@ -15018,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>43108</v>
       </c>
@@ -15066,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>43109</v>
       </c>
@@ -15114,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27">
         <v>43110</v>
       </c>
@@ -15162,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27">
         <v>43111</v>
       </c>
@@ -15210,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27">
         <v>43112</v>
       </c>
@@ -15258,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27">
         <v>43113</v>
       </c>
@@ -15306,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27">
         <v>43114</v>
       </c>
@@ -15354,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27">
         <v>43115</v>
       </c>
@@ -15402,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27">
         <v>43116</v>
       </c>
@@ -15450,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27">
         <v>43117</v>
       </c>
@@ -15498,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27">
         <v>43118</v>
       </c>
@@ -15546,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27">
         <v>43119</v>
       </c>
@@ -15594,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27">
         <v>43120</v>
       </c>
@@ -15642,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="27">
         <v>43121</v>
       </c>
@@ -15690,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43122</v>
       </c>
@@ -15738,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43123</v>
       </c>
@@ -15786,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43124</v>
       </c>
@@ -15834,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43125</v>
       </c>
@@ -15882,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43126</v>
       </c>
@@ -15930,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43127</v>
       </c>
@@ -15978,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43128</v>
       </c>
@@ -16026,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43129</v>
       </c>
@@ -16074,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43130</v>
       </c>
@@ -16122,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
         <v>43131</v>
       </c>
@@ -16170,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="37">
         <v>43132</v>
       </c>
@@ -16218,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="37">
         <v>43133</v>
       </c>
@@ -16266,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="37">
         <v>43134</v>
       </c>
@@ -16314,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="37">
         <v>43135</v>
       </c>
@@ -16362,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="37">
         <v>43136</v>
       </c>
@@ -16410,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="37">
         <v>43137</v>
       </c>
@@ -16458,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="37">
         <v>43138</v>
       </c>
@@ -16506,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="37">
         <v>43139</v>
       </c>
@@ -16554,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="37">
         <v>43140</v>
       </c>
@@ -16602,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="37">
         <v>43141</v>
       </c>
@@ -16650,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="37">
         <v>43142</v>
       </c>
@@ -16698,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="37">
         <v>43143</v>
       </c>
@@ -16746,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="37">
         <v>43144</v>
       </c>
@@ -16794,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="37">
         <v>43145</v>
       </c>
@@ -16842,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="37">
         <v>43146</v>
       </c>
@@ -16890,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="37">
         <v>43147</v>
       </c>
@@ -16938,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="37">
         <v>43148</v>
       </c>
@@ -16986,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="37">
         <v>43149</v>
       </c>
@@ -17034,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="37">
         <v>43150</v>
       </c>
@@ -17082,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="37">
         <v>43151</v>
       </c>
@@ -17130,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="37">
         <v>43152</v>
       </c>
@@ -17178,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="37">
         <v>43153</v>
       </c>
@@ -17226,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="37">
         <v>43154</v>
       </c>
@@ -17274,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="37">
         <v>43155</v>
       </c>
@@ -17322,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="37">
         <v>43156</v>
       </c>
@@ -17370,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="37">
         <v>43157</v>
       </c>
@@ -17418,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="37">
         <v>43158</v>
       </c>
@@ -17466,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="37">
         <v>43159</v>
       </c>
@@ -17514,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="37">
         <v>43160</v>
       </c>
@@ -17562,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="37">
         <v>43161</v>
       </c>
@@ -17610,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="37">
         <v>43162</v>
       </c>
@@ -17658,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="37">
         <v>43163</v>
       </c>
@@ -17706,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="37">
         <v>43164</v>
       </c>
@@ -17754,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="37">
         <v>43165</v>
       </c>
@@ -17802,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="37">
         <v>43166</v>
       </c>
@@ -17850,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="37">
         <v>43167</v>
       </c>
@@ -17898,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="37">
         <v>43168</v>
       </c>
@@ -17946,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="37">
         <v>43169</v>
       </c>
@@ -17994,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="37">
         <v>43170</v>
       </c>
@@ -18042,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="37">
         <v>43171</v>
       </c>
@@ -18090,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="37">
         <v>43172</v>
       </c>
@@ -18138,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="37">
         <v>43173</v>
       </c>
@@ -18186,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="37">
         <v>43174</v>
       </c>
@@ -18234,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="37">
         <v>43175</v>
       </c>
@@ -18282,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="37">
         <v>43176</v>
       </c>
@@ -18330,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="37">
         <v>43177</v>
       </c>
@@ -18378,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43">
         <v>43178</v>
       </c>
@@ -18426,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="43">
         <v>43179</v>
       </c>
@@ -18474,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="43">
         <v>43180</v>
       </c>
@@ -18522,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43">
         <v>43181</v>
       </c>
@@ -18570,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="43">
         <v>43182</v>
       </c>
@@ -18618,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="43">
         <v>43183</v>
       </c>
@@ -18666,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="43">
         <v>43184</v>
       </c>
@@ -18714,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="43">
         <v>43185</v>
       </c>
@@ -18762,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="43">
         <v>43186</v>
       </c>
@@ -18810,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="43">
         <v>43187</v>
       </c>
@@ -18858,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="43">
         <v>43188</v>
       </c>
@@ -18906,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="43">
         <v>43189</v>
       </c>
@@ -18954,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="43">
         <v>43190</v>
       </c>
@@ -19002,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="43">
         <v>43191</v>
       </c>
@@ -19050,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="43">
         <v>43192</v>
       </c>
@@ -19098,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="43">
         <v>43193</v>
       </c>
@@ -19146,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="43">
         <v>43194</v>
       </c>
@@ -19194,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="43">
         <v>43195</v>
       </c>
@@ -19242,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="43">
         <v>43196</v>
       </c>
@@ -19290,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="43">
         <v>43197</v>
       </c>
@@ -19338,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="43">
         <v>43198</v>
       </c>
@@ -19386,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="43">
         <v>43199</v>
       </c>
@@ -19434,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="43">
         <v>43200</v>
       </c>
@@ -19482,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="43">
         <v>43201</v>
       </c>
@@ -19530,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="43">
         <v>43202</v>
       </c>
@@ -19578,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="43">
         <v>43203</v>
       </c>
@@ -19626,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="43">
         <v>43204</v>
       </c>
@@ -19674,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="43">
         <v>43205</v>
       </c>
@@ -19722,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="43">
         <v>43206</v>
       </c>
@@ -19770,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="43">
         <v>43207</v>
       </c>
@@ -19818,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="43">
         <v>43208</v>
       </c>
@@ -19866,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="43">
         <v>43209</v>
       </c>
@@ -19914,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="43">
         <v>43210</v>
       </c>
@@ -19962,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="43">
         <v>43211</v>
       </c>
@@ -20010,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="43">
         <v>43212</v>
       </c>
@@ -20058,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="43">
         <v>43213</v>
       </c>
@@ -20106,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="43">
         <v>43214</v>
       </c>
@@ -20154,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="43">
         <v>43215</v>
       </c>
@@ -20202,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="43">
         <v>43216</v>
       </c>
@@ -20250,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="43">
         <v>43217</v>
       </c>
@@ -20298,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="43">
         <v>43218</v>
       </c>
@@ -20346,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="43">
         <v>43219</v>
       </c>
@@ -20394,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="43">
         <v>43220</v>
       </c>
@@ -20442,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="43">
         <v>43221</v>
       </c>
@@ -20490,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="43">
         <v>43222</v>
       </c>
@@ -20538,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="43">
         <v>43223</v>
       </c>
@@ -20586,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="43">
         <v>43224</v>
       </c>
@@ -20634,7 +20672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="43">
         <v>43225</v>
       </c>
@@ -20682,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="51">
         <v>43226</v>
       </c>
@@ -20730,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="51">
         <v>43227</v>
       </c>
@@ -20778,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="51">
         <v>43228</v>
       </c>
@@ -20826,7 +20864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="51">
         <v>43229</v>
       </c>
@@ -20874,7 +20912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="51">
         <v>43230</v>
       </c>
@@ -20922,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="51">
         <v>43231</v>
       </c>
@@ -20970,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="51">
         <v>43232</v>
       </c>
@@ -21018,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="43">
         <v>43233</v>
       </c>
@@ -21066,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="37">
         <v>43234</v>
       </c>
@@ -21114,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="37">
         <v>43235</v>
       </c>
@@ -21162,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="37">
         <v>43236</v>
       </c>
@@ -21210,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="37">
         <v>43237</v>
       </c>
@@ -21258,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="37">
         <v>43238</v>
       </c>
@@ -21306,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="37">
         <v>43239</v>
       </c>
@@ -21354,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="37">
         <v>43240</v>
       </c>
@@ -21402,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="37">
         <v>43241</v>
       </c>
@@ -21450,7 +21488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="37">
         <v>43242</v>
       </c>
@@ -21498,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="37">
         <v>43243</v>
       </c>
@@ -21546,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="37">
         <v>43244</v>
       </c>
@@ -21594,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="37">
         <v>43245</v>
       </c>
@@ -21642,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="37">
         <v>43246</v>
       </c>
@@ -21690,7 +21728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="37">
         <v>43247</v>
       </c>
@@ -21738,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="37">
         <v>43248</v>
       </c>
@@ -21786,7 +21824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="37">
         <v>43249</v>
       </c>
@@ -21834,7 +21872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="37">
         <v>43250</v>
       </c>
@@ -21882,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="37">
         <v>43251</v>
       </c>
@@ -21930,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="37">
         <v>43252</v>
       </c>
@@ -21978,7 +22016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="37">
         <v>43253</v>
       </c>
@@ -22026,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="37">
         <v>43254</v>
       </c>
@@ -22074,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="37">
         <v>43255</v>
       </c>
@@ -22122,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="37">
         <v>43256</v>
       </c>
@@ -22170,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="37">
         <v>43257</v>
       </c>
@@ -22218,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="37">
         <v>43258</v>
       </c>
@@ -22266,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="37">
         <v>43259</v>
       </c>
@@ -22314,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="37">
         <v>43260</v>
       </c>
@@ -22362,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="37">
         <v>43261</v>
       </c>
@@ -22410,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="37">
         <v>43262</v>
       </c>
@@ -22458,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="37">
         <v>43263</v>
       </c>
@@ -22506,7 +22544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="37">
         <v>43264</v>
       </c>
@@ -22554,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="37">
         <v>43265</v>
       </c>
@@ -22602,7 +22640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="37">
         <v>43266</v>
       </c>
@@ -22650,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="37">
         <v>43267</v>
       </c>
@@ -22698,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="37">
         <v>43268</v>
       </c>
@@ -22746,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="37">
         <v>43269</v>
       </c>
@@ -22794,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="37">
         <v>43270</v>
       </c>
@@ -22842,7 +22880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="37">
         <v>43271</v>
       </c>
@@ -22890,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="37">
         <v>43272</v>
       </c>
@@ -22938,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="37">
         <v>43273</v>
       </c>
@@ -22986,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="37">
         <v>43274</v>
       </c>
@@ -23034,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="37">
         <v>43275</v>
       </c>
@@ -23082,7 +23120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="37">
         <v>43276</v>
       </c>
@@ -23130,7 +23168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="37">
         <v>43277</v>
       </c>
@@ -23179,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="37">
         <v>43278</v>
       </c>
@@ -23227,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="37">
         <v>43279</v>
       </c>
@@ -23275,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="37">
         <v>43280</v>
       </c>
@@ -23323,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="37">
         <v>43281</v>
       </c>
@@ -23371,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="37">
         <v>43282</v>
       </c>
@@ -23419,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="37">
         <v>43283</v>
       </c>
@@ -23467,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="37">
         <v>43284</v>
       </c>
@@ -23515,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="37">
         <v>43285</v>
       </c>
@@ -23563,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="37">
         <v>43286</v>
       </c>
@@ -23611,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="37">
         <v>43287</v>
       </c>
@@ -23659,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="37">
         <v>43288</v>
       </c>
@@ -23707,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="37">
         <v>43289</v>
       </c>
@@ -23755,7 +23793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="37">
         <v>43290</v>
       </c>
@@ -23803,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="37">
         <v>43291</v>
       </c>
@@ -23851,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="37">
         <v>43292</v>
       </c>
@@ -23899,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="37">
         <v>43293</v>
       </c>
@@ -23947,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="37">
         <v>43294</v>
       </c>
@@ -23995,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="37">
         <v>43295</v>
       </c>
@@ -24043,7 +24081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="37">
         <v>43296</v>
       </c>
@@ -24091,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="37">
         <v>43297</v>
       </c>
@@ -24139,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="37">
         <v>43298</v>
       </c>
@@ -24187,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="37">
         <v>43299</v>
       </c>
@@ -24235,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="37">
         <v>43300</v>
       </c>
@@ -24283,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="37">
         <v>43301</v>
       </c>
@@ -24331,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="37">
         <v>43302</v>
       </c>
@@ -24379,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="37">
         <v>43303</v>
       </c>
@@ -24427,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="37">
         <v>43304</v>
       </c>
@@ -24475,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="37">
         <v>43305</v>
       </c>
@@ -24523,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="37">
         <v>43306</v>
       </c>
@@ -24571,7 +24609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="37">
         <v>43307</v>
       </c>
@@ -24619,7 +24657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="37">
         <v>43308</v>
       </c>
@@ -24667,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="37">
         <v>43309</v>
       </c>
@@ -24715,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="37">
         <v>43310</v>
       </c>
@@ -24763,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24811,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24859,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24907,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24955,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -25003,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25051,7 +25089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25099,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="37">
         <v>43318</v>
       </c>
@@ -25147,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="37">
         <v>43319</v>
       </c>
@@ -25195,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="37">
         <v>43320</v>
       </c>
@@ -25243,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="37">
         <v>43321</v>
       </c>
@@ -25291,7 +25329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="37">
         <v>43322</v>
       </c>
@@ -25339,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="37">
         <v>43323</v>
       </c>
@@ -25387,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="37">
         <v>43324</v>
       </c>
@@ -25435,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="37">
         <v>43325</v>
       </c>
@@ -25483,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="37">
         <v>43326</v>
       </c>
@@ -25531,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="37">
         <v>43327</v>
       </c>
@@ -25579,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="37">
         <v>43328</v>
       </c>
@@ -25627,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="37">
         <v>43329</v>
       </c>
@@ -25675,7 +25713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="37">
         <v>43330</v>
       </c>
@@ -25723,7 +25761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="37">
         <v>43331</v>
       </c>
@@ -25771,7 +25809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B248" s="37">
         <v>43332</v>
       </c>
@@ -25819,12 +25857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B249" s="37">
         <v>43333</v>
       </c>
       <c r="C249" s="93">
-        <v>4801</v>
+        <v>4798</v>
       </c>
       <c r="D249" s="87">
         <v>3992</v>
@@ -25832,15 +25870,15 @@
       <c r="E249" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0.83149343886690275</v>
+        <v>0.83201333889120466</v>
       </c>
       <c r="F249" s="87">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G249" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0.12330764424078317</v>
+        <v>0.12275948311796582</v>
       </c>
       <c r="H249" s="34">
         <v>0</v>
@@ -25856,7 +25894,7 @@
       <c r="K249" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>4.5198916892314103E-2</v>
+        <v>4.5227177990829509E-2</v>
       </c>
       <c r="L249" s="34">
         <v>0</v>
@@ -25867,7 +25905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B250" s="37">
         <v>43334</v>
       </c>
@@ -25915,7 +25953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B251" s="37">
         <v>43335</v>
       </c>
@@ -25963,143 +26001,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B252" s="37">
         <v>43336</v>
       </c>
       <c r="C252" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D252" s="87"/>
+        <v>3627</v>
+      </c>
+      <c r="D252" s="87">
+        <v>2855</v>
+      </c>
       <c r="E252" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F252" s="87"/>
+        <v>0.78715191618417424</v>
+      </c>
+      <c r="F252" s="87">
+        <v>552</v>
+      </c>
       <c r="G252" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H252" s="34"/>
+        <v>0.15219189412737799</v>
+      </c>
+      <c r="H252" s="34">
+        <v>0</v>
+      </c>
       <c r="I252" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J252" s="87"/>
+      <c r="J252" s="87">
+        <v>220</v>
+      </c>
       <c r="K252" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L252" s="34"/>
+        <v>6.0656189688447756E-2</v>
+      </c>
+      <c r="L252" s="34">
+        <v>0</v>
+      </c>
       <c r="M252" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B253" s="37">
         <v>43337</v>
       </c>
       <c r="C253" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D253" s="87"/>
+        <v>1478</v>
+      </c>
+      <c r="D253" s="87">
+        <v>1159</v>
+      </c>
       <c r="E253" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F253" s="87"/>
+        <v>0.78416779431664407</v>
+      </c>
+      <c r="F253" s="87">
+        <v>167</v>
+      </c>
       <c r="G253" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H253" s="34"/>
+        <v>0.11299052774018944</v>
+      </c>
+      <c r="H253" s="34">
+        <v>0</v>
+      </c>
       <c r="I253" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J253" s="87"/>
+      <c r="J253" s="87">
+        <v>152</v>
+      </c>
       <c r="K253" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L253" s="34"/>
+        <v>0.10284167794316644</v>
+      </c>
+      <c r="L253" s="34">
+        <v>0</v>
+      </c>
       <c r="M253" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B254" s="37">
         <v>43338</v>
       </c>
       <c r="C254" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="D254" s="87"/>
+        <v>285</v>
+      </c>
+      <c r="D254" s="87">
+        <v>133</v>
+      </c>
       <c r="E254" s="24">
         <f>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F254" s="87"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F254" s="87">
+        <v>27</v>
+      </c>
       <c r="G254" s="24">
         <f>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H254" s="34"/>
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="H254" s="34">
+        <v>0</v>
+      </c>
       <c r="I254" s="24">
         <f>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
-      <c r="J254" s="87"/>
+      <c r="J254" s="87">
+        <v>125</v>
+      </c>
       <c r="K254" s="24">
         <f>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L254" s="34"/>
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="L254" s="34">
+        <v>0</v>
+      </c>
       <c r="M254" s="24">
         <f>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B255" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C255" s="39">
         <f>SUM(C248:C254)</f>
-        <v>21953.029999999995</v>
+        <v>27340</v>
       </c>
       <c r="D255" s="39">
         <f>SUM(D248:D254)</f>
-        <v>17331</v>
+        <v>21478</v>
       </c>
       <c r="E255" s="94">
         <f>AVERAGE(E248:E254)</f>
-        <v>0.45400712052141323</v>
+        <v>0.7452223029773829</v>
       </c>
       <c r="F255" s="39">
         <f>SUM(F248:F254)</f>
-        <v>3765</v>
+        <v>4508</v>
       </c>
       <c r="G255" s="94">
         <f>AVERAGE(G248:G254)</f>
-        <v>9.4598406988855771E-2</v>
+        <v>0.14593713596742908</v>
       </c>
       <c r="H255" s="39">
         <f>SUM(H248:H254)</f>
@@ -26111,11 +26179,11 @@
       </c>
       <c r="J255" s="39">
         <f>SUM(J248:J254)</f>
-        <v>857</v>
+        <v>1354</v>
       </c>
       <c r="K255" s="94">
         <f>AVERAGE(K248:K254)</f>
-        <v>2.2823043918302383E-2</v>
+        <v>0.10884056105518806</v>
       </c>
       <c r="L255" s="39">
         <f>SUM(L248:L254)</f>
@@ -26126,235 +26194,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332" s="1"/>
     </row>
   </sheetData>
@@ -26382,32 +26450,32 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -26416,12 +26484,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="42"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -26430,14 +26498,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -26447,7 +26515,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -26460,7 +26528,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -26473,7 +26541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -26490,7 +26558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -26503,7 +26571,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -26516,7 +26584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -26526,7 +26594,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -26542,7 +26610,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -26591,7 +26659,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -26629,7 +26697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43132</v>
       </c>
@@ -26672,7 +26740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43133</v>
       </c>
@@ -26715,7 +26783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43134</v>
       </c>
@@ -26758,7 +26826,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43135</v>
       </c>
@@ -26801,7 +26869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43136</v>
       </c>
@@ -26844,7 +26912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43137</v>
       </c>
@@ -26887,7 +26955,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43138</v>
       </c>
@@ -26930,7 +26998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43139</v>
       </c>
@@ -26973,7 +27041,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43140</v>
       </c>
@@ -27016,7 +27084,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43141</v>
       </c>
@@ -27059,7 +27127,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43142</v>
       </c>
@@ -27102,7 +27170,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43143</v>
       </c>
@@ -27145,7 +27213,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43144</v>
       </c>
@@ -27188,7 +27256,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43145</v>
       </c>
@@ -27231,7 +27299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43146</v>
       </c>
@@ -27274,7 +27342,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43147</v>
       </c>
@@ -27317,7 +27385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43148</v>
       </c>
@@ -27360,7 +27428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43149</v>
       </c>
@@ -27403,7 +27471,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43150</v>
       </c>
@@ -27446,7 +27514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43151</v>
       </c>
@@ -27489,7 +27557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43152</v>
       </c>
@@ -27532,7 +27600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43153</v>
       </c>
@@ -27575,7 +27643,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43154</v>
       </c>
@@ -27618,7 +27686,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43155</v>
       </c>
@@ -27661,7 +27729,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43156</v>
       </c>
@@ -27704,7 +27772,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43157</v>
       </c>
@@ -27747,7 +27815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43158</v>
       </c>
@@ -27790,7 +27858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43159</v>
       </c>
@@ -27833,7 +27901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
@@ -27882,238 +27950,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
   </sheetData>
@@ -28141,32 +28209,32 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -28175,12 +28243,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="46"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -28189,14 +28257,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -28206,7 +28274,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -28219,7 +28287,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -28232,7 +28300,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -28249,7 +28317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -28262,7 +28330,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -28275,7 +28343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -28285,7 +28353,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -28301,7 +28369,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -28350,7 +28418,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -28388,7 +28456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43160</v>
       </c>
@@ -28431,7 +28499,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43161</v>
       </c>
@@ -28474,7 +28542,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43162</v>
       </c>
@@ -28517,7 +28585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43163</v>
       </c>
@@ -28560,7 +28628,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43164</v>
       </c>
@@ -28603,7 +28671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43165</v>
       </c>
@@ -28646,7 +28714,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43166</v>
       </c>
@@ -28689,7 +28757,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43167</v>
       </c>
@@ -28732,7 +28800,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43168</v>
       </c>
@@ -28775,7 +28843,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43169</v>
       </c>
@@ -28818,7 +28886,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43170</v>
       </c>
@@ -28861,7 +28929,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43171</v>
       </c>
@@ -28904,7 +28972,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43172</v>
       </c>
@@ -28947,7 +29015,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43173</v>
       </c>
@@ -28990,7 +29058,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43174</v>
       </c>
@@ -29033,7 +29101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43175</v>
       </c>
@@ -29076,7 +29144,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43176</v>
       </c>
@@ -29119,7 +29187,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43177</v>
       </c>
@@ -29162,7 +29230,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43">
         <v>43178</v>
       </c>
@@ -29205,7 +29273,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43">
         <v>43179</v>
       </c>
@@ -29248,7 +29316,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43">
         <v>43180</v>
       </c>
@@ -29291,7 +29359,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43">
         <v>43181</v>
       </c>
@@ -29334,7 +29402,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43">
         <v>43182</v>
       </c>
@@ -29377,7 +29445,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43">
         <v>43183</v>
       </c>
@@ -29420,7 +29488,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43">
         <v>43184</v>
       </c>
@@ -29463,7 +29531,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43">
         <v>43185</v>
       </c>
@@ -29506,7 +29574,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43">
         <v>43186</v>
       </c>
@@ -29549,7 +29617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43">
         <v>43187</v>
       </c>
@@ -29592,7 +29660,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43">
         <v>43188</v>
       </c>
@@ -29635,7 +29703,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43">
         <v>43189</v>
       </c>
@@ -29678,7 +29746,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="43">
         <v>43190</v>
       </c>
@@ -29721,7 +29789,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="43">
         <v>43191</v>
       </c>
@@ -29764,7 +29832,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B49" s="44" t="s">
         <v>26</v>
       </c>
@@ -29813,238 +29881,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="1"/>
     </row>
   </sheetData>
@@ -30072,32 +30140,32 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -30106,12 +30174,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -30120,14 +30188,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -30137,7 +30205,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -30150,7 +30218,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -30163,7 +30231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -30180,7 +30248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -30193,7 +30261,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -30206,7 +30274,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -30216,7 +30284,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -30232,7 +30300,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -30281,7 +30349,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -30319,7 +30387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>43191</v>
       </c>
@@ -30362,7 +30430,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>43192</v>
       </c>
@@ -30405,7 +30473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43">
         <v>43193</v>
       </c>
@@ -30448,7 +30516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43">
         <v>43194</v>
       </c>
@@ -30491,7 +30559,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43">
         <v>43195</v>
       </c>
@@ -30534,7 +30602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43">
         <v>43196</v>
       </c>
@@ -30577,7 +30645,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43">
         <v>43197</v>
       </c>
@@ -30620,7 +30688,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43">
         <v>43198</v>
       </c>
@@ -30663,7 +30731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="43">
         <v>43199</v>
       </c>
@@ -30706,7 +30774,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43">
         <v>43200</v>
       </c>
@@ -30749,7 +30817,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43">
         <v>43201</v>
       </c>
@@ -30792,7 +30860,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="43">
         <v>43202</v>
       </c>
@@ -30835,7 +30903,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43">
         <v>43203</v>
       </c>
@@ -30878,7 +30946,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="43">
         <v>43204</v>
       </c>
@@ -30921,7 +30989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43">
         <v>43205</v>
       </c>
@@ -30964,7 +31032,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>43206</v>
       </c>
@@ -31007,7 +31075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="43">
         <v>43207</v>
       </c>
@@ -31050,7 +31118,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43">
         <v>43208</v>
       </c>
@@ -31093,7 +31161,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43">
         <v>43209</v>
       </c>
@@ -31136,7 +31204,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43">
         <v>43210</v>
       </c>
@@ -31179,7 +31247,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43">
         <v>43211</v>
       </c>
@@ -31222,7 +31290,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43">
         <v>43212</v>
       </c>
@@ -31265,7 +31333,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43">
         <v>43213</v>
       </c>
@@ -31308,7 +31376,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43">
         <v>43214</v>
       </c>
@@ -31351,7 +31419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43">
         <v>43215</v>
       </c>
@@ -31394,7 +31462,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43">
         <v>43216</v>
       </c>
@@ -31437,7 +31505,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43">
         <v>43217</v>
       </c>
@@ -31480,7 +31548,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43">
         <v>43218</v>
       </c>
@@ -31523,7 +31591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43">
         <v>43219</v>
       </c>
@@ -31566,7 +31634,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43">
         <v>43220</v>
       </c>
@@ -31609,7 +31677,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="44" t="s">
         <v>26</v>
       </c>
@@ -31658,238 +31726,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
   </sheetData>
@@ -31917,32 +31985,32 @@
       <selection activeCell="M48" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -31951,12 +32019,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="53"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -31965,14 +32033,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -31982,7 +32050,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -31995,7 +32063,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -32008,7 +32076,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -32025,7 +32093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -32038,7 +32106,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -32051,7 +32119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -32061,7 +32129,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -32077,7 +32145,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -32126,7 +32194,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -32164,7 +32232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>43221</v>
       </c>
@@ -32207,7 +32275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>43222</v>
       </c>
@@ -32250,7 +32318,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43">
         <v>43223</v>
       </c>
@@ -32293,7 +32361,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43">
         <v>43224</v>
       </c>
@@ -32336,7 +32404,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43">
         <v>43225</v>
       </c>
@@ -32379,7 +32447,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="51">
         <v>43226</v>
       </c>
@@ -32422,7 +32490,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51">
         <v>43227</v>
       </c>
@@ -32465,7 +32533,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51">
         <v>43228</v>
       </c>
@@ -32508,7 +32576,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="51">
         <v>43229</v>
       </c>
@@ -32551,7 +32619,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="51">
         <v>43230</v>
       </c>
@@ -32594,7 +32662,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="51">
         <v>43231</v>
       </c>
@@ -32637,7 +32705,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51">
         <v>43232</v>
       </c>
@@ -32680,7 +32748,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43">
         <v>43233</v>
       </c>
@@ -32723,7 +32791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43234</v>
       </c>
@@ -32766,7 +32834,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43235</v>
       </c>
@@ -32809,7 +32877,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43236</v>
       </c>
@@ -32852,7 +32920,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43237</v>
       </c>
@@ -32895,7 +32963,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43238</v>
       </c>
@@ -32938,7 +33006,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43239</v>
       </c>
@@ -32981,7 +33049,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43240</v>
       </c>
@@ -33024,7 +33092,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43241</v>
       </c>
@@ -33067,7 +33135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43242</v>
       </c>
@@ -33110,7 +33178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43243</v>
       </c>
@@ -33153,7 +33221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43244</v>
       </c>
@@ -33196,7 +33264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43245</v>
       </c>
@@ -33239,7 +33307,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43246</v>
       </c>
@@ -33282,7 +33350,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43247</v>
       </c>
@@ -33325,7 +33393,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43248</v>
       </c>
@@ -33368,7 +33436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43249</v>
       </c>
@@ -33411,7 +33479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43250</v>
       </c>
@@ -33454,7 +33522,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37">
         <v>43251</v>
       </c>
@@ -33497,7 +33565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B48" s="48" t="s">
         <v>26</v>
       </c>
@@ -33546,238 +33614,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
   </sheetData>
@@ -33805,32 +33873,32 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -33839,12 +33907,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="92"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -33853,14 +33921,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -33870,7 +33938,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -33883,7 +33951,7 @@
         <v>0.86040208590640865</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -33896,7 +33964,7 @@
         <v>0.12686976808014272</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -33913,7 +33981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -33926,7 +33994,7 @@
         <v>1.2385069301495815E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -33939,7 +34007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -33949,7 +34017,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -33965,7 +34033,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -34024,7 +34092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -34062,7 +34130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37">
         <v>43252</v>
       </c>
@@ -34110,7 +34178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>43253</v>
       </c>
@@ -34158,7 +34226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37">
         <v>43254</v>
       </c>
@@ -34206,7 +34274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>43255</v>
       </c>
@@ -34254,7 +34322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>43256</v>
       </c>
@@ -34302,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37">
         <v>43257</v>
       </c>
@@ -34350,7 +34418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>43258</v>
       </c>
@@ -34398,7 +34466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="37">
         <v>43259</v>
       </c>
@@ -34446,7 +34514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>43260</v>
       </c>
@@ -34494,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
         <v>43261</v>
       </c>
@@ -34542,7 +34610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37">
         <v>43262</v>
       </c>
@@ -34590,7 +34658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>43263</v>
       </c>
@@ -34638,7 +34706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>43264</v>
       </c>
@@ -34686,7 +34754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>43265</v>
       </c>
@@ -34734,7 +34802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37">
         <v>43266</v>
       </c>
@@ -34782,7 +34850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>43267</v>
       </c>
@@ -34830,7 +34898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="37">
         <v>43268</v>
       </c>
@@ -34878,7 +34946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37">
         <v>43269</v>
       </c>
@@ -34926,7 +34994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="37">
         <v>43270</v>
       </c>
@@ -34974,7 +35042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37">
         <v>43271</v>
       </c>
@@ -35022,7 +35090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37">
         <v>43272</v>
       </c>
@@ -35070,7 +35138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37">
         <v>43273</v>
       </c>
@@ -35118,7 +35186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37">
         <v>43274</v>
       </c>
@@ -35166,7 +35234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>43275</v>
       </c>
@@ -35214,7 +35282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37">
         <v>43276</v>
       </c>
@@ -35262,7 +35330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37">
         <v>43277</v>
       </c>
@@ -35311,7 +35379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>43278</v>
       </c>
@@ -35359,7 +35427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37">
         <v>43279</v>
       </c>
@@ -35407,7 +35475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37">
         <v>43280</v>
       </c>
@@ -35455,7 +35523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37">
         <v>43281</v>
       </c>
@@ -35503,7 +35571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="89" t="s">
         <v>26</v>
       </c>
@@ -35552,235 +35620,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -35805,9 +35873,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="101">
         <v>43282</v>
       </c>
@@ -35845,7 +35913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="97">
         <v>43283</v>
       </c>
@@ -35883,7 +35951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="101">
         <v>43284</v>
       </c>
@@ -35921,7 +35989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="97">
         <v>43285</v>
       </c>
@@ -35959,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="101">
         <v>43286</v>
       </c>
@@ -35997,7 +36065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="97">
         <v>43287</v>
       </c>
@@ -36035,7 +36103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="101">
         <v>43288</v>
       </c>
@@ -36073,7 +36141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="97">
         <v>43289</v>
       </c>
@@ -36111,7 +36179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="101">
         <v>43290</v>
       </c>
@@ -36149,7 +36217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="97">
         <v>43291</v>
       </c>
@@ -36187,7 +36255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="101">
         <v>43292</v>
       </c>
@@ -36225,7 +36293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="97">
         <v>43293</v>
       </c>
@@ -36263,7 +36331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="101">
         <v>43294</v>
       </c>
@@ -36301,7 +36369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="97">
         <v>43295</v>
       </c>
@@ -36339,7 +36407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="101">
         <v>43296</v>
       </c>
@@ -36377,7 +36445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="97">
         <v>43297</v>
       </c>
@@ -36415,7 +36483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="101">
         <v>43298</v>
       </c>
@@ -36453,7 +36521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="97">
         <v>43299</v>
       </c>
@@ -36491,7 +36559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="101">
         <v>43300</v>
       </c>
@@ -36529,7 +36597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="97">
         <v>43301</v>
       </c>
@@ -36567,7 +36635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="101">
         <v>43302</v>
       </c>
@@ -36605,7 +36673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="97">
         <v>43303</v>
       </c>
@@ -36643,7 +36711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="101">
         <v>43304</v>
       </c>
@@ -36681,7 +36749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="97">
         <v>43305</v>
       </c>
@@ -36719,7 +36787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="101">
         <v>43306</v>
       </c>
@@ -36757,7 +36825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="97">
         <v>43307</v>
       </c>
@@ -36795,7 +36863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="101">
         <v>43308</v>
       </c>
@@ -36833,7 +36901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="97">
         <v>43309</v>
       </c>
@@ -36871,7 +36939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="101">
         <v>43310</v>
       </c>
@@ -36909,7 +36977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="97">
         <v>43311</v>
       </c>
@@ -36947,7 +37015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="101">
         <v>43312</v>
       </c>
@@ -36985,7 +37053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="24.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>26</v>
       </c>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F554E53-1F31-4520-A5D2-21F4213EBF10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09BB8A2-AA45-C14A-9988-F9D0C6E5C4A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="5580" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1960" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,13 @@
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -857,9 +864,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
-    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
@@ -1139,18 +1146,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2749,6 +2744,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -2834,7 +2841,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2913,60 +2920,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$248:$B$254</c:f>
+              <c:f>WASSPerformance!$B$255:$B$261</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43332</c:v>
+                  <c:v>43339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43333</c:v>
+                  <c:v>43340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43334</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43336</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43337</c:v>
+                  <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43338</c:v>
+                  <c:v>43345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$C$248:$C$254</c:f>
+              <c:f>WASSPerformance!$C$255:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5475</c:v>
+                  <c:v>7202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4798</c:v>
+                  <c:v>6123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6818</c:v>
+                  <c:v>4330</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4859</c:v>
+                  <c:v>5722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3627</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1478</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>285</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,60 +3002,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$248:$B$254</c:f>
+              <c:f>WASSPerformance!$B$255:$B$261</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43332</c:v>
+                  <c:v>43339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43333</c:v>
+                  <c:v>43340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43334</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43336</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43337</c:v>
+                  <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43338</c:v>
+                  <c:v>43345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$D$248:$D$254</c:f>
+              <c:f>WASSPerformance!$D$255:$D$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4522</c:v>
+                  <c:v>5933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3992</c:v>
+                  <c:v>4561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4971</c:v>
+                  <c:v>3113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3846</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2855</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>133</c:v>
+                  <c:v>4139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,60 +3075,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$248:$B$254</c:f>
+              <c:f>WASSPerformance!$B$255:$B$261</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43332</c:v>
+                  <c:v>43339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43333</c:v>
+                  <c:v>43340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43334</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43336</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43337</c:v>
+                  <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43338</c:v>
+                  <c:v>43345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$F$248:$F$254</c:f>
+              <c:f>WASSPerformance!$F$255:$F$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>746</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>589</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1638</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,37 +3148,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$248:$B$254</c:f>
+              <c:f>WASSPerformance!$B$255:$B$261</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43332</c:v>
+                  <c:v>43339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43333</c:v>
+                  <c:v>43340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43334</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43336</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43337</c:v>
+                  <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43338</c:v>
+                  <c:v>43345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$H$248:$H$254</c:f>
+              <c:f>WASSPerformance!$H$255:$H$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3203,15 +3192,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3243,60 +3223,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$248:$B$254</c:f>
+              <c:f>WASSPerformance!$B$255:$B$261</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43332</c:v>
+                  <c:v>43339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43333</c:v>
+                  <c:v>43340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43334</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43336</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43337</c:v>
+                  <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43338</c:v>
+                  <c:v>43345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$J$248:$J$254</c:f>
+              <c:f>WASSPerformance!$J$255:$J$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>207</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,37 +3298,37 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>WASSPerformance!$B$248:$B$254</c:f>
+              <c:f>WASSPerformance!$B$255:$B$261</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43332</c:v>
+                  <c:v>43339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43333</c:v>
+                  <c:v>43340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43334</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43335</c:v>
+                  <c:v>43342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43336</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43337</c:v>
+                  <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43338</c:v>
+                  <c:v>43345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>WASSPerformance!$L$248:$L$254</c:f>
+              <c:f>WASSPerformance!$L$255:$L$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3371,15 +3342,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3412,7 +3374,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3446,7 +3408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3504,7 +3466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3546,7 +3508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3585,7 +3547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3615,7 +3577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3629,7 +3591,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3713,7 +3675,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3924,7 +3886,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4135,7 +4097,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4346,7 +4308,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4559,7 +4521,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4772,7 +4734,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4981,7 +4943,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5015,7 +4977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5073,7 +5035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5115,7 +5077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5154,7 +5116,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5184,7 +5146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5198,7 +5160,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5282,7 +5244,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5511,7 +5473,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5740,7 +5702,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5969,7 +5931,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6200,7 +6162,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6431,7 +6393,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6658,7 +6620,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6692,7 +6654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6750,7 +6712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6792,7 +6754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6831,7 +6793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6861,7 +6823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6875,7 +6837,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6959,7 +6921,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7182,7 +7144,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7405,7 +7367,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7628,7 +7590,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7853,7 +7815,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8078,7 +8040,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8299,7 +8261,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8333,7 +8295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8391,7 +8353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8433,7 +8395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8472,7 +8434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8502,7 +8464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8516,7 +8478,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8600,7 +8562,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8829,7 +8791,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9058,7 +9020,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9287,7 +9249,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9518,7 +9480,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9749,7 +9711,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9976,7 +9938,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10010,7 +9972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10068,7 +10030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10110,7 +10072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10149,7 +10111,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10179,7 +10141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10193,7 +10155,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10277,7 +10239,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10500,7 +10462,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10723,7 +10685,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10946,7 +10908,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11171,7 +11133,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11396,7 +11358,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11617,7 +11579,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11651,7 +11613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11709,7 +11671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11751,7 +11713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11790,7 +11752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11820,7 +11782,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11834,7 +11796,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11915,7 +11877,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12141,7 +12103,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12367,7 +12329,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12593,7 +12555,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12821,7 +12783,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13049,7 +13011,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13276,7 +13238,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13310,7 +13272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13368,7 +13330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13410,7 +13372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13449,7 +13411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13479,7 +13441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13496,13 +13458,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>866774</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13790,8 +13752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M255" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
-  <autoFilter ref="B16:M254" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1820" displayName="Tabla1820" ref="B16:M262" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
+  <autoFilter ref="B16:M261" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -13802,49 +13764,49 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="92" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C248:C254)</totalsRowFormula>
+      <totalsRowFormula>SUM(C255:C261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D248:D254)</totalsRowFormula>
+      <totalsRowFormula>SUM(D255:D261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Complete]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E248:E254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E255:E261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F248:F254)</totalsRowFormula>
+      <totalsRowFormula>SUM(F255:F261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Failed]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G248:G254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G255:G261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H248:H254)</totalsRowFormula>
+      <totalsRowFormula>SUM(H255:H261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla1820[Transactions 
 In_Prog]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I248:I254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I255:I261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J248:J254)</totalsRowFormula>
+      <totalsRowFormula>SUM(J255:J261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla1820[Transactions 
 Timeout]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K248:K254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K255:K261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L248:L254)</totalsRowFormula>
+      <totalsRowFormula>SUM(L255:L261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla1820[Transactions
 Trans Fail]/Tabla1820[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M248:M254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M255:M261)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13852,7 +13814,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla18203" displayName="Tabla18203" ref="B16:M45" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -13864,46 +13826,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="87">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="86">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="85">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="84">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Complete]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="84">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="83">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Failed]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="82">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="81">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="80">
       <calculatedColumnFormula>Tabla18203[Transactions 
 In_Prog]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="80">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="79">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="78">
       <calculatedColumnFormula>Tabla18203[Transactions 
 Timeout]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="78">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="77">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="76">
       <calculatedColumnFormula>Tabla18203[Transactions
 Trans Fail]/Tabla18203[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -13914,7 +13876,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla18204" displayName="Tabla18204" ref="B16:M49" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <autoFilter ref="B16:M48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -13926,46 +13888,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="71">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="70">
       <totalsRowFormula>SUM(C42:C48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="70">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
       <totalsRowFormula>SUM(D42:D48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="69">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="68">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Complete]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
       <totalsRowFormula>SUM(F42:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="67">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="66">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Failed]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="66">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
       <totalsRowFormula>SUM(H42:H48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="65">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="64">
       <calculatedColumnFormula>Tabla18204[Transactions 
 In_Prog]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="64">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
       <totalsRowFormula>SUM(J42:J48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="63">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="62">
       <calculatedColumnFormula>Tabla18204[Transactions 
 Timeout]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="62">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
       <totalsRowFormula>SUM(L42:L48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="61">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="60">
       <calculatedColumnFormula>Tabla18204[Transactions
 Trans Fail]/Tabla18204[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M48)</totalsRowFormula>
@@ -13976,7 +13938,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla18205" displayName="Tabla18205" ref="B16:M47" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -13988,46 +13950,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="55">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="54">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="54">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="53">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Complete]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="50">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Failed]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="50">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="49">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="48">
       <calculatedColumnFormula>Tabla18205[Transactions 
 In_Prog]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="48">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="47">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="46">
       <calculatedColumnFormula>Tabla18205[Transactions 
 Timeout]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="46">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="45">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="44">
       <calculatedColumnFormula>Tabla18205[Transactions
 Trans Fail]/Tabla18205[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14038,7 +14000,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla18206" displayName="Tabla18206" ref="B16:M48" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -14050,46 +14012,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="37">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Complete]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="36">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="34">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Failed]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="34">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="33">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabla18206[Transactions 
 In_Prog]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="32">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="31">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="30">
       <calculatedColumnFormula>Tabla18206[Transactions 
 Timeout]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="30">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla18206[Transactions
 Trans Fail]/Tabla18206[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -14100,7 +14062,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla18207" displayName="Tabla18207" ref="B16:M47" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -14112,46 +14074,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="SUMMARY_x000a_AVERAGE" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Complete]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="20">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Failed]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" totalsRowDxfId="16">
       <calculatedColumnFormula>Tabla18207[Transactions 
 In_Prog]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="16">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="15">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabla18207[Transactions 
 Timeout]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="13">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabla18207[Transactions
 Trans Fail]/Tabla18207[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -14461,38 +14423,38 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:M332"/>
+  <dimension ref="B1:M339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248:M255"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L258" sqref="L258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14501,12 +14463,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -14515,50 +14477,50 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(Tabla1820[Total])</f>
-        <v>913893.03</v>
+        <v>937270.06</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>D15</f>
-        <v>778446</v>
+        <v>796192</v>
       </c>
       <c r="D7" s="12">
         <f>C7/C6</f>
-        <v>0.85179115547035078</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.84947981801531136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <f>F15</f>
-        <v>111057</v>
+        <v>115498</v>
       </c>
       <c r="D8" s="12">
         <f>C8/C6</f>
-        <v>0.12152078673802776</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.12322809073832999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -14568,23 +14530,23 @@
       </c>
       <c r="D9" s="12">
         <f>C9/C6</f>
-        <v>3.2826598972967326E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.2007850544164396E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11">
         <f>J15</f>
-        <v>24371</v>
+        <v>25561</v>
       </c>
       <c r="D10" s="12">
         <f>C10/C6</f>
-        <v>2.6667234785672893E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2.727175559197954E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -14597,17 +14559,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C7:C11)</f>
-        <v>913877</v>
+        <v>937254</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -14623,33 +14585,33 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(Tabla1820[Total])</f>
-        <v>913893.03</v>
+        <v>937270.06</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Complete])</f>
-        <v>778446</v>
+        <v>796192</v>
       </c>
       <c r="E15" s="15">
         <f>AVERAGE(Tabla1820[%
 Complete])</f>
-        <v>0.79461769410496985</v>
+        <v>0.78420405125829307</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Failed])</f>
-        <v>111057</v>
+        <v>115498</v>
       </c>
       <c r="G15" s="15">
         <f>AVERAGE(Tabla1820[% 
 Failed])</f>
-        <v>0.14383239778376225</v>
+        <v>0.14292413872775375</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(Tabla1820[Transactions 
@@ -14659,17 +14621,17 @@
       <c r="I15" s="15">
         <f>AVERAGE(Tabla1820[%
 In_Prog])</f>
-        <v>3.8120238423201238E-6</v>
+        <v>3.7031088753966916E-6</v>
       </c>
       <c r="J15" s="14">
         <f>SUM(Tabla1820[Transactions 
 Timeout])</f>
-        <v>24371</v>
+        <v>25561</v>
       </c>
       <c r="K15" s="15">
         <f>AVERAGE(Tabla1820[%
 Timeout])</f>
-        <v>4.8897620398839721E-2</v>
+        <v>4.8336118276982178E-2</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(Tabla1820[Transactions
@@ -14682,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -14720,7 +14682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>43101</v>
       </c>
@@ -14768,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>43102</v>
       </c>
@@ -14816,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>43103</v>
       </c>
@@ -14864,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22">
         <v>43104</v>
       </c>
@@ -14912,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="22">
         <v>43105</v>
       </c>
@@ -14960,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22">
         <v>43106</v>
       </c>
@@ -15008,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22">
         <v>43107</v>
       </c>
@@ -15056,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27">
         <v>43108</v>
       </c>
@@ -15104,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27">
         <v>43109</v>
       </c>
@@ -15152,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
         <v>43110</v>
       </c>
@@ -15200,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27">
         <v>43111</v>
       </c>
@@ -15248,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27">
         <v>43112</v>
       </c>
@@ -15296,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27">
         <v>43113</v>
       </c>
@@ -15344,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27">
         <v>43114</v>
       </c>
@@ -15392,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27">
         <v>43115</v>
       </c>
@@ -15440,7 +15402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27">
         <v>43116</v>
       </c>
@@ -15488,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27">
         <v>43117</v>
       </c>
@@ -15536,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>43118</v>
       </c>
@@ -15584,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27">
         <v>43119</v>
       </c>
@@ -15632,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27">
         <v>43120</v>
       </c>
@@ -15680,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27">
         <v>43121</v>
       </c>
@@ -15728,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43122</v>
       </c>
@@ -15776,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43123</v>
       </c>
@@ -15824,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43124</v>
       </c>
@@ -15872,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43125</v>
       </c>
@@ -15920,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43126</v>
       </c>
@@ -15968,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43127</v>
       </c>
@@ -16016,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43128</v>
       </c>
@@ -16064,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43129</v>
       </c>
@@ -16112,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43130</v>
       </c>
@@ -16160,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <v>43131</v>
       </c>
@@ -16208,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
         <v>43132</v>
       </c>
@@ -16256,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
         <v>43133</v>
       </c>
@@ -16304,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
         <v>43134</v>
       </c>
@@ -16352,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="37">
         <v>43135</v>
       </c>
@@ -16400,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
         <v>43136</v>
       </c>
@@ -16448,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
         <v>43137</v>
       </c>
@@ -16496,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="37">
         <v>43138</v>
       </c>
@@ -16544,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="37">
         <v>43139</v>
       </c>
@@ -16592,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
         <v>43140</v>
       </c>
@@ -16640,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="37">
         <v>43141</v>
       </c>
@@ -16688,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="37">
         <v>43142</v>
       </c>
@@ -16736,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="37">
         <v>43143</v>
       </c>
@@ -16784,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="37">
         <v>43144</v>
       </c>
@@ -16832,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="37">
         <v>43145</v>
       </c>
@@ -16880,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="37">
         <v>43146</v>
       </c>
@@ -16928,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="37">
         <v>43147</v>
       </c>
@@ -16976,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="37">
         <v>43148</v>
       </c>
@@ -17024,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="37">
         <v>43149</v>
       </c>
@@ -17072,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="37">
         <v>43150</v>
       </c>
@@ -17120,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="37">
         <v>43151</v>
       </c>
@@ -17168,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="37">
         <v>43152</v>
       </c>
@@ -17216,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="37">
         <v>43153</v>
       </c>
@@ -17264,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="37">
         <v>43154</v>
       </c>
@@ -17312,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="37">
         <v>43155</v>
       </c>
@@ -17360,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="37">
         <v>43156</v>
       </c>
@@ -17408,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37">
         <v>43157</v>
       </c>
@@ -17456,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="37">
         <v>43158</v>
       </c>
@@ -17504,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37">
         <v>43159</v>
       </c>
@@ -17552,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="37">
         <v>43160</v>
       </c>
@@ -17600,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="37">
         <v>43161</v>
       </c>
@@ -17648,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="37">
         <v>43162</v>
       </c>
@@ -17696,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="37">
         <v>43163</v>
       </c>
@@ -17744,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="37">
         <v>43164</v>
       </c>
@@ -17792,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37">
         <v>43165</v>
       </c>
@@ -17840,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="37">
         <v>43166</v>
       </c>
@@ -17888,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37">
         <v>43167</v>
       </c>
@@ -17936,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="37">
         <v>43168</v>
       </c>
@@ -17984,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="37">
         <v>43169</v>
       </c>
@@ -18032,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="37">
         <v>43170</v>
       </c>
@@ -18080,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="37">
         <v>43171</v>
       </c>
@@ -18128,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="37">
         <v>43172</v>
       </c>
@@ -18176,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37">
         <v>43173</v>
       </c>
@@ -18224,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="37">
         <v>43174</v>
       </c>
@@ -18272,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="37">
         <v>43175</v>
       </c>
@@ -18320,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="37">
         <v>43176</v>
       </c>
@@ -18368,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="37">
         <v>43177</v>
       </c>
@@ -18416,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
         <v>43178</v>
       </c>
@@ -18464,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="43">
         <v>43179</v>
       </c>
@@ -18512,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="43">
         <v>43180</v>
       </c>
@@ -18560,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="43">
         <v>43181</v>
       </c>
@@ -18608,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="43">
         <v>43182</v>
       </c>
@@ -18656,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="43">
         <v>43183</v>
       </c>
@@ -18704,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="43">
         <v>43184</v>
       </c>
@@ -18752,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="43">
         <v>43185</v>
       </c>
@@ -18800,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="43">
         <v>43186</v>
       </c>
@@ -18848,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="43">
         <v>43187</v>
       </c>
@@ -18896,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="43">
         <v>43188</v>
       </c>
@@ -18944,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="43">
         <v>43189</v>
       </c>
@@ -18992,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="43">
         <v>43190</v>
       </c>
@@ -19040,7 +19002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="43">
         <v>43191</v>
       </c>
@@ -19088,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="43">
         <v>43192</v>
       </c>
@@ -19136,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="43">
         <v>43193</v>
       </c>
@@ -19184,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="43">
         <v>43194</v>
       </c>
@@ -19232,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="43">
         <v>43195</v>
       </c>
@@ -19280,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="43">
         <v>43196</v>
       </c>
@@ -19328,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="43">
         <v>43197</v>
       </c>
@@ -19376,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="43">
         <v>43198</v>
       </c>
@@ -19424,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="43">
         <v>43199</v>
       </c>
@@ -19472,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="43">
         <v>43200</v>
       </c>
@@ -19520,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="43">
         <v>43201</v>
       </c>
@@ -19568,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="43">
         <v>43202</v>
       </c>
@@ -19616,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="43">
         <v>43203</v>
       </c>
@@ -19664,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="43">
         <v>43204</v>
       </c>
@@ -19712,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="43">
         <v>43205</v>
       </c>
@@ -19760,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="43">
         <v>43206</v>
       </c>
@@ -19808,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="43">
         <v>43207</v>
       </c>
@@ -19856,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="43">
         <v>43208</v>
       </c>
@@ -19904,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="43">
         <v>43209</v>
       </c>
@@ -19952,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="43">
         <v>43210</v>
       </c>
@@ -20000,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="43">
         <v>43211</v>
       </c>
@@ -20048,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="43">
         <v>43212</v>
       </c>
@@ -20096,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="43">
         <v>43213</v>
       </c>
@@ -20144,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="43">
         <v>43214</v>
       </c>
@@ -20192,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="43">
         <v>43215</v>
       </c>
@@ -20240,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="43">
         <v>43216</v>
       </c>
@@ -20288,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="43">
         <v>43217</v>
       </c>
@@ -20336,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="43">
         <v>43218</v>
       </c>
@@ -20384,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="43">
         <v>43219</v>
       </c>
@@ -20432,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="43">
         <v>43220</v>
       </c>
@@ -20480,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="43">
         <v>43221</v>
       </c>
@@ -20528,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="43">
         <v>43222</v>
       </c>
@@ -20576,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="43">
         <v>43223</v>
       </c>
@@ -20624,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="43">
         <v>43224</v>
       </c>
@@ -20672,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="43">
         <v>43225</v>
       </c>
@@ -20720,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="51">
         <v>43226</v>
       </c>
@@ -20768,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="51">
         <v>43227</v>
       </c>
@@ -20816,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="51">
         <v>43228</v>
       </c>
@@ -20864,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="51">
         <v>43229</v>
       </c>
@@ -20912,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="51">
         <v>43230</v>
       </c>
@@ -20960,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="51">
         <v>43231</v>
       </c>
@@ -21008,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="51">
         <v>43232</v>
       </c>
@@ -21056,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="43">
         <v>43233</v>
       </c>
@@ -21104,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="37">
         <v>43234</v>
       </c>
@@ -21152,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="37">
         <v>43235</v>
       </c>
@@ -21200,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="37">
         <v>43236</v>
       </c>
@@ -21248,7 +21210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="37">
         <v>43237</v>
       </c>
@@ -21296,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="37">
         <v>43238</v>
       </c>
@@ -21344,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="37">
         <v>43239</v>
       </c>
@@ -21392,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="37">
         <v>43240</v>
       </c>
@@ -21440,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="37">
         <v>43241</v>
       </c>
@@ -21488,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="37">
         <v>43242</v>
       </c>
@@ -21536,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="37">
         <v>43243</v>
       </c>
@@ -21584,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="37">
         <v>43244</v>
       </c>
@@ -21632,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="37">
         <v>43245</v>
       </c>
@@ -21680,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="37">
         <v>43246</v>
       </c>
@@ -21728,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="37">
         <v>43247</v>
       </c>
@@ -21776,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="37">
         <v>43248</v>
       </c>
@@ -21824,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="37">
         <v>43249</v>
       </c>
@@ -21872,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="37">
         <v>43250</v>
       </c>
@@ -21920,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="37">
         <v>43251</v>
       </c>
@@ -21968,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="37">
         <v>43252</v>
       </c>
@@ -22016,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="37">
         <v>43253</v>
       </c>
@@ -22064,7 +22026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="37">
         <v>43254</v>
       </c>
@@ -22112,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="37">
         <v>43255</v>
       </c>
@@ -22160,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="37">
         <v>43256</v>
       </c>
@@ -22208,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="37">
         <v>43257</v>
       </c>
@@ -22256,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="37">
         <v>43258</v>
       </c>
@@ -22304,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="37">
         <v>43259</v>
       </c>
@@ -22352,7 +22314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="37">
         <v>43260</v>
       </c>
@@ -22400,7 +22362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="37">
         <v>43261</v>
       </c>
@@ -22448,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="37">
         <v>43262</v>
       </c>
@@ -22496,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="37">
         <v>43263</v>
       </c>
@@ -22544,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="37">
         <v>43264</v>
       </c>
@@ -22592,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="37">
         <v>43265</v>
       </c>
@@ -22640,7 +22602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="37">
         <v>43266</v>
       </c>
@@ -22688,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="37">
         <v>43267</v>
       </c>
@@ -22736,7 +22698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="37">
         <v>43268</v>
       </c>
@@ -22784,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="37">
         <v>43269</v>
       </c>
@@ -22832,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="37">
         <v>43270</v>
       </c>
@@ -22880,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="37">
         <v>43271</v>
       </c>
@@ -22928,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="37">
         <v>43272</v>
       </c>
@@ -22976,7 +22938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="37">
         <v>43273</v>
       </c>
@@ -23024,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="37">
         <v>43274</v>
       </c>
@@ -23072,7 +23034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="37">
         <v>43275</v>
       </c>
@@ -23120,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="37">
         <v>43276</v>
       </c>
@@ -23168,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="37">
         <v>43277</v>
       </c>
@@ -23200,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="87">
-        <f t="shared" ref="J193" si="0">A825</f>
+        <f t="shared" ref="J193" si="0">A832</f>
         <v>0</v>
       </c>
       <c r="K193" s="24">
@@ -23217,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="37">
         <v>43278</v>
       </c>
@@ -23265,7 +23227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="37">
         <v>43279</v>
       </c>
@@ -23313,7 +23275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="37">
         <v>43280</v>
       </c>
@@ -23361,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="37">
         <v>43281</v>
       </c>
@@ -23409,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="37">
         <v>43282</v>
       </c>
@@ -23457,7 +23419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="37">
         <v>43283</v>
       </c>
@@ -23505,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="37">
         <v>43284</v>
       </c>
@@ -23553,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="37">
         <v>43285</v>
       </c>
@@ -23601,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="37">
         <v>43286</v>
       </c>
@@ -23649,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="37">
         <v>43287</v>
       </c>
@@ -23697,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="37">
         <v>43288</v>
       </c>
@@ -23745,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="37">
         <v>43289</v>
       </c>
@@ -23793,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="37">
         <v>43290</v>
       </c>
@@ -23841,7 +23803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="37">
         <v>43291</v>
       </c>
@@ -23889,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="37">
         <v>43292</v>
       </c>
@@ -23937,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="37">
         <v>43293</v>
       </c>
@@ -23985,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="37">
         <v>43294</v>
       </c>
@@ -24033,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="37">
         <v>43295</v>
       </c>
@@ -24081,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="37">
         <v>43296</v>
       </c>
@@ -24129,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="37">
         <v>43297</v>
       </c>
@@ -24177,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="37">
         <v>43298</v>
       </c>
@@ -24225,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="37">
         <v>43299</v>
       </c>
@@ -24273,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="37">
         <v>43300</v>
       </c>
@@ -24321,7 +24283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="37">
         <v>43301</v>
       </c>
@@ -24369,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="37">
         <v>43302</v>
       </c>
@@ -24417,7 +24379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="37">
         <v>43303</v>
       </c>
@@ -24465,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="37">
         <v>43304</v>
       </c>
@@ -24513,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="37">
         <v>43305</v>
       </c>
@@ -24561,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="37">
         <v>43306</v>
       </c>
@@ -24609,7 +24571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="37">
         <v>43307</v>
       </c>
@@ -24657,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="37">
         <v>43308</v>
       </c>
@@ -24705,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="37">
         <v>43309</v>
       </c>
@@ -24753,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="37">
         <v>43310</v>
       </c>
@@ -24801,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="37">
         <v>43311</v>
       </c>
@@ -24849,7 +24811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="37">
         <v>43312</v>
       </c>
@@ -24897,7 +24859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="37">
         <v>43313</v>
       </c>
@@ -24945,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="37">
         <v>43314</v>
       </c>
@@ -24993,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="37">
         <v>43315</v>
       </c>
@@ -25041,7 +25003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="37">
         <v>43316</v>
       </c>
@@ -25089,7 +25051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="37">
         <v>43317</v>
       </c>
@@ -25137,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="37">
         <v>43318</v>
       </c>
@@ -25185,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="37">
         <v>43319</v>
       </c>
@@ -25233,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="37">
         <v>43320</v>
       </c>
@@ -25281,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="37">
         <v>43321</v>
       </c>
@@ -25329,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="37">
         <v>43322</v>
       </c>
@@ -25377,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="37">
         <v>43323</v>
       </c>
@@ -25425,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="37">
         <v>43324</v>
       </c>
@@ -25473,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="37">
         <v>43325</v>
       </c>
@@ -25521,7 +25483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" s="37">
         <v>43326</v>
       </c>
@@ -25569,7 +25531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" s="37">
         <v>43327</v>
       </c>
@@ -25617,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="37">
         <v>43328</v>
       </c>
@@ -25665,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="37">
         <v>43329</v>
       </c>
@@ -25713,7 +25675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" s="37">
         <v>43330</v>
       </c>
@@ -25761,7 +25723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" s="37">
         <v>43331</v>
       </c>
@@ -25809,7 +25771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" s="37">
         <v>43332</v>
       </c>
@@ -25857,7 +25819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" s="37">
         <v>43333</v>
       </c>
@@ -25905,7 +25867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" s="37">
         <v>43334</v>
       </c>
@@ -25953,7 +25915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="37">
         <v>43335</v>
       </c>
@@ -26001,7 +25963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="37">
         <v>43336</v>
       </c>
@@ -26049,7 +26011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="37">
         <v>43337</v>
       </c>
@@ -26097,7 +26059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="37">
         <v>43338</v>
       </c>
@@ -26145,285 +26107,591 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="B255" s="38" t="s">
+    <row r="255" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="37">
+        <v>43339</v>
+      </c>
+      <c r="C255" s="93">
+        <v>7202</v>
+      </c>
+      <c r="D255" s="87">
+        <v>5933</v>
+      </c>
+      <c r="E255" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.82379894473757287</v>
+      </c>
+      <c r="F255" s="87">
+        <v>873</v>
+      </c>
+      <c r="G255" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.12121632879755623</v>
+      </c>
+      <c r="H255" s="34">
+        <v>0</v>
+      </c>
+      <c r="I255" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="87">
+        <v>396</v>
+      </c>
+      <c r="K255" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>5.4984726464870869E-2</v>
+      </c>
+      <c r="L255" s="34">
+        <v>0</v>
+      </c>
+      <c r="M255" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="37">
+        <v>43340</v>
+      </c>
+      <c r="C256" s="93">
+        <v>6123</v>
+      </c>
+      <c r="D256" s="87">
+        <v>4561</v>
+      </c>
+      <c r="E256" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.74489629266699331</v>
+      </c>
+      <c r="F256" s="87">
+        <v>1298</v>
+      </c>
+      <c r="G256" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.21198758778376614</v>
+      </c>
+      <c r="H256" s="34">
+        <v>0</v>
+      </c>
+      <c r="I256" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J256" s="87">
+        <v>264</v>
+      </c>
+      <c r="K256" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>4.3116119549240571E-2</v>
+      </c>
+      <c r="L256" s="34">
+        <v>0</v>
+      </c>
+      <c r="M256" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="37">
+        <v>43341</v>
+      </c>
+      <c r="C257" s="93">
+        <v>4330</v>
+      </c>
+      <c r="D257" s="87">
+        <v>3113</v>
+      </c>
+      <c r="E257" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.71893764434180141</v>
+      </c>
+      <c r="F257" s="87">
+        <v>968</v>
+      </c>
+      <c r="G257" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.2235565819861432</v>
+      </c>
+      <c r="H257" s="34">
+        <v>0</v>
+      </c>
+      <c r="I257" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J257" s="87">
+        <v>249</v>
+      </c>
+      <c r="K257" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>5.7505773672055428E-2</v>
+      </c>
+      <c r="L257" s="34">
+        <v>0</v>
+      </c>
+      <c r="M257" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="37">
+        <v>43342</v>
+      </c>
+      <c r="C258" s="93">
+        <v>5722</v>
+      </c>
+      <c r="D258" s="87">
+        <v>4139</v>
+      </c>
+      <c r="E258" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0.72334847955260395</v>
+      </c>
+      <c r="F258" s="87">
+        <v>1302</v>
+      </c>
+      <c r="G258" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0.22754281719678435</v>
+      </c>
+      <c r="H258" s="34">
+        <v>0</v>
+      </c>
+      <c r="I258" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J258" s="87">
+        <v>281</v>
+      </c>
+      <c r="K258" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>4.9108703250611674E-2</v>
+      </c>
+      <c r="L258" s="34">
+        <v>0</v>
+      </c>
+      <c r="M258" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="37">
+        <v>43343</v>
+      </c>
+      <c r="C259" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D259" s="87"/>
+      <c r="E259" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F259" s="87"/>
+      <c r="G259" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H259" s="34"/>
+      <c r="I259" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J259" s="87"/>
+      <c r="K259" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L259" s="34"/>
+      <c r="M259" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="37">
+        <v>43344</v>
+      </c>
+      <c r="C260" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D260" s="87"/>
+      <c r="E260" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F260" s="87"/>
+      <c r="G260" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H260" s="34"/>
+      <c r="I260" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J260" s="87"/>
+      <c r="K260" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L260" s="34"/>
+      <c r="M260" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="37">
+        <v>43345</v>
+      </c>
+      <c r="C261" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="D261" s="87"/>
+      <c r="E261" s="24">
+        <f>Tabla1820[Transactions 
+Complete]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F261" s="87"/>
+      <c r="G261" s="24">
+        <f>Tabla1820[Transactions 
+Failed]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H261" s="34"/>
+      <c r="I261" s="24">
+        <f>Tabla1820[Transactions 
+In_Prog]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J261" s="87"/>
+      <c r="K261" s="24">
+        <f>Tabla1820[Transactions 
+Timeout]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L261" s="34"/>
+      <c r="M261" s="24">
+        <f>Tabla1820[Transactions
+Trans Fail]/Tabla1820[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="B262" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C255" s="39">
-        <f>SUM(C248:C254)</f>
-        <v>27340</v>
-      </c>
-      <c r="D255" s="39">
-        <f>SUM(D248:D254)</f>
-        <v>21478</v>
-      </c>
-      <c r="E255" s="94">
-        <f>AVERAGE(E248:E254)</f>
-        <v>0.7452223029773829</v>
-      </c>
-      <c r="F255" s="39">
-        <f>SUM(F248:F254)</f>
-        <v>4508</v>
-      </c>
-      <c r="G255" s="94">
-        <f>AVERAGE(G248:G254)</f>
-        <v>0.14593713596742908</v>
-      </c>
-      <c r="H255" s="39">
-        <f>SUM(H248:H254)</f>
-        <v>0</v>
-      </c>
-      <c r="I255" s="94">
-        <f>AVERAGE(I248:I254)</f>
-        <v>0</v>
-      </c>
-      <c r="J255" s="39">
-        <f>SUM(J248:J254)</f>
-        <v>1354</v>
-      </c>
-      <c r="K255" s="94">
-        <f>AVERAGE(K248:K254)</f>
-        <v>0.10884056105518806</v>
-      </c>
-      <c r="L255" s="39">
-        <f>SUM(L248:L254)</f>
-        <v>0</v>
-      </c>
-      <c r="M255" s="94">
-        <f>AVERAGE(M248:M254)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D257" s="1"/>
-    </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D258" s="1"/>
-    </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D259" s="1"/>
-    </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D260" s="1"/>
-    </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="C262" s="39">
+        <f>SUM(C255:C261)</f>
+        <v>23377.029999999995</v>
+      </c>
+      <c r="D262" s="39">
+        <f>SUM(D255:D261)</f>
+        <v>17746</v>
+      </c>
+      <c r="E262" s="94">
+        <f>AVERAGE(E255:E261)</f>
+        <v>0.43014019447128166</v>
+      </c>
+      <c r="F262" s="39">
+        <f>SUM(F255:F261)</f>
+        <v>4441</v>
+      </c>
+      <c r="G262" s="94">
+        <f>AVERAGE(G255:G261)</f>
+        <v>0.11204333082346428</v>
+      </c>
+      <c r="H262" s="39">
+        <f>SUM(H255:H261)</f>
+        <v>0</v>
+      </c>
+      <c r="I262" s="94">
+        <f>AVERAGE(I255:I261)</f>
+        <v>0</v>
+      </c>
+      <c r="J262" s="39">
+        <f>SUM(J255:J261)</f>
+        <v>1190</v>
+      </c>
+      <c r="K262" s="94">
+        <f>AVERAGE(K255:K261)</f>
+        <v>2.9245046133825506E-2</v>
+      </c>
+      <c r="L262" s="39">
+        <f>SUM(L255:L261)</f>
+        <v>0</v>
+      </c>
+      <c r="M262" s="94">
+        <f>AVERAGE(M255:M261)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D339" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26450,32 +26718,32 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -26484,12 +26752,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="42"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -26498,14 +26766,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -26515,7 +26783,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -26528,7 +26796,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -26541,7 +26809,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -26558,7 +26826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -26571,7 +26839,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -26584,7 +26852,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -26594,7 +26862,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -26610,7 +26878,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -26659,7 +26927,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -26697,7 +26965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43132</v>
       </c>
@@ -26740,7 +27008,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43133</v>
       </c>
@@ -26783,7 +27051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43134</v>
       </c>
@@ -26826,7 +27094,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43135</v>
       </c>
@@ -26869,7 +27137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43136</v>
       </c>
@@ -26912,7 +27180,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43137</v>
       </c>
@@ -26955,7 +27223,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43138</v>
       </c>
@@ -26998,7 +27266,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43139</v>
       </c>
@@ -27041,7 +27309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43140</v>
       </c>
@@ -27084,7 +27352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43141</v>
       </c>
@@ -27127,7 +27395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43142</v>
       </c>
@@ -27170,7 +27438,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43143</v>
       </c>
@@ -27213,7 +27481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43144</v>
       </c>
@@ -27256,7 +27524,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43145</v>
       </c>
@@ -27299,7 +27567,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43146</v>
       </c>
@@ -27342,7 +27610,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43147</v>
       </c>
@@ -27385,7 +27653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43148</v>
       </c>
@@ -27428,7 +27696,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43149</v>
       </c>
@@ -27471,7 +27739,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43150</v>
       </c>
@@ -27514,7 +27782,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43151</v>
       </c>
@@ -27557,7 +27825,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43152</v>
       </c>
@@ -27600,7 +27868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43153</v>
       </c>
@@ -27643,7 +27911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43154</v>
       </c>
@@ -27686,7 +27954,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43155</v>
       </c>
@@ -27729,7 +27997,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43156</v>
       </c>
@@ -27772,7 +28040,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43157</v>
       </c>
@@ -27815,7 +28083,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43158</v>
       </c>
@@ -27858,7 +28126,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43159</v>
       </c>
@@ -27901,7 +28169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
@@ -27950,238 +28218,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
   </sheetData>
@@ -28209,32 +28477,32 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -28243,12 +28511,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="46"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -28257,14 +28525,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -28274,7 +28542,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -28287,7 +28555,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -28300,7 +28568,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -28317,7 +28585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -28330,7 +28598,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -28343,7 +28611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -28353,7 +28621,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -28369,7 +28637,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -28418,7 +28686,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -28456,7 +28724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43160</v>
       </c>
@@ -28499,7 +28767,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43161</v>
       </c>
@@ -28542,7 +28810,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43162</v>
       </c>
@@ -28585,7 +28853,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43163</v>
       </c>
@@ -28628,7 +28896,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43164</v>
       </c>
@@ -28671,7 +28939,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43165</v>
       </c>
@@ -28714,7 +28982,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43166</v>
       </c>
@@ -28757,7 +29025,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43167</v>
       </c>
@@ -28800,7 +29068,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43168</v>
       </c>
@@ -28843,7 +29111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43169</v>
       </c>
@@ -28886,7 +29154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43170</v>
       </c>
@@ -28929,7 +29197,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43171</v>
       </c>
@@ -28972,7 +29240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43172</v>
       </c>
@@ -29015,7 +29283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43173</v>
       </c>
@@ -29058,7 +29326,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43174</v>
       </c>
@@ -29101,7 +29369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43175</v>
       </c>
@@ -29144,7 +29412,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43176</v>
       </c>
@@ -29187,7 +29455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43177</v>
       </c>
@@ -29230,7 +29498,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="43">
         <v>43178</v>
       </c>
@@ -29273,7 +29541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43">
         <v>43179</v>
       </c>
@@ -29316,7 +29584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43">
         <v>43180</v>
       </c>
@@ -29359,7 +29627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43">
         <v>43181</v>
       </c>
@@ -29402,7 +29670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="43">
         <v>43182</v>
       </c>
@@ -29445,7 +29713,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="43">
         <v>43183</v>
       </c>
@@ -29488,7 +29756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="43">
         <v>43184</v>
       </c>
@@ -29531,7 +29799,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="43">
         <v>43185</v>
       </c>
@@ -29574,7 +29842,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="43">
         <v>43186</v>
       </c>
@@ -29617,7 +29885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="43">
         <v>43187</v>
       </c>
@@ -29660,7 +29928,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43">
         <v>43188</v>
       </c>
@@ -29703,7 +29971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="43">
         <v>43189</v>
       </c>
@@ -29746,7 +30014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="43">
         <v>43190</v>
       </c>
@@ -29789,7 +30057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="43">
         <v>43191</v>
       </c>
@@ -29832,7 +30100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B49" s="44" t="s">
         <v>26</v>
       </c>
@@ -29881,238 +30149,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
     </row>
   </sheetData>
@@ -30140,32 +30408,32 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -30174,12 +30442,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -30188,14 +30456,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -30205,7 +30473,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -30218,7 +30486,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -30231,7 +30499,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -30248,7 +30516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -30261,7 +30529,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -30274,7 +30542,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -30284,7 +30552,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -30300,7 +30568,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -30349,7 +30617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -30387,7 +30655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43">
         <v>43191</v>
       </c>
@@ -30430,7 +30698,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43">
         <v>43192</v>
       </c>
@@ -30473,7 +30741,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>43193</v>
       </c>
@@ -30516,7 +30784,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="43">
         <v>43194</v>
       </c>
@@ -30559,7 +30827,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="43">
         <v>43195</v>
       </c>
@@ -30602,7 +30870,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="43">
         <v>43196</v>
       </c>
@@ -30645,7 +30913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="43">
         <v>43197</v>
       </c>
@@ -30688,7 +30956,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="43">
         <v>43198</v>
       </c>
@@ -30731,7 +30999,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="43">
         <v>43199</v>
       </c>
@@ -30774,7 +31042,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="43">
         <v>43200</v>
       </c>
@@ -30817,7 +31085,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="43">
         <v>43201</v>
       </c>
@@ -30860,7 +31128,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="43">
         <v>43202</v>
       </c>
@@ -30903,7 +31171,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43">
         <v>43203</v>
       </c>
@@ -30946,7 +31214,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="43">
         <v>43204</v>
       </c>
@@ -30989,7 +31257,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="43">
         <v>43205</v>
       </c>
@@ -31032,7 +31300,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="43">
         <v>43206</v>
       </c>
@@ -31075,7 +31343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="43">
         <v>43207</v>
       </c>
@@ -31118,7 +31386,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="43">
         <v>43208</v>
       </c>
@@ -31161,7 +31429,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="43">
         <v>43209</v>
       </c>
@@ -31204,7 +31472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="43">
         <v>43210</v>
       </c>
@@ -31247,7 +31515,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="43">
         <v>43211</v>
       </c>
@@ -31290,7 +31558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43">
         <v>43212</v>
       </c>
@@ -31333,7 +31601,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="43">
         <v>43213</v>
       </c>
@@ -31376,7 +31644,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="43">
         <v>43214</v>
       </c>
@@ -31419,7 +31687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="43">
         <v>43215</v>
       </c>
@@ -31462,7 +31730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="43">
         <v>43216</v>
       </c>
@@ -31505,7 +31773,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="43">
         <v>43217</v>
       </c>
@@ -31548,7 +31816,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="43">
         <v>43218</v>
       </c>
@@ -31591,7 +31859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43">
         <v>43219</v>
       </c>
@@ -31634,7 +31902,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="43">
         <v>43220</v>
       </c>
@@ -31677,7 +31945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
         <v>26</v>
       </c>
@@ -31726,238 +31994,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
   </sheetData>
@@ -31985,32 +32253,32 @@
       <selection activeCell="M48" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -32019,12 +32287,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="53"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -32033,14 +32301,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -32050,7 +32318,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -32063,7 +32331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -32076,7 +32344,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -32093,7 +32361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -32106,7 +32374,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -32119,7 +32387,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -32129,7 +32397,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -32145,7 +32413,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -32194,7 +32462,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -32232,7 +32500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43">
         <v>43221</v>
       </c>
@@ -32275,7 +32543,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43">
         <v>43222</v>
       </c>
@@ -32318,7 +32586,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>43223</v>
       </c>
@@ -32361,7 +32629,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="43">
         <v>43224</v>
       </c>
@@ -32404,7 +32672,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="43">
         <v>43225</v>
       </c>
@@ -32447,7 +32715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="51">
         <v>43226</v>
       </c>
@@ -32490,7 +32758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="51">
         <v>43227</v>
       </c>
@@ -32533,7 +32801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="51">
         <v>43228</v>
       </c>
@@ -32576,7 +32844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="51">
         <v>43229</v>
       </c>
@@ -32619,7 +32887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51">
         <v>43230</v>
       </c>
@@ -32662,7 +32930,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51">
         <v>43231</v>
       </c>
@@ -32705,7 +32973,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51">
         <v>43232</v>
       </c>
@@ -32748,7 +33016,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43">
         <v>43233</v>
       </c>
@@ -32791,7 +33059,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43234</v>
       </c>
@@ -32834,7 +33102,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43235</v>
       </c>
@@ -32877,7 +33145,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43236</v>
       </c>
@@ -32920,7 +33188,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43237</v>
       </c>
@@ -32963,7 +33231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43238</v>
       </c>
@@ -33006,7 +33274,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43239</v>
       </c>
@@ -33049,7 +33317,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43240</v>
       </c>
@@ -33092,7 +33360,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43241</v>
       </c>
@@ -33135,7 +33403,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43242</v>
       </c>
@@ -33178,7 +33446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43243</v>
       </c>
@@ -33221,7 +33489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43244</v>
       </c>
@@ -33264,7 +33532,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43245</v>
       </c>
@@ -33307,7 +33575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43246</v>
       </c>
@@ -33350,7 +33618,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43247</v>
       </c>
@@ -33393,7 +33661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43248</v>
       </c>
@@ -33436,7 +33704,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43249</v>
       </c>
@@ -33479,7 +33747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43250</v>
       </c>
@@ -33522,7 +33790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <v>43251</v>
       </c>
@@ -33565,7 +33833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B48" s="48" t="s">
         <v>26</v>
       </c>
@@ -33614,238 +33882,238 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
   </sheetData>
@@ -33873,32 +34141,32 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -33907,12 +34175,12 @@
       </c>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="92"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -33921,14 +34189,14 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -33938,7 +34206,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -33951,7 +34219,7 @@
         <v>0.86040208590640865</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -33964,7 +34232,7 @@
         <v>0.12686976808014272</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -33981,7 +34249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -33994,7 +34262,7 @@
         <v>1.2385069301495815E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -34007,7 +34275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -34017,7 +34285,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="111" t="s">
         <v>12</v>
       </c>
@@ -34033,7 +34301,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
     </row>
-    <row r="15" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -34092,7 +34360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
@@ -34130,7 +34398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <v>43252</v>
       </c>
@@ -34178,7 +34446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>43253</v>
       </c>
@@ -34226,7 +34494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>43254</v>
       </c>
@@ -34274,7 +34542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>43255</v>
       </c>
@@ -34322,7 +34590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>43256</v>
       </c>
@@ -34370,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>43257</v>
       </c>
@@ -34418,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <v>43258</v>
       </c>
@@ -34466,7 +34734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <v>43259</v>
       </c>
@@ -34514,7 +34782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <v>43260</v>
       </c>
@@ -34562,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <v>43261</v>
       </c>
@@ -34610,7 +34878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <v>43262</v>
       </c>
@@ -34658,7 +34926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <v>43263</v>
       </c>
@@ -34706,7 +34974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <v>43264</v>
       </c>
@@ -34754,7 +35022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <v>43265</v>
       </c>
@@ -34802,7 +35070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <v>43266</v>
       </c>
@@ -34850,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <v>43267</v>
       </c>
@@ -34898,7 +35166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>43268</v>
       </c>
@@ -34946,7 +35214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <v>43269</v>
       </c>
@@ -34994,7 +35262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <v>43270</v>
       </c>
@@ -35042,7 +35310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <v>43271</v>
       </c>
@@ -35090,7 +35358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <v>43272</v>
       </c>
@@ -35138,7 +35406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <v>43273</v>
       </c>
@@ -35186,7 +35454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <v>43274</v>
       </c>
@@ -35234,7 +35502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <v>43275</v>
       </c>
@@ -35282,7 +35550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <v>43276</v>
       </c>
@@ -35330,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <v>43277</v>
       </c>
@@ -35379,7 +35647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <v>43278</v>
       </c>
@@ -35427,7 +35695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <v>43279</v>
       </c>
@@ -35475,7 +35743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <v>43280</v>
       </c>
@@ -35523,7 +35791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <v>43281</v>
       </c>
@@ -35571,7 +35839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="89" t="s">
         <v>26</v>
       </c>
@@ -35620,235 +35888,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -35873,9 +36141,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="101">
         <v>43282</v>
       </c>
@@ -35913,7 +36181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="97">
         <v>43283</v>
       </c>
@@ -35951,7 +36219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="101">
         <v>43284</v>
       </c>
@@ -35989,7 +36257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="97">
         <v>43285</v>
       </c>
@@ -36027,7 +36295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="101">
         <v>43286</v>
       </c>
@@ -36065,7 +36333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="97">
         <v>43287</v>
       </c>
@@ -36103,7 +36371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="101">
         <v>43288</v>
       </c>
@@ -36141,7 +36409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="97">
         <v>43289</v>
       </c>
@@ -36179,7 +36447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="101">
         <v>43290</v>
       </c>
@@ -36217,7 +36485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="97">
         <v>43291</v>
       </c>
@@ -36255,7 +36523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="101">
         <v>43292</v>
       </c>
@@ -36293,7 +36561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
         <v>43293</v>
       </c>
@@ -36331,7 +36599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="101">
         <v>43294</v>
       </c>
@@ -36369,7 +36637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="97">
         <v>43295</v>
       </c>
@@ -36407,7 +36675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="101">
         <v>43296</v>
       </c>
@@ -36445,7 +36713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>43297</v>
       </c>
@@ -36483,7 +36751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="101">
         <v>43298</v>
       </c>
@@ -36521,7 +36789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="97">
         <v>43299</v>
       </c>
@@ -36559,7 +36827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="101">
         <v>43300</v>
       </c>
@@ -36597,7 +36865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="97">
         <v>43301</v>
       </c>
@@ -36635,7 +36903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="101">
         <v>43302</v>
       </c>
@@ -36673,7 +36941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="97">
         <v>43303</v>
       </c>
@@ -36711,7 +36979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="101">
         <v>43304</v>
       </c>
@@ -36749,7 +37017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="97">
         <v>43305</v>
       </c>
@@ -36787,7 +37055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="101">
         <v>43306</v>
       </c>
@@ -36825,7 +37093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="97">
         <v>43307</v>
       </c>
@@ -36863,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="101">
         <v>43308</v>
       </c>
@@ -36901,7 +37169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="97">
         <v>43309</v>
       </c>
@@ -36939,7 +37207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="101">
         <v>43310</v>
       </c>
@@ -36977,7 +37245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="97">
         <v>43311</v>
       </c>
@@ -37015,7 +37283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>43312</v>
       </c>
@@ -37053,7 +37321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="24.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="103" t="s">
         <v>26</v>
       </c>

--- a/INTE-Performance-WASS-2018.xlsx
+++ b/INTE-Performance-WASS-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF58788-3FA1-3347-BC11-A2A8F888A1C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF3A0D-51C7-4EF3-BA81-9E24C79E3415}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4580" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="4584" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WASSPerformance" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,6 @@
     <definedName name="_Toc495308772" localSheetId="0">WASSPerformance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -865,9 +858,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
+    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
@@ -2842,7 +2835,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2923,7 +2916,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$262:$B$268</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43346</c:v>
@@ -2968,13 +2961,13 @@
                   <c:v>3328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1610</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3005,7 +2998,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$262:$B$268</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43346</c:v>
@@ -3048,6 +3041,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3080,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$262:$B$268</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43346</c:v>
@@ -3121,6 +3123,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,7 +3162,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$262:$B$268</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43346</c:v>
@@ -3193,6 +3204,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3226,7 +3246,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$262:$B$268</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43346</c:v>
@@ -3269,6 +3289,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,7 +3330,7 @@
             <c:numRef>
               <c:f>WASSPerformance!$B$262:$B$268</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43346</c:v>
@@ -3343,6 +3372,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3375,7 +3413,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3409,7 +3447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -3467,7 +3505,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -3509,7 +3547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3548,7 +3586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3578,7 +3616,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3592,7 +3630,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3676,7 +3714,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -3887,7 +3925,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4098,7 +4136,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4309,7 +4347,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4522,7 +4560,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4735,7 +4773,7 @@
             <c:numRef>
               <c:f>'02'!$B$17:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43132</c:v>
@@ -4944,7 +4982,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4978,7 +5016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042887872"/>
@@ -5036,7 +5074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042886240"/>
@@ -5078,7 +5116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5117,7 +5155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5147,7 +5185,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5161,7 +5199,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5245,7 +5283,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5474,7 +5512,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5703,7 +5741,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -5932,7 +5970,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6163,7 +6201,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6394,7 +6432,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6621,7 +6659,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6655,7 +6693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042889504"/>
@@ -6713,7 +6751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042894400"/>
@@ -6755,7 +6793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6794,7 +6832,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6824,7 +6862,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6838,7 +6876,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6922,7 +6960,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7145,7 +7183,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7368,7 +7406,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7591,7 +7629,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -7816,7 +7854,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8041,7 +8079,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8262,7 +8300,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8296,7 +8334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59656240"/>
@@ -8354,7 +8392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1974528736"/>
@@ -8396,7 +8434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8435,7 +8473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8465,7 +8503,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8479,7 +8517,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8563,7 +8601,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -8792,7 +8830,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9021,7 +9059,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9250,7 +9288,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9481,7 +9519,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9712,7 +9750,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -9939,7 +9977,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9973,7 +10011,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59657328"/>
@@ -10031,7 +10069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59661680"/>
@@ -10073,7 +10111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10112,7 +10150,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10142,7 +10180,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10156,7 +10194,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10240,7 +10278,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10463,7 +10501,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10686,7 +10724,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -10909,7 +10947,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11134,7 +11172,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11359,7 +11397,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11580,7 +11618,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11614,7 +11652,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59659504"/>
@@ -11672,7 +11710,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59651344"/>
@@ -11714,7 +11752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11753,7 +11791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11783,7 +11821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11797,7 +11835,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11878,7 +11916,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12104,7 +12142,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12330,7 +12368,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12556,7 +12594,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -12784,7 +12822,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13012,7 +13050,7 @@
             <c:numRef>
               <c:f>'07'!$A$1:$A$31</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13239,7 +13277,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13273,7 +13311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -13331,7 +13369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042882432"/>
@@ -13373,7 +13411,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13412,7 +13450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13442,7 +13480,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13456,7 +13494,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13493,7 +13531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14299,7 +14337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="288010159"/>
@@ -14358,7 +14396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="387946223"/>
@@ -14400,7 +14438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14437,7 +14475,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14451,7 +14489,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15315,7 +15353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042884064"/>
@@ -15374,7 +15412,7 @